--- a/UserTestEval/Data/Rawdata.xlsx
+++ b/UserTestEval/Data/Rawdata.xlsx
@@ -8,14 +8,42 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katha\Documents\uni\Evaluation-of-templates-for-requirements-documentation\UserTestEval\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{457E52EA-3F54-4B59-B020-5897B76CE277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE128EA-297E-4771-A73D-EC79FE47C5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="3" r:id="rId2"/>
+    <sheet name="AllData" sheetId="2" r:id="rId1"/>
+    <sheet name="SubjectBackground" sheetId="5" r:id="rId2"/>
+    <sheet name="SortedTexts" sheetId="3" r:id="rId3"/>
+    <sheet name="Ranking" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Ranking!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Ranking!$A$2:$A$216</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Ranking!$C$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Ranking!$C$2:$C$216</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Ranking!$A$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Ranking!$A$2:$A$216</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Ranking!$B$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Ranking!$B$2:$B$216</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Ranking!$C$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Ranking!$C$2:$C$216</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Ranking!$A$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Ranking!$A$2:$A$216</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Ranking!$B$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Ranking!$B$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Ranking!$B$2:$B$216</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Ranking!$C$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Ranking!$C$2:$C$216</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Ranking!$B$2:$B$216</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Ranking!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Ranking!$C$2:$C$216</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Ranking!$A$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Ranking!$A$2:$A$216</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Ranking!$B$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Ranking!$B$2:$B$216</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="252">
   <si>
     <t>What is your occupation?</t>
   </si>
@@ -768,6 +796,33 @@
   </si>
   <si>
     <t>MASTER2</t>
+  </si>
+  <si>
+    <t>MASTER</t>
+  </si>
+  <si>
+    <t>EARS</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>Researcher</t>
+  </si>
+  <si>
+    <t>Industry Expert</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Templates</t>
   </si>
 </sst>
 </file>
@@ -866,6 +921,3417 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A963-43AA-859D-D1B4AD545A47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-A963-43AA-859D-D1B4AD545A47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A963-43AA-859D-D1B4AD545A47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-DE"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-A963-43AA-859D-D1B4AD545A47}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>SubjectBackground!$A$1:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Industry Expert</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Researcher</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Student</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SubjectBackground!$B$1:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A963-43AA-859D-D1B4AD545A47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8645-45F9-A42D-8BFC5C5417AE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>SubjectBackground!$B$19:$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Yes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SubjectBackground!$B$20:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8645-45F9-A42D-8BFC5C5417AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.7178895631676615E-2"/>
+          <c:y val="7.444782029629908E-2"/>
+          <c:w val="0.94217329521707871"/>
+          <c:h val="0.85503588063052816"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C62E-4317-95DF-F816978D2AB8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-C62E-4317-95DF-F816978D2AB8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.25230447988762955"/>
+                  <c:y val="6.6849816849816848E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-DE"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-C62E-4317-95DF-F816978D2AB8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>SubjectBackground!$B$21:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C62E-4317-95DF-F816978D2AB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{DFFD1D8C-500C-4E2A-9211-797C479ECBE1}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>free</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{98B69223-0ACB-44C9-9018-FA832260212A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>EARS</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{F4DD60D6-E854-4988-8C74-F33CFDB1A5CD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>MASTER</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1050"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  </a:rPr>
+                  <a:t>worst </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Symbol" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Segoe UI Symbol" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>⟝ --                         -- </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>⟞ best</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1100"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{467A6503-A986-56EF-DEEE-8B1BF929EA91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98436FC9-B9F1-72B3-4765-A322399B6C25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>828676</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E012E6E-D166-66FE-ABF5-E8F9D7E70308}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Diagramm 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74A18500-178E-986C-E04C-DD9BB4EFBD57}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4248150" y="866775"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-DE" sz="1100"/>
+                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1133,8 +4599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BS44"/>
   <sheetViews>
-    <sheetView topLeftCell="AE44" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10488,10 +13954,129 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087BB873-2F62-45CC-8334-B2879527653B}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1">
+        <f>COUNTIF(AllData!$A$2:$A$44,"Industry Professional")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2">
+        <f>COUNTIF(AllData!$A$2:$A$44,"Scientific Assistant / Researcher")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3">
+        <f>COUNTIF(AllData!$A$2:$A$44,"Student")</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20">
+        <f>COUNTIF(AllData!$D$2:$D$44,"Yes")</f>
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <f>COUNTIF(AllData!$D$2:$D$44,"No")</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21">
+        <f>COUNTIF(AllData!$E$2:$E$44,"Yes")</f>
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <f>COUNTIF(AllData!$E$2:$E$44,"No")</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>251</v>
+      </c>
+      <c r="B22">
+        <f>COUNTIF(AllData!$C$2:$C$44,"Yes")</f>
+        <v>36</v>
+      </c>
+      <c r="C22">
+        <f>COUNTIF(AllData!$C$2:$C$44,"No")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23">
+        <f>COUNTIF(AllData!$F$2:$F$44,"Yes")</f>
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <f>COUNTIF(AllData!$F$2:$F$44,"No")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>249</v>
+      </c>
+      <c r="B24">
+        <f>COUNTIF(AllData!$G$2:$G$44,"Yes")</f>
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <f>COUNTIF(AllData!$G$2:$G$44,"No")</f>
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228443F6-5CB2-4437-A83F-31345570A8C2}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E43" sqref="E43:E44"/>
     </sheetView>
   </sheetViews>
@@ -10521,90 +14106,90 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f>Sheet1!A3</f>
+        <f>AllData!A3</f>
         <v>Industry Professional</v>
       </c>
       <c r="B2" t="str">
-        <f>Sheet1!AN3</f>
+        <f>AllData!AN3</f>
         <v>The system shall provide the means for shutting down the engine rapidly.</v>
       </c>
       <c r="C2" t="str">
-        <f>Sheet1!AO3</f>
+        <f>AllData!AO3</f>
         <v>Where over-speed protection is provided through hydromechanical means, the system shall keep over-speed function available between inspection and maintenance periods.</v>
       </c>
       <c r="D2" t="str">
-        <f>Sheet1!AS3</f>
+        <f>AllData!AS3</f>
         <v>The system shall provide the actor with the ability to shut down the engine rapidly.</v>
       </c>
       <c r="E2" t="str">
-        <f>Sheet1!AT3</f>
+        <f>AllData!AT3</f>
         <v>As long as hydromechanical means provide the function over-speed protection, the system shall keep over-speed function available between inspection and maintenance periods.</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>Sheet1!A17</f>
+        <f>AllData!A17</f>
         <v>Industry Professional</v>
       </c>
       <c r="B3" t="str">
-        <f>Sheet1!AN17</f>
+        <f>AllData!AN17</f>
         <v>The system shall provide means for shutting down the engine rapidly.</v>
       </c>
       <c r="C3" t="str">
-        <f>Sheet1!AO17</f>
+        <f>AllData!AO17</f>
         <v>Where over-speed protection is provided through hydromechanical means, the system shall demonstrate by test or other acceptable means that the over-speed function remains available between inspection and maintenance periods.</v>
       </c>
       <c r="D3" t="str">
-        <f>Sheet1!AS17</f>
+        <f>AllData!AS17</f>
         <v>The system shall provide the user with the ability to rapidly shut down the engine.</v>
       </c>
       <c r="E3" t="str">
-        <f>Sheet1!AT17</f>
+        <f>AllData!AT17</f>
         <v>As long as the system provides the function of over-speed protection through hydromechanical means the system shall be able to demonstrate by test or other acceptable means the availability of the over-speed function between inspection and maintenance periods.</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f>Sheet1!A26</f>
+        <f>AllData!A26</f>
         <v>Industry Professional</v>
       </c>
       <c r="B4" t="str">
-        <f>Sheet1!AN26</f>
+        <f>AllData!AN26</f>
         <v>The system shall provide means for shutting down the Engine rapidly.</v>
       </c>
       <c r="C4" t="str">
-        <f>Sheet1!AO26</f>
+        <f>AllData!AO26</f>
         <v>Where over-speed protection is provided through hydromechanical means, the over-speed function shall remain available between inspection and maintenance periods.</v>
       </c>
       <c r="D4" t="str">
-        <f>Sheet1!AS26</f>
+        <f>AllData!AS26</f>
         <v>The system shall provide the actor with the ability to shut down the engine rapidly.</v>
       </c>
       <c r="E4" t="str">
-        <f>Sheet1!AT26</f>
+        <f>AllData!AT26</f>
         <v>As long as hydromechanical means provide over-speed protection, the ECS shall be able to provide the overspeed function in between inspection and maintenance periods.</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f>Sheet1!A36</f>
+        <f>AllData!A36</f>
         <v>Industry Professional</v>
       </c>
       <c r="B5" t="str">
-        <f>Sheet1!AN36</f>
+        <f>AllData!AN36</f>
         <v>The ECS shall provide a rapid engine shutdown capability.</v>
       </c>
       <c r="C5" t="str">
-        <f>Sheet1!AO36</f>
+        <f>AllData!AO36</f>
         <v>Where an over-speed protection is provided through hydromechanical means the ECS shall kept providing an over-speed function between inspection and maintenance periods.
 To improve the requirement, I would have written instead of "Where" "In case".</v>
       </c>
       <c r="D5" t="str">
-        <f>Sheet1!AS36</f>
+        <f>AllData!AS36</f>
         <v>The ECS shall be able to provide a rapid engine shutdown.</v>
       </c>
       <c r="E5" t="str">
-        <f>Sheet1!AT36</f>
+        <f>AllData!AT36</f>
         <v>This requirement is not understood, in particular the statement "between inspection and maintenance periods". It is unclear if between the moment of an inspection and the moment of a maintenance the system shall provide a mean, or if it was meant that during the inspection and/or maintenance period the the system shall provide a specific mean. I take the later one and would write:
 As long as the system is in the state an inspection and/or maintenance period, the system shall the over-speed function.
 I have no idea how the limitation "When over-speed protection is provided through hydromechanical means" shall be added. I would have complemented the above requirement with "..., in case over-speed protection is provided through hydromechanical means".
@@ -10613,859 +14198,859 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f>Sheet1!A4</f>
+        <f>AllData!A4</f>
         <v>Scientific Assistant / Researcher</v>
       </c>
       <c r="B6" t="str">
-        <f>Sheet1!AN4</f>
+        <f>AllData!AN4</f>
         <v>x</v>
       </c>
       <c r="C6" t="str">
-        <f>Sheet1!AO4</f>
+        <f>AllData!AO4</f>
         <v>x</v>
       </c>
       <c r="D6" t="str">
-        <f>Sheet1!AS4</f>
+        <f>AllData!AS4</f>
         <v>x</v>
       </c>
       <c r="E6" t="str">
-        <f>Sheet1!AT4</f>
+        <f>AllData!AT4</f>
         <v>x</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <f>Sheet1!A2</f>
+        <f>AllData!A2</f>
         <v>Student</v>
       </c>
       <c r="B7" t="str">
-        <f>Sheet1!AN2</f>
+        <f>AllData!AN2</f>
         <v>The engine must provide means for shutting down the engine</v>
       </c>
       <c r="C7" t="str">
-        <f>Sheet1!AO2</f>
+        <f>AllData!AO2</f>
         <v>When over-speed protection is provided through hydromechanical means, the over-speed function shall remain available for inspection between maintenance periods</v>
       </c>
       <c r="D7" t="str">
-        <f>Sheet1!AS2</f>
+        <f>AllData!AS2</f>
         <v>the system shall provide the user with the ability to shit down the engine rapidly</v>
       </c>
       <c r="E7" t="str">
-        <f>Sheet1!AT2</f>
+        <f>AllData!AT2</f>
         <v>as long as over-speed protection is provided through hydromechanical means, the system shall provide the user with the ability to use the over-speed function between inspection and maintenance periods</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <f>Sheet1!A5</f>
+        <f>AllData!A5</f>
         <v>Student</v>
       </c>
       <c r="B8" t="str">
-        <f>Sheet1!AN5</f>
+        <f>AllData!AN5</f>
         <v>Where the control system includes an overspeed protection function, the Engine shall rapidly shut down.</v>
       </c>
       <c r="C8" t="str">
-        <f>Sheet1!AO5</f>
+        <f>AllData!AO5</f>
         <v>Whenre over-speed protection is provided through hydromechanical means, it shall be demonstrated by test that the over-speed function remains available between maintenance periods.</v>
       </c>
       <c r="D8" t="str">
-        <f>Sheet1!AS5</f>
+        <f>AllData!AS5</f>
         <v>The Engine shall provide the user with the ability to shut down the Engine rapidly.</v>
       </c>
       <c r="E8" t="str">
-        <f>Sheet1!AT5</f>
+        <f>AllData!AT5</f>
         <v>As long as over speed protection is provided through hydromechanical means, it must be demonstrated by test that the over-speed function remains available between inspection periods.</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f>Sheet1!A6</f>
+        <f>AllData!A6</f>
         <v>Student</v>
       </c>
       <c r="B9" t="str">
-        <f>Sheet1!AN6</f>
+        <f>AllData!AN6</f>
         <v>The system shall provide means for shutting down the Engine rapidly.</v>
       </c>
       <c r="C9" t="str">
-        <f>Sheet1!AO6</f>
+        <f>AllData!AO6</f>
         <v>Where over-speed protection is provided through hydromechanical means, the system shall demonstrate by thest or other acceptable means that the over-speed funktion remains abailable between inspection and maintenance periods</v>
       </c>
       <c r="D9" t="str">
-        <f>Sheet1!AS6</f>
+        <f>AllData!AS6</f>
         <v>The system shall be able to provide means for shutting down the Engine rapidly</v>
       </c>
       <c r="E9" t="str">
-        <f>Sheet1!AT6</f>
+        <f>AllData!AT6</f>
         <v>As long as the over-speed protection is provided through hydromechanical means,</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <f>Sheet1!A7</f>
+        <f>AllData!A7</f>
         <v>Student</v>
       </c>
       <c r="B10" t="str">
-        <f>Sheet1!AN7</f>
+        <f>AllData!AN7</f>
         <v>The system shall have the means for shutting down the Engine rapidly.</v>
       </c>
       <c r="C10" t="str">
-        <f>Sheet1!AO7</f>
+        <f>AllData!AO7</f>
         <v>Wherethe over-speed protection is provided through hydromechanical means the system shall demonstrase by test or other acceptable means that the over-speed function remians available between inspection and maintenance periods.</v>
       </c>
       <c r="D10" t="str">
-        <f>Sheet1!AS7</f>
+        <f>AllData!AS7</f>
         <v>The system shall have the capability to shut down the Engine rapidly</v>
       </c>
       <c r="E10" t="str">
-        <f>Sheet1!AT7</f>
+        <f>AllData!AT7</f>
         <v>As long as the over-speed protection is provided through hydromechanical means, the system must be able to demonstrate by test or other acceptable means that the over-speed function remains avaible between inspection and maintenance periods.</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <f>Sheet1!A8</f>
+        <f>AllData!A8</f>
         <v>Student</v>
       </c>
       <c r="B11" t="str">
-        <f>Sheet1!AN8</f>
+        <f>AllData!AN8</f>
         <v>The System shall be able to shut down the Engine.</v>
       </c>
       <c r="C11" t="str">
-        <f>Sheet1!AO8</f>
+        <f>AllData!AO8</f>
         <v>Where an over-speed protection is provided through hydromechanical mechanisms, the System shall be able to demonstrate by test or other acceptable means that the over-speed function remains available between inspection and maintenance periods.</v>
       </c>
       <c r="D11" t="str">
-        <f>Sheet1!AS8</f>
+        <f>AllData!AS8</f>
         <v>The system shall provide an ability to shut down the Engine.</v>
       </c>
       <c r="E11" t="str">
-        <f>Sheet1!AT8</f>
+        <f>AllData!AT8</f>
         <v>As long as the system is provided with over-speed protection through hyromechanical mechanisms, the system shall have the ability to demonstrate by test or other acceptable means that the over-speed function remains available between inspection and maintenance periods.</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <f>Sheet1!A9</f>
+        <f>AllData!A9</f>
         <v>Student</v>
       </c>
       <c r="B12" t="str">
-        <f>Sheet1!AN9</f>
+        <f>AllData!AN9</f>
         <v>The Engine shall have a method to shut down in less than half a second.</v>
       </c>
       <c r="C12" t="str">
-        <f>Sheet1!AO9</f>
+        <f>AllData!AO9</f>
         <v>The Overspeed protection by hydromechanical means shall be guaranteerd to be working between inspection and maintenance periods by test and other methods.</v>
       </c>
       <c r="D12" t="str">
-        <f>Sheet1!AS9</f>
+        <f>AllData!AS9</f>
         <v>The Engine must be able to get shut down in less than half a second.</v>
       </c>
       <c r="E12" t="str">
-        <f>Sheet1!AT9</f>
+        <f>AllData!AT9</f>
         <v>The overspeed protection shall be guaranteed to work between inspection and maintenance periods by tests and other methods.</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <f>Sheet1!A10</f>
+        <f>AllData!A10</f>
         <v>Student</v>
       </c>
       <c r="B13" t="str">
-        <f>Sheet1!AN10</f>
+        <f>AllData!AN10</f>
         <v>The control system shall provided the Engine on shutting down rapidly.</v>
       </c>
       <c r="C13" t="str">
-        <f>Sheet1!AO10</f>
+        <f>AllData!AO10</f>
         <v>Where the control system includes an overspeed protection function, the control system shall test between inspection and maintenance periods.</v>
       </c>
       <c r="D13" t="str">
-        <f>Sheet1!AS10</f>
+        <f>AllData!AS10</f>
         <v>The control system shall provide the Engine on shutting Down rapidly.</v>
       </c>
       <c r="E13" t="str">
-        <f>Sheet1!AT10</f>
+        <f>AllData!AT10</f>
         <v>As long as the control system is in inspection or maintenance periods, the control system shall provide the Engine on hydromechanical means.</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f>Sheet1!A11</f>
+        <f>AllData!A11</f>
         <v>Student</v>
       </c>
       <c r="B14" t="str">
-        <f>Sheet1!AN11</f>
+        <f>AllData!AN11</f>
         <v>The EARS shall provide for shutting down the Engine rapidly</v>
       </c>
       <c r="C14" t="str">
-        <f>Sheet1!AO11</f>
+        <f>AllData!AO11</f>
         <v>Where the EARS has a over-speed protection is provide through hydromechanical, the EARS System shall demonstrated by test or other acceptable means that the over-spee function remains viable between inspection and maintenance periods</v>
       </c>
       <c r="D14" t="str">
-        <f>Sheet1!AS11</f>
+        <f>AllData!AS11</f>
         <v>The MASTER System shall provide to shut down the Engine rapidly</v>
       </c>
       <c r="E14" t="str">
-        <f>Sheet1!AT11</f>
+        <f>AllData!AT11</f>
         <v>Where the over-speed protection is provide through hydromechanical shall be demonstrated by test or other acceptable between inspection and maintain periods</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <f>Sheet1!A12</f>
+        <f>AllData!A12</f>
         <v>Student</v>
       </c>
       <c r="B15" t="str">
-        <f>Sheet1!AN12</f>
+        <f>AllData!AN12</f>
         <v>The Engine should be able to be rapidly shut down</v>
       </c>
       <c r="C15" t="str">
-        <f>Sheet1!AO12</f>
+        <f>AllData!AO12</f>
         <v>Where over-speed protection is provided through hydromechanical means the over-speed function should be available between inspection and maintenance periods</v>
       </c>
       <c r="D15" t="str">
-        <f>Sheet1!AS12</f>
+        <f>AllData!AS12</f>
         <v>The Engine must be able to shut down rapidly</v>
       </c>
       <c r="E15" t="str">
-        <f>Sheet1!AT12</f>
+        <f>AllData!AT12</f>
         <v>As long as over-speed protection is provided through hydromechanical means it must be available between inspection and maintenance periods.</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <f>Sheet1!A13</f>
+        <f>AllData!A13</f>
         <v>Student</v>
       </c>
       <c r="B16" t="str">
-        <f>Sheet1!AN13</f>
+        <f>AllData!AN13</f>
         <v>The system shall provide means for shutting down the Engine rapidly.</v>
       </c>
       <c r="C16" t="str">
-        <f>Sheet1!AO13</f>
+        <f>AllData!AO13</f>
         <v>Where over-speed protection is provided through hydromechanical means, the system shall remain the over-speed function between inspection and maintenance periods.</v>
       </c>
       <c r="D16" t="str">
-        <f>Sheet1!AS13</f>
+        <f>AllData!AS13</f>
         <v>The system shall be able to provide provide means for shutting down the Engine rapidly.</v>
       </c>
       <c r="E16" t="str">
-        <f>Sheet1!AT13</f>
+        <f>AllData!AT13</f>
         <v>As long as the system is provided with over-speed protection through hydromechanical means, it must be demonstrated by test or other acceptable means that the over-speed function remains available between inspection and maintenance periods.</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <f>Sheet1!A14</f>
+        <f>AllData!A14</f>
         <v>Student</v>
       </c>
       <c r="B17" t="str">
-        <f>Sheet1!AN14</f>
+        <f>AllData!AN14</f>
         <v>The Engine must provide a rapidly shutdown</v>
       </c>
       <c r="C17" t="str">
-        <f>Sheet1!AO14</f>
+        <f>AllData!AO14</f>
         <v>When over-speed protection is provided through hydromechanical means, it must be a over-speed function</v>
       </c>
       <c r="D17" t="str">
-        <f>Sheet1!AS14</f>
+        <f>AllData!AS14</f>
         <v>The System must provide a shutting down to be able rapidly shutting down the Engine.</v>
       </c>
       <c r="E17" t="str">
-        <f>Sheet1!AT14</f>
+        <f>AllData!AT14</f>
         <v>As lang the over-speed protection is provided through hydromechanical, it remains available between inspection and maintenance periods</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <f>Sheet1!A15</f>
+        <f>AllData!A15</f>
         <v>Student</v>
       </c>
       <c r="B18" t="str">
-        <f>Sheet1!AN15</f>
+        <f>AllData!AN15</f>
         <v>The control system shall provide the option to shut down the engines quickly.</v>
       </c>
       <c r="C18" t="str">
-        <f>Sheet1!AO15</f>
+        <f>AllData!AO15</f>
         <v>Where the control system provides over-speed protection through hydromechanicals function, the control system shall demonstrate that the over-speed function remains available between inspection and maintenance.</v>
       </c>
       <c r="D18" t="str">
-        <f>Sheet1!AS15</f>
+        <f>AllData!AS15</f>
         <v>As long as the system is in the state actve, the system shall provide the user with the ability to shut down the engine within five seconds.</v>
       </c>
       <c r="E18" t="str">
-        <f>Sheet1!AT15</f>
+        <f>AllData!AT15</f>
         <v>The system shall provide the user with the ability to demonstate that the overspeed function remains available between inspection and maintenance.</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <f>Sheet1!A16</f>
+        <f>AllData!A16</f>
         <v>Student</v>
       </c>
       <c r="B19" t="str">
-        <f>Sheet1!AN16</f>
+        <f>AllData!AN16</f>
         <v>The control system shall provide means for shutting down the engine rapidly.</v>
       </c>
       <c r="C19" t="str">
-        <f>Sheet1!AO16</f>
+        <f>AllData!AO16</f>
         <v>Where the control system provides an over-speed protection through hydromechanical means the control system shall demonstrate by test or other acceptable means that the over-speed function remains available between inspection and maintenance periods.</v>
       </c>
       <c r="D19" t="str">
-        <f>Sheet1!AS16</f>
+        <f>AllData!AS16</f>
         <v>The system shall be able to provide means for shutting down the engine rapidly.</v>
       </c>
       <c r="E19" t="str">
-        <f>Sheet1!AT16</f>
+        <f>AllData!AT16</f>
         <v>the system shall be able to provide over-speed protection through hydromechanical means. The system shall demonstrate by test that the over-speed function remains available between inspection and maintenance periods.</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <f>Sheet1!A18</f>
+        <f>AllData!A18</f>
         <v>Student</v>
       </c>
       <c r="B20" t="str">
-        <f>Sheet1!AN18</f>
+        <f>AllData!AN18</f>
         <v>The system must provide means for shutting down the engine rapidly.</v>
       </c>
       <c r="C20" t="str">
-        <f>Sheet1!AO18</f>
+        <f>AllData!AO18</f>
         <v>Where over-speed protection is provided through hydromechanical means, the over-speed function must remain available between inspection and maintenance periods.</v>
       </c>
       <c r="D20" t="str">
-        <f>Sheet1!AS18</f>
+        <f>AllData!AS18</f>
         <v>The system shall be able to shut down the engine rapidly.</v>
       </c>
       <c r="E20" t="str">
-        <f>Sheet1!AT18</f>
+        <f>AllData!AT18</f>
         <v>-</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <f>Sheet1!A19</f>
+        <f>AllData!A19</f>
         <v>Student</v>
       </c>
       <c r="B21" t="str">
-        <f>Sheet1!AN19</f>
+        <f>AllData!AN19</f>
         <v>The engine shall provide means for shutting down rapidly.</v>
       </c>
       <c r="C21" t="str">
-        <f>Sheet1!AO19</f>
+        <f>AllData!AO19</f>
         <v>Where over-speed protection is provided through hydromechanical means the system shall demonstrate by test or other acceptable means that the over-speed function remains available between inspection and maintenance periods.</v>
       </c>
       <c r="D21" t="str">
-        <f>Sheet1!AS19</f>
+        <f>AllData!AS19</f>
         <v>The Engine shall provide means for shutting down rapidly.</v>
       </c>
       <c r="E21" t="str">
-        <f>Sheet1!AT19</f>
+        <f>AllData!AT19</f>
         <v>As long as the engine provide over-speed protection through hydromechanical means, it must be demonstrated by test or other acceptable means that the over-speed function remains available between inspection and maintenance periods.</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <f>Sheet1!A20</f>
+        <f>AllData!A20</f>
         <v>Student</v>
       </c>
       <c r="B22" t="str">
-        <f>Sheet1!AN20</f>
+        <f>AllData!AN20</f>
         <v>The system must enable the engine to be shut down immediatly.</v>
       </c>
       <c r="C22" t="str">
-        <f>Sheet1!AO20</f>
+        <f>AllData!AO20</f>
         <v>The system must prove the over-speed function to remain available between inspection and maintenance periods.</v>
       </c>
       <c r="D22" t="str">
-        <f>Sheet1!AS20</f>
+        <f>AllData!AS20</f>
         <v>The engine must be rapidly shut down.</v>
       </c>
       <c r="E22" t="str">
-        <f>Sheet1!AT20</f>
+        <f>AllData!AT20</f>
         <v>As long as over-speed protection is provided through hydromechanical means, the over-speed function must remain available between inspection and maintenance periods.</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <f>Sheet1!A21</f>
+        <f>AllData!A21</f>
         <v>Student</v>
       </c>
       <c r="B23" t="str">
-        <f>Sheet1!AN21</f>
+        <f>AllData!AN21</f>
         <v>The engine must be provided for shutting down rapidly.</v>
       </c>
       <c r="C23" t="str">
-        <f>Sheet1!AO21</f>
+        <f>AllData!AO21</f>
         <v>The over-speed function must remain available between inspection and maintenance periods when over-speed protection is provided.</v>
       </c>
       <c r="D23" t="str">
-        <f>Sheet1!AS21</f>
+        <f>AllData!AS21</f>
         <v>The engine shall be designed in away that it shuts down rapidly.</v>
       </c>
       <c r="E23" t="str">
-        <f>Sheet1!AT21</f>
+        <f>AllData!AT21</f>
         <v>As long as the over-speed protection is provided through hydromechanical means, the system shall be demonstrated by test or other acceptable means that the over-speed function remains available between inspection and maintenance periods.</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <f>Sheet1!A22</f>
+        <f>AllData!A22</f>
         <v>Student</v>
       </c>
       <c r="B24" t="str">
-        <f>Sheet1!AN22</f>
+        <f>AllData!AN22</f>
         <v>The engine shall shut down within x seconds.</v>
       </c>
       <c r="C24" t="str">
-        <f>Sheet1!AO22</f>
+        <f>AllData!AO22</f>
         <v>Where inspection and maintenance periods occure the overspeed protection shall remain available.</v>
       </c>
       <c r="D24" t="str">
-        <f>Sheet1!AS22</f>
+        <f>AllData!AS22</f>
         <v>The engine shall shut down within x seconds.</v>
       </c>
       <c r="E24" t="str">
-        <f>Sheet1!AT22</f>
+        <f>AllData!AT22</f>
         <v>As long as over-speed protection is provided through hydromechanical means the over-speed function shall remain available between inspection and maintenance periods.</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <f>Sheet1!A23</f>
+        <f>AllData!A23</f>
         <v>Student</v>
       </c>
       <c r="B25" t="str">
-        <f>Sheet1!AN23</f>
+        <f>AllData!AN23</f>
         <v>The engine system shall provide rapid shut down.</v>
       </c>
       <c r="C25" t="str">
-        <f>Sheet1!AO23</f>
+        <f>AllData!AO23</f>
         <v>Where the system includes an over-speed protection through hydromechanical means, the system shall demonstrated by test.</v>
       </c>
       <c r="D25" t="str">
-        <f>Sheet1!AS23</f>
+        <f>AllData!AS23</f>
         <v>The system shall provide the user with the ability to shut down the engine.</v>
       </c>
       <c r="E25" t="str">
-        <f>Sheet1!AT23</f>
+        <f>AllData!AT23</f>
         <v>As long as the system provides over-speed protection, the function shall be demonstrated by test or other acceptable means that the over-speed function remains available between inspection and maintenance periods.</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <f>Sheet1!A24</f>
+        <f>AllData!A24</f>
         <v>Student</v>
       </c>
       <c r="B26" t="str">
-        <f>Sheet1!AN24</f>
+        <f>AllData!AN24</f>
         <v>The engine shall shut down rapidly.</v>
       </c>
       <c r="C26" t="str">
-        <f>Sheet1!AO24</f>
+        <f>AllData!AO24</f>
         <v>Where over-speed protection is provided, the over-speed function shall remain available between inspection and maintenance periods.</v>
       </c>
       <c r="D26" t="str">
-        <f>Sheet1!AS24</f>
+        <f>AllData!AS24</f>
         <v>The ECS shall be able to shut down the engine rapidly.</v>
       </c>
       <c r="E26" t="str">
-        <f>Sheet1!AT24</f>
+        <f>AllData!AT24</f>
         <v>If over-speed protection is provided through hydromechanical means, the ECS shall be able to provide the overspeed function in between inspection and maintenance periods.</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <f>Sheet1!A25</f>
+        <f>AllData!A25</f>
         <v>Student</v>
       </c>
       <c r="B27" t="str">
-        <f>Sheet1!AN25</f>
+        <f>AllData!AN25</f>
         <v>-</v>
       </c>
       <c r="C27" t="str">
-        <f>Sheet1!AO25</f>
+        <f>AllData!AO25</f>
         <v>-</v>
       </c>
       <c r="D27" t="str">
-        <f>Sheet1!AS25</f>
+        <f>AllData!AS25</f>
         <v>The ECS shall be able to shut down the engine rapidly.</v>
       </c>
       <c r="E27" t="str">
-        <f>Sheet1!AT25</f>
+        <f>AllData!AT25</f>
         <v>If over-speed protection is provided through hydromechanical means, the ECS shall be able to provide the overspeed function in between inspection and maintenance periods.</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <f>Sheet1!A27</f>
+        <f>AllData!A27</f>
         <v>Student</v>
       </c>
       <c r="B28" t="str">
-        <f>Sheet1!AN27</f>
+        <f>AllData!AN27</f>
         <v>The system shall provide means for shutting down the engine rapidly.</v>
       </c>
       <c r="C28" t="str">
-        <f>Sheet1!AO27</f>
+        <f>AllData!AO27</f>
         <v>Where over-speed protection is provided through hydromechanical means the system shall demonstrate by test or other acceptable means that the over-speed function remains available between inspection and maintenance periods.</v>
       </c>
       <c r="D28" t="str">
-        <f>Sheet1!AS27</f>
+        <f>AllData!AS27</f>
         <v>The system shall provide the means for shutting down the engine rapidly.</v>
       </c>
       <c r="E28" t="str">
-        <f>Sheet1!AT27</f>
+        <f>AllData!AT27</f>
         <v>As long as the over-speed protection is provided through hydromechanical means the system must demonstrate by test or other acceptable means tat the over-speed function remains available between inspection and maintenance periods.</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <f>Sheet1!A28</f>
+        <f>AllData!A28</f>
         <v>Student</v>
       </c>
       <c r="B29" t="str">
-        <f>Sheet1!AN28</f>
+        <f>AllData!AN28</f>
         <v>The System shall rapidly provide the means for shutting down the engine</v>
       </c>
       <c r="C29" t="str">
-        <f>Sheet1!AO28</f>
+        <f>AllData!AO28</f>
         <v>Where the control system includes an overspeed protection function provided through hydrological means, the ecs shall demonstrate by tests that over speed function remains available between inspection and maintenance periods.</v>
       </c>
       <c r="D29" t="str">
-        <f>Sheet1!AS28</f>
+        <f>AllData!AS28</f>
         <v>ECS shall provide the Means with the ability to shut down the engine in 10m/s.</v>
       </c>
       <c r="E29" t="str">
-        <f>Sheet1!AT28</f>
+        <f>AllData!AT28</f>
         <v>As long as the over-speed protection is provided by hydromechanical means the system shall demonstrate by tests that the over speed function remains available between inspection and maintain periods.</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <f>Sheet1!A29</f>
+        <f>AllData!A29</f>
         <v>Student</v>
       </c>
       <c r="B30" t="str">
-        <f>Sheet1!AN29</f>
+        <f>AllData!AN29</f>
         <v>shall provide Means for shutting down the Engine</v>
       </c>
       <c r="C30" t="str">
-        <f>Sheet1!AO29</f>
+        <f>AllData!AO29</f>
         <v>Where hydromechanical means provide the over speed protection, the EARS shall demonstrate other acceptable means that remains the over-speed function.</v>
       </c>
       <c r="D30" t="str">
-        <f>Sheet1!AS29</f>
+        <f>AllData!AS29</f>
         <v>The System should provide Means for shutting down the Engine in less than 5 seconds.</v>
       </c>
       <c r="E30" t="str">
-        <f>Sheet1!AT29</f>
+        <f>AllData!AT29</f>
         <v>As Long as the over-speed protection is provided through hydromechanical means, the system shall demonstrate other acceptable means, so that the over speed fuction remains available between inspection and maintenance periods.</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <f>Sheet1!A30</f>
+        <f>AllData!A30</f>
         <v>Student</v>
       </c>
       <c r="B31" t="str">
-        <f>Sheet1!AN30</f>
+        <f>AllData!AN30</f>
         <v>The ECS shall provide the Enginge from means for shutting down rapidly.</v>
       </c>
       <c r="C31" t="str">
-        <f>Sheet1!AO30</f>
+        <f>AllData!AO30</f>
         <v>Where over-speed protection is provided through hydromechanical means the ECS shall demonstrating by test or other acceptable means that the over-speed function remains available between inspection and maintenance periods.</v>
       </c>
       <c r="D31" t="str">
-        <f>Sheet1!AS30</f>
+        <f>AllData!AS30</f>
         <v>The ECS should be designed in a way that a rapidly Shutdouwn of the Enginge is provided.</v>
       </c>
       <c r="E31" t="str">
-        <f>Sheet1!AT30</f>
+        <f>AllData!AT30</f>
         <v>As long as over-speed protection is provided through hydromechanical means, it must be demonstrated by test or other acceptable means that the over speed-function remains available between inspection and maintenance periods.</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <f>Sheet1!A31</f>
+        <f>AllData!A31</f>
         <v>Student</v>
       </c>
       <c r="B32" t="str">
-        <f>Sheet1!AN31</f>
+        <f>AllData!AN31</f>
         <v>The system shall provided the Means for shutting down the Engine rapidly.</v>
       </c>
       <c r="C32" t="str">
-        <f>Sheet1!AO31</f>
+        <f>AllData!AO31</f>
         <v>Where over-speed protection is provided through hydromechanical means, the System shall demonstrated by test or other acceptable means that the over-speed function remains available between inspection and maintenance periods.</v>
       </c>
       <c r="D32" t="str">
-        <f>Sheet1!AS31</f>
+        <f>AllData!AS31</f>
         <v>The System shall provide the meaning for shutting down the Engine rapidly</v>
       </c>
       <c r="E32" t="str">
-        <f>Sheet1!AT31</f>
+        <f>AllData!AT31</f>
         <v>As long as over-speed protection is provided through hydromechanical, the system must be demonstrated by test or other acceptable means.</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <f>Sheet1!A32</f>
+        <f>AllData!A32</f>
         <v>Student</v>
       </c>
       <c r="B33" t="str">
-        <f>Sheet1!AN32</f>
+        <f>AllData!AN32</f>
         <v>The ECS shall be able to shut downs in under 5 seconds.</v>
       </c>
       <c r="C33" t="str">
-        <f>Sheet1!AO32</f>
+        <f>AllData!AO32</f>
         <v>Where the Ecs is in non-flight-mode the ECS shall be able to switch to over-speed protection.</v>
       </c>
       <c r="D33" t="str">
-        <f>Sheet1!AS32</f>
+        <f>AllData!AS32</f>
         <v>The System shall be able to chut down in less than 10 seconds of time.</v>
       </c>
       <c r="E33" t="str">
-        <f>Sheet1!AT32</f>
+        <f>AllData!AT32</f>
         <v>As Long as the System is in the state of non-flight, the System shall be able to go in over-speed function.</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <f>Sheet1!A33</f>
+        <f>AllData!A33</f>
         <v>Student</v>
       </c>
       <c r="B34" t="str">
-        <f>Sheet1!AN33</f>
+        <f>AllData!AN33</f>
         <v>The ECS shall be able to shut downs in under 5 seconds.</v>
       </c>
       <c r="C34" t="str">
-        <f>Sheet1!AO33</f>
+        <f>AllData!AO33</f>
         <v>Where the Ecs is in non-flight-mode the ECS shall be able to switch to over-speed protection.</v>
       </c>
       <c r="D34" t="str">
-        <f>Sheet1!AS33</f>
+        <f>AllData!AS33</f>
         <v>The System shall be able to chut down in less than 10 seconds of time.</v>
       </c>
       <c r="E34" t="str">
-        <f>Sheet1!AT33</f>
+        <f>AllData!AT33</f>
         <v>As Long as the System is in the state of non-flight, the System shall be able to go in over-speed function.</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <f>Sheet1!A34</f>
+        <f>AllData!A34</f>
         <v>Student</v>
       </c>
       <c r="B35" t="str">
-        <f>Sheet1!AN34</f>
+        <f>AllData!AN34</f>
         <v>The system shall shut down the engine.</v>
       </c>
       <c r="C35" t="str">
-        <f>Sheet1!AO34</f>
+        <f>AllData!AO34</f>
         <v>Where control system provides the over speed function shall by a test demostrate the function of the system.</v>
       </c>
       <c r="D35" t="str">
-        <f>Sheet1!AS34</f>
+        <f>AllData!AS34</f>
         <v>The system shall be able to shut down the engine.</v>
       </c>
       <c r="E35" t="str">
-        <f>Sheet1!AT34</f>
+        <f>AllData!AT34</f>
         <v>As long as the owner-speed protection is in the sate of acceptance, there is no inspection and maintains neccessary.</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
-        <f>Sheet1!A35</f>
+        <f>AllData!A35</f>
         <v>Student</v>
       </c>
       <c r="B36" t="str">
-        <f>Sheet1!AN35</f>
+        <f>AllData!AN35</f>
         <v>The system shall be able to shut down the engine in under 10 seconds</v>
       </c>
       <c r="C36" t="str">
-        <f>Sheet1!AO35</f>
+        <f>AllData!AO35</f>
         <v>Where the control system includes an over-speed protection, the control system shall test the availability of the over-speed function while the system is in non-flight mode</v>
       </c>
       <c r="D36" t="str">
-        <f>Sheet1!AS35</f>
+        <f>AllData!AS35</f>
         <v>As long as the engine is running, the system must provide the user with the ability to shut down the engine in less than 10 seconds.</v>
       </c>
       <c r="E36" t="str">
-        <f>Sheet1!AT35</f>
+        <f>AllData!AT35</f>
         <v>As long as the system is not in flight mode, the system shall provide the user with the ability to over-speed</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
-        <f>Sheet1!A37</f>
+        <f>AllData!A37</f>
         <v>Student</v>
       </c>
       <c r="B37" t="str">
-        <f>Sheet1!AN37</f>
+        <f>AllData!AN37</f>
         <v>The engine shall be able to be rapidly shut off</v>
       </c>
       <c r="C37" t="str">
-        <f>Sheet1!AO37</f>
+        <f>AllData!AO37</f>
         <v>Where over-speed protection is provided through hydromechanical means, the over-speed function shall be available between inspection and maintenance periods.</v>
       </c>
       <c r="D37" t="str">
-        <f>Sheet1!AS37</f>
+        <f>AllData!AS37</f>
         <v>SHALL BE ABLE TO shut down engine rapidly</v>
       </c>
       <c r="E37" t="str">
-        <f>Sheet1!AT37</f>
+        <f>AllData!AT37</f>
         <v>...</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
-        <f>Sheet1!A38</f>
+        <f>AllData!A38</f>
         <v>Student</v>
       </c>
       <c r="B38" t="str">
-        <f>Sheet1!AN38</f>
+        <f>AllData!AN38</f>
         <v>The system shall provide a method to shut down the engine in less then 2 seconds</v>
       </c>
       <c r="C38" t="str">
-        <f>Sheet1!AO38</f>
+        <f>AllData!AO38</f>
         <v>Where the system includes an over-speed protection through hydromechanical means the system shall test the avabilabity of the overspeed protection function in the inspection and maintenance periods "see example above"</v>
       </c>
       <c r="D38" t="str">
-        <f>Sheet1!AS38</f>
+        <f>AllData!AS38</f>
         <v>The system shall provide the user with the ability to shut down the the engine in less then 2 seconds</v>
       </c>
       <c r="E38" t="str">
-        <f>Sheet1!AT38</f>
+        <f>AllData!AT38</f>
         <v>As long as the system is in the state inspection and maintenance the system shall provide the user with the ability of over-speed protection</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <f>Sheet1!A39</f>
+        <f>AllData!A39</f>
         <v>Student</v>
       </c>
       <c r="B39" t="str">
-        <f>Sheet1!AN39</f>
+        <f>AllData!AN39</f>
         <v>The system shall be able to rapidly shut down the engine.</v>
       </c>
       <c r="C39" t="str">
-        <f>Sheet1!AO39</f>
+        <f>AllData!AO39</f>
         <v>Where the system provides over-speed protection through hydromechanical means, the system shall keep the over-speed function available</v>
       </c>
       <c r="D39" t="str">
-        <f>Sheet1!AS39</f>
+        <f>AllData!AS39</f>
         <v>The system shall provide the user with the ability to shut down the engine rapidly</v>
       </c>
       <c r="E39" t="str">
-        <f>Sheet1!AT39</f>
+        <f>AllData!AT39</f>
         <v>As long as the system is in the state over-speed protection, the system shall provide the user with the over-speed function</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
-        <f>Sheet1!A40</f>
+        <f>AllData!A40</f>
         <v>Student</v>
       </c>
       <c r="B40" t="str">
-        <f>Sheet1!AN40</f>
+        <f>AllData!AN40</f>
         <v>The engine shutting down rapidly shall be provided for means.</v>
       </c>
       <c r="C40" t="str">
-        <f>Sheet1!AO40</f>
+        <f>AllData!AO40</f>
         <v>-</v>
       </c>
       <c r="D40" t="str">
-        <f>Sheet1!AS40</f>
+        <f>AllData!AS40</f>
         <v>The Engine shall be provided for shutting down rapidly.</v>
       </c>
       <c r="E40" t="str">
-        <f>Sheet1!AT40</f>
+        <f>AllData!AT40</f>
         <v>When over-speed protection is provided through hydromechanical means, it shall be demonstrated by test or other acceptable means that the over-speed function remains available between inspection and maintenance periods.</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
-        <f>Sheet1!A41</f>
+        <f>AllData!A41</f>
         <v>Student</v>
       </c>
       <c r="B41" t="str">
-        <f>Sheet1!AN41</f>
+        <f>AllData!AN41</f>
         <v>The system shall provide means for shutting down the engine.</v>
       </c>
       <c r="C41" t="str">
-        <f>Sheet1!AO41</f>
+        <f>AllData!AO41</f>
         <v>Where over-speed protection is provided through hydromechanical means, the system must be demonstrate by test or other acceptable means that the over-speed function remains available between inspection and maintenance periods.</v>
       </c>
       <c r="D41" t="str">
-        <f>Sheet1!AS41</f>
+        <f>AllData!AS41</f>
         <v>The system shall provide means with the ability to shut down the engine rapidly.</v>
       </c>
       <c r="E41" t="str">
-        <f>Sheet1!AT41</f>
+        <f>AllData!AT41</f>
         <v>As long as over-speed protection is provided through hydromechanical meansthe system shall demonstrate by test or other acceptable means that the over-speed function remains available between inspection and maintenance periods.</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
-        <f>Sheet1!A42</f>
+        <f>AllData!A42</f>
         <v>Student</v>
       </c>
       <c r="B42" t="str">
-        <f>Sheet1!AN42</f>
+        <f>AllData!AN42</f>
         <v>The ECS shall must be provide means for shutting down the engine rapidly.</v>
       </c>
       <c r="C42" t="str">
-        <f>Sheet1!AO42</f>
+        <f>AllData!AO42</f>
         <v>-</v>
       </c>
       <c r="D42" t="str">
-        <f>Sheet1!AS42</f>
+        <f>AllData!AS42</f>
         <v>The system shall provide means for shutting down the engine rapidly.</v>
       </c>
       <c r="E42" t="str">
-        <f>Sheet1!AT42</f>
+        <f>AllData!AT42</f>
         <v>-</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
-        <f>Sheet1!A43</f>
+        <f>AllData!A43</f>
         <v>Student</v>
       </c>
       <c r="B43" t="str">
-        <f>Sheet1!AN43</f>
+        <f>AllData!AN43</f>
         <v>The ECS shall provide means for shutting down the engine rapidly.</v>
       </c>
       <c r="C43" t="str">
-        <f>Sheet1!AO43</f>
+        <f>AllData!AO43</f>
         <v>Where the system includes a over-speed function, the system must demonstrate by test or other acceptable means that the over-speed function remains available between inspection and maintenance periods.</v>
       </c>
       <c r="D43" t="str">
-        <f>Sheet1!AS43</f>
+        <f>AllData!AS43</f>
         <v>The ECS must be provided for shutting down the engine rapidly.</v>
       </c>
       <c r="E43" t="str">
-        <f>Sheet1!AT43</f>
+        <f>AllData!AT43</f>
         <v>As long as the over-speed protection is provided through hydromechanical means, it must be demonstrated by test or other acceptable means that the over-speed function remains available between inspection and maintenance periods.</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
-        <f>Sheet1!A44</f>
+        <f>AllData!A44</f>
         <v>Student</v>
       </c>
       <c r="B44" t="str">
-        <f>Sheet1!AN44</f>
+        <f>AllData!AN44</f>
         <v>-</v>
       </c>
       <c r="C44" t="str">
-        <f>Sheet1!AO44</f>
+        <f>AllData!AO44</f>
         <v>-</v>
       </c>
       <c r="D44" t="str">
-        <f>Sheet1!AS44</f>
+        <f>AllData!AS44</f>
         <v>The system must provide a rapidly possibility to shut down the engine.</v>
       </c>
       <c r="E44" t="str">
-        <f>Sheet1!AT44</f>
+        <f>AllData!AT44</f>
         <v>If over-speed protection is provided through hydromechanical means, the system must demonstrate inspection need.</v>
       </c>
     </row>
@@ -11476,4 +15061,3042 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A71970-3F06-4A38-BA8F-62028407EBDC}">
+  <dimension ref="A1:C216"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f>AllData!M2</f>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>AllData!L2</f>
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <f>AllData!K2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>AllData!M3</f>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>AllData!L3</f>
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <f>AllData!K3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>AllData!M4</f>
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f>AllData!L4</f>
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <f>AllData!K4</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f>AllData!M5</f>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f>AllData!L5</f>
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f>AllData!K5</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f>AllData!M6</f>
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f>AllData!L6</f>
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f>AllData!K6</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>AllData!M7</f>
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <f>AllData!L7</f>
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f>AllData!K7</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f>AllData!M8</f>
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <f>AllData!L8</f>
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f>AllData!K8</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f>AllData!M9</f>
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <f>AllData!L9</f>
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <f>AllData!K9</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f>AllData!M10</f>
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <f>AllData!L10</f>
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <f>AllData!K10</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f>AllData!M11</f>
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <f>AllData!L11</f>
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f>AllData!K11</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f>AllData!M12</f>
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <f>AllData!L12</f>
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <f>AllData!K12</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f>AllData!M13</f>
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <f>AllData!L13</f>
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <f>AllData!K13</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f>AllData!M14</f>
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <f>AllData!L14</f>
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <f>AllData!K14</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f>AllData!M15</f>
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <f>AllData!L15</f>
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <f>AllData!K15</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f>AllData!M16</f>
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <f>AllData!L16</f>
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <f>AllData!K16</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f>AllData!M17</f>
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <f>AllData!L17</f>
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <f>AllData!K17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f>AllData!M18</f>
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <f>AllData!L18</f>
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <f>AllData!K18</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f>AllData!M19</f>
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <f>AllData!L19</f>
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <f>AllData!K19</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f>AllData!M20</f>
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <f>AllData!L20</f>
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <f>AllData!K20</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f>AllData!M21</f>
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <f>AllData!L21</f>
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <f>AllData!K21</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f>AllData!M22</f>
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <f>AllData!L22</f>
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <f>AllData!K22</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f>AllData!M23</f>
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <f>AllData!L23</f>
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <f>AllData!K23</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f>AllData!M24</f>
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <f>AllData!L24</f>
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <f>AllData!K24</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f>AllData!M25</f>
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <f>AllData!L25</f>
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <f>AllData!K25</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f>AllData!M26</f>
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <f>AllData!L26</f>
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <f>AllData!K26</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f>AllData!M27</f>
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <f>AllData!L27</f>
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <f>AllData!K27</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f>AllData!M28</f>
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <f>AllData!L28</f>
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <f>AllData!K28</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f>AllData!M29</f>
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <f>AllData!L29</f>
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <f>AllData!K29</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f>AllData!M30</f>
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <f>AllData!L30</f>
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <f>AllData!K30</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f>AllData!M31</f>
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <f>AllData!L31</f>
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <f>AllData!K31</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f>AllData!M32</f>
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <f>AllData!L32</f>
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <f>AllData!K32</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f>AllData!M33</f>
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <f>AllData!L33</f>
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <f>AllData!K33</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f>AllData!M34</f>
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <f>AllData!L34</f>
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <f>AllData!K34</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f>AllData!M35</f>
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <f>AllData!L35</f>
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <f>AllData!K35</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f>AllData!M36</f>
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <f>AllData!L36</f>
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <f>AllData!K36</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f>AllData!M37</f>
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <f>AllData!L37</f>
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <f>AllData!K37</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f>AllData!M38</f>
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <f>AllData!L38</f>
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <f>AllData!K38</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f>AllData!M39</f>
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <f>AllData!L39</f>
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <f>AllData!K39</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f>AllData!M40</f>
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <f>AllData!L40</f>
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <f>AllData!K40</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f>AllData!M41</f>
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <f>AllData!L41</f>
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <f>AllData!K41</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f>AllData!M42</f>
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <f>AllData!L42</f>
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <f>AllData!K42</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f>AllData!M43</f>
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <f>AllData!L43</f>
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <f>AllData!K43</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f>AllData!M44</f>
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <f>AllData!L44</f>
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <f>AllData!K44</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f>AllData!P2</f>
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <f>AllData!N2</f>
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <f>AllData!O2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f>AllData!P3</f>
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <f>AllData!N3</f>
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <f>AllData!O3</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f>AllData!P4</f>
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <f>AllData!N4</f>
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <f>AllData!O4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f>AllData!P5</f>
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <f>AllData!N5</f>
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <f>AllData!O5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f>AllData!P6</f>
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <f>AllData!N6</f>
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <f>AllData!O6</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f>AllData!P7</f>
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <f>AllData!N7</f>
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <f>AllData!O7</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f>AllData!P8</f>
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <f>AllData!N8</f>
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <f>AllData!O8</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f>AllData!P9</f>
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <f>AllData!N9</f>
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <f>AllData!O9</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f>AllData!P10</f>
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <f>AllData!N10</f>
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <f>AllData!O10</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f>AllData!P11</f>
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <f>AllData!N11</f>
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <f>AllData!O11</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f>AllData!P12</f>
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <f>AllData!N12</f>
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <f>AllData!O12</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f>AllData!P13</f>
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <f>AllData!N13</f>
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <f>AllData!O13</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f>AllData!P14</f>
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <f>AllData!N14</f>
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <f>AllData!O14</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f>AllData!P15</f>
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <f>AllData!N15</f>
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <f>AllData!O15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f>AllData!P16</f>
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <f>AllData!N16</f>
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <f>AllData!O16</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f>AllData!P17</f>
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <f>AllData!N17</f>
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <f>AllData!O17</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f>AllData!P18</f>
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <f>AllData!N18</f>
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <f>AllData!O18</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f>AllData!P19</f>
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <f>AllData!N19</f>
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <f>AllData!O19</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f>AllData!P20</f>
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <f>AllData!N20</f>
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <f>AllData!O20</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <f>AllData!P21</f>
+        <v>5</v>
+      </c>
+      <c r="B64">
+        <f>AllData!N21</f>
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <f>AllData!O21</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <f>AllData!P22</f>
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <f>AllData!N22</f>
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <f>AllData!O22</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <f>AllData!P23</f>
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <f>AllData!N23</f>
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <f>AllData!O23</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <f>AllData!P24</f>
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <f>AllData!N24</f>
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <f>AllData!O24</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <f>AllData!P25</f>
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <f>AllData!N25</f>
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <f>AllData!O25</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <f>AllData!P26</f>
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <f>AllData!N26</f>
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <f>AllData!O26</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f>AllData!P27</f>
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <f>AllData!N27</f>
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <f>AllData!O27</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f>AllData!P28</f>
+        <v>3</v>
+      </c>
+      <c r="B71">
+        <f>AllData!N28</f>
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <f>AllData!O28</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f>AllData!P29</f>
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <f>AllData!N29</f>
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <f>AllData!O29</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <f>AllData!P30</f>
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <f>AllData!N30</f>
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <f>AllData!O30</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <f>AllData!P31</f>
+        <v>4</v>
+      </c>
+      <c r="B74">
+        <f>AllData!N31</f>
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <f>AllData!O31</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <f>AllData!P32</f>
+        <v>3</v>
+      </c>
+      <c r="B75">
+        <f>AllData!N32</f>
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <f>AllData!O32</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <f>AllData!P33</f>
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <f>AllData!N33</f>
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <f>AllData!O33</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <f>AllData!P34</f>
+        <v>3</v>
+      </c>
+      <c r="B77">
+        <f>AllData!N34</f>
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <f>AllData!O34</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <f>AllData!P35</f>
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <f>AllData!N35</f>
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <f>AllData!O35</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <f>AllData!P36</f>
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <f>AllData!N36</f>
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <f>AllData!O36</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <f>AllData!P37</f>
+        <v>2</v>
+      </c>
+      <c r="B80">
+        <f>AllData!N37</f>
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <f>AllData!O37</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <f>AllData!P38</f>
+        <v>5</v>
+      </c>
+      <c r="B81">
+        <f>AllData!N38</f>
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <f>AllData!O38</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <f>AllData!P39</f>
+        <v>5</v>
+      </c>
+      <c r="B82">
+        <f>AllData!N39</f>
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <f>AllData!O39</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <f>AllData!P40</f>
+        <v>5</v>
+      </c>
+      <c r="B83">
+        <f>AllData!N40</f>
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <f>AllData!O40</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <f>AllData!P41</f>
+        <v>5</v>
+      </c>
+      <c r="B84">
+        <f>AllData!N41</f>
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <f>AllData!O41</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <f>AllData!P42</f>
+        <v>5</v>
+      </c>
+      <c r="B85">
+        <f>AllData!N42</f>
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <f>AllData!O42</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <f>AllData!P43</f>
+        <v>4</v>
+      </c>
+      <c r="B86">
+        <f>AllData!N43</f>
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <f>AllData!O43</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <f>AllData!P44</f>
+        <v>5</v>
+      </c>
+      <c r="B87">
+        <f>AllData!N44</f>
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <f>AllData!O44</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <f>AllData!Q2</f>
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <f>AllData!S2</f>
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <f>AllData!R2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <f>AllData!Q3</f>
+        <v>3</v>
+      </c>
+      <c r="B89">
+        <f>AllData!S3</f>
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <f>AllData!R3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <f>AllData!Q4</f>
+        <v>3</v>
+      </c>
+      <c r="B90">
+        <f>AllData!S4</f>
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <f>AllData!R4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <f>AllData!Q5</f>
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <f>AllData!S5</f>
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <f>AllData!R5</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <f>AllData!Q6</f>
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <f>AllData!S6</f>
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <f>AllData!R6</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <f>AllData!Q7</f>
+        <v>2</v>
+      </c>
+      <c r="B93">
+        <f>AllData!S7</f>
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <f>AllData!R7</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <f>AllData!Q8</f>
+        <v>3</v>
+      </c>
+      <c r="B94">
+        <f>AllData!S8</f>
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <f>AllData!R8</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <f>AllData!Q9</f>
+        <v>3</v>
+      </c>
+      <c r="B95">
+        <f>AllData!S9</f>
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <f>AllData!R9</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <f>AllData!Q10</f>
+        <v>4</v>
+      </c>
+      <c r="B96">
+        <f>AllData!S10</f>
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <f>AllData!R10</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <f>AllData!Q11</f>
+        <v>4</v>
+      </c>
+      <c r="B97">
+        <f>AllData!S11</f>
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <f>AllData!R11</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <f>AllData!Q12</f>
+        <v>3</v>
+      </c>
+      <c r="B98">
+        <f>AllData!S12</f>
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <f>AllData!R12</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <f>AllData!Q13</f>
+        <v>3</v>
+      </c>
+      <c r="B99">
+        <f>AllData!S13</f>
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <f>AllData!R13</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <f>AllData!Q14</f>
+        <v>5</v>
+      </c>
+      <c r="B100">
+        <f>AllData!S14</f>
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <f>AllData!R14</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <f>AllData!Q15</f>
+        <v>5</v>
+      </c>
+      <c r="B101">
+        <f>AllData!S15</f>
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <f>AllData!R15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <f>AllData!Q16</f>
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <f>AllData!S16</f>
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <f>AllData!R16</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <f>AllData!Q17</f>
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <f>AllData!S17</f>
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <f>AllData!R17</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <f>AllData!Q18</f>
+        <v>3</v>
+      </c>
+      <c r="B104">
+        <f>AllData!S18</f>
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <f>AllData!R18</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <f>AllData!Q19</f>
+        <v>5</v>
+      </c>
+      <c r="B105">
+        <f>AllData!S19</f>
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <f>AllData!R19</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <f>AllData!Q20</f>
+        <v>5</v>
+      </c>
+      <c r="B106">
+        <f>AllData!S20</f>
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <f>AllData!R20</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <f>AllData!Q21</f>
+        <v>5</v>
+      </c>
+      <c r="B107">
+        <f>AllData!S21</f>
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <f>AllData!R21</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <f>AllData!Q22</f>
+        <v>5</v>
+      </c>
+      <c r="B108">
+        <f>AllData!S22</f>
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <f>AllData!R22</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <f>AllData!Q23</f>
+        <v>4</v>
+      </c>
+      <c r="B109">
+        <f>AllData!S23</f>
+        <v>5</v>
+      </c>
+      <c r="C109">
+        <f>AllData!R23</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <f>AllData!Q24</f>
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <f>AllData!S24</f>
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <f>AllData!R24</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <f>AllData!Q25</f>
+        <v>4</v>
+      </c>
+      <c r="B111">
+        <f>AllData!S25</f>
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <f>AllData!R25</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <f>AllData!Q26</f>
+        <v>3</v>
+      </c>
+      <c r="B112">
+        <f>AllData!S26</f>
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <f>AllData!R26</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <f>AllData!Q27</f>
+        <v>2</v>
+      </c>
+      <c r="B113">
+        <f>AllData!S27</f>
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <f>AllData!R27</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <f>AllData!Q28</f>
+        <v>5</v>
+      </c>
+      <c r="B114">
+        <f>AllData!S28</f>
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <f>AllData!R28</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <f>AllData!Q29</f>
+        <v>2</v>
+      </c>
+      <c r="B115">
+        <f>AllData!S29</f>
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <f>AllData!R29</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <f>AllData!Q30</f>
+        <v>3</v>
+      </c>
+      <c r="B116">
+        <f>AllData!S30</f>
+        <v>2</v>
+      </c>
+      <c r="C116">
+        <f>AllData!R30</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <f>AllData!Q31</f>
+        <v>2</v>
+      </c>
+      <c r="B117">
+        <f>AllData!S31</f>
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <f>AllData!R31</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <f>AllData!Q32</f>
+        <v>2</v>
+      </c>
+      <c r="B118">
+        <f>AllData!S32</f>
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <f>AllData!R32</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <f>AllData!Q33</f>
+        <v>2</v>
+      </c>
+      <c r="B119">
+        <f>AllData!S33</f>
+        <v>4</v>
+      </c>
+      <c r="C119">
+        <f>AllData!R33</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <f>AllData!Q34</f>
+        <v>3</v>
+      </c>
+      <c r="B120">
+        <f>AllData!S34</f>
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <f>AllData!R34</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <f>AllData!Q35</f>
+        <v>3</v>
+      </c>
+      <c r="B121">
+        <f>AllData!S35</f>
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <f>AllData!R35</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <f>AllData!Q36</f>
+        <v>2</v>
+      </c>
+      <c r="B122">
+        <f>AllData!S36</f>
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <f>AllData!R36</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <f>AllData!Q37</f>
+        <v>3</v>
+      </c>
+      <c r="B123">
+        <f>AllData!S37</f>
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <f>AllData!R37</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <f>AllData!Q38</f>
+        <v>4</v>
+      </c>
+      <c r="B124">
+        <f>AllData!S38</f>
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <f>AllData!R38</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <f>AllData!Q39</f>
+        <v>2</v>
+      </c>
+      <c r="B125">
+        <f>AllData!S39</f>
+        <v>5</v>
+      </c>
+      <c r="C125">
+        <f>AllData!R39</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <f>AllData!Q40</f>
+        <v>2</v>
+      </c>
+      <c r="B126">
+        <f>AllData!S40</f>
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <f>AllData!R40</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <f>AllData!Q41</f>
+        <v>5</v>
+      </c>
+      <c r="B127">
+        <f>AllData!S41</f>
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <f>AllData!R41</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <f>AllData!Q42</f>
+        <v>5</v>
+      </c>
+      <c r="B128">
+        <f>AllData!S42</f>
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <f>AllData!R42</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <f>AllData!Q43</f>
+        <v>4</v>
+      </c>
+      <c r="B129">
+        <f>AllData!S43</f>
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <f>AllData!R43</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <f>AllData!Q44</f>
+        <v>3</v>
+      </c>
+      <c r="B130">
+        <f>AllData!S44</f>
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <f>AllData!R44</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <f>AllData!U2</f>
+        <v>5</v>
+      </c>
+      <c r="B131">
+        <f>AllData!V2</f>
+        <v>2</v>
+      </c>
+      <c r="C131">
+        <f>AllData!T2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <f>AllData!U3</f>
+        <v>3</v>
+      </c>
+      <c r="B132">
+        <f>AllData!V3</f>
+        <v>5</v>
+      </c>
+      <c r="C132">
+        <f>AllData!T3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <f>AllData!U4</f>
+        <v>4</v>
+      </c>
+      <c r="B133">
+        <f>AllData!V4</f>
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <f>AllData!T4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <f>AllData!U5</f>
+        <v>1</v>
+      </c>
+      <c r="B134">
+        <f>AllData!V5</f>
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <f>AllData!T5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <f>AllData!U6</f>
+        <v>4</v>
+      </c>
+      <c r="B135">
+        <f>AllData!V6</f>
+        <v>2</v>
+      </c>
+      <c r="C135">
+        <f>AllData!T6</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <f>AllData!U7</f>
+        <v>3</v>
+      </c>
+      <c r="B136">
+        <f>AllData!V7</f>
+        <v>2</v>
+      </c>
+      <c r="C136">
+        <f>AllData!T7</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <f>AllData!U8</f>
+        <v>2</v>
+      </c>
+      <c r="B137">
+        <f>AllData!V8</f>
+        <v>4</v>
+      </c>
+      <c r="C137">
+        <f>AllData!T8</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <f>AllData!U9</f>
+        <v>2</v>
+      </c>
+      <c r="B138">
+        <f>AllData!V9</f>
+        <v>5</v>
+      </c>
+      <c r="C138">
+        <f>AllData!T9</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <f>AllData!U10</f>
+        <v>2</v>
+      </c>
+      <c r="B139">
+        <f>AllData!V10</f>
+        <v>4</v>
+      </c>
+      <c r="C139">
+        <f>AllData!T10</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <f>AllData!U11</f>
+        <v>2</v>
+      </c>
+      <c r="B140">
+        <f>AllData!V11</f>
+        <v>2</v>
+      </c>
+      <c r="C140">
+        <f>AllData!T11</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <f>AllData!U12</f>
+        <v>5</v>
+      </c>
+      <c r="B141">
+        <f>AllData!V12</f>
+        <v>3</v>
+      </c>
+      <c r="C141">
+        <f>AllData!T12</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <f>AllData!U13</f>
+        <v>3</v>
+      </c>
+      <c r="B142">
+        <f>AllData!V13</f>
+        <v>3</v>
+      </c>
+      <c r="C142">
+        <f>AllData!T13</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <f>AllData!U14</f>
+        <v>5</v>
+      </c>
+      <c r="B143">
+        <f>AllData!V14</f>
+        <v>3</v>
+      </c>
+      <c r="C143">
+        <f>AllData!T14</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <f>AllData!U15</f>
+        <v>1</v>
+      </c>
+      <c r="B144">
+        <f>AllData!V15</f>
+        <v>5</v>
+      </c>
+      <c r="C144">
+        <f>AllData!T15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <f>AllData!U16</f>
+        <v>1</v>
+      </c>
+      <c r="B145">
+        <f>AllData!V16</f>
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <f>AllData!T16</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <f>AllData!U17</f>
+        <v>5</v>
+      </c>
+      <c r="B146">
+        <f>AllData!V17</f>
+        <v>3</v>
+      </c>
+      <c r="C146">
+        <f>AllData!T17</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <f>AllData!U18</f>
+        <v>5</v>
+      </c>
+      <c r="B147">
+        <f>AllData!V18</f>
+        <v>4</v>
+      </c>
+      <c r="C147">
+        <f>AllData!T18</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <f>AllData!U19</f>
+        <v>4</v>
+      </c>
+      <c r="B148">
+        <f>AllData!V19</f>
+        <v>3</v>
+      </c>
+      <c r="C148">
+        <f>AllData!T19</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <f>AllData!U20</f>
+        <v>5</v>
+      </c>
+      <c r="B149">
+        <f>AllData!V20</f>
+        <v>4</v>
+      </c>
+      <c r="C149">
+        <f>AllData!T20</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <f>AllData!U21</f>
+        <v>3</v>
+      </c>
+      <c r="B150">
+        <f>AllData!V21</f>
+        <v>4</v>
+      </c>
+      <c r="C150">
+        <f>AllData!T21</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <f>AllData!U22</f>
+        <v>5</v>
+      </c>
+      <c r="B151">
+        <f>AllData!V22</f>
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <f>AllData!T22</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <f>AllData!U23</f>
+        <v>1</v>
+      </c>
+      <c r="B152">
+        <f>AllData!V23</f>
+        <v>5</v>
+      </c>
+      <c r="C152">
+        <f>AllData!T23</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <f>AllData!U24</f>
+        <v>5</v>
+      </c>
+      <c r="B153">
+        <f>AllData!V24</f>
+        <v>2</v>
+      </c>
+      <c r="C153">
+        <f>AllData!T24</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <f>AllData!U25</f>
+        <v>1</v>
+      </c>
+      <c r="B154">
+        <f>AllData!V25</f>
+        <v>5</v>
+      </c>
+      <c r="C154">
+        <f>AllData!T25</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <f>AllData!U26</f>
+        <v>4</v>
+      </c>
+      <c r="B155">
+        <f>AllData!V26</f>
+        <v>5</v>
+      </c>
+      <c r="C155">
+        <f>AllData!T26</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <f>AllData!U27</f>
+        <v>1</v>
+      </c>
+      <c r="B156">
+        <f>AllData!V27</f>
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <f>AllData!T27</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <f>AllData!U28</f>
+        <v>2</v>
+      </c>
+      <c r="B157">
+        <f>AllData!V28</f>
+        <v>3</v>
+      </c>
+      <c r="C157">
+        <f>AllData!T28</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <f>AllData!U29</f>
+        <v>3</v>
+      </c>
+      <c r="B158">
+        <f>AllData!V29</f>
+        <v>5</v>
+      </c>
+      <c r="C158">
+        <f>AllData!T29</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <f>AllData!U30</f>
+        <v>4</v>
+      </c>
+      <c r="B159">
+        <f>AllData!V30</f>
+        <v>3</v>
+      </c>
+      <c r="C159">
+        <f>AllData!T30</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <f>AllData!U31</f>
+        <v>2</v>
+      </c>
+      <c r="B160">
+        <f>AllData!V31</f>
+        <v>3</v>
+      </c>
+      <c r="C160">
+        <f>AllData!T31</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <f>AllData!U32</f>
+        <v>3</v>
+      </c>
+      <c r="B161">
+        <f>AllData!V32</f>
+        <v>4</v>
+      </c>
+      <c r="C161">
+        <f>AllData!T32</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <f>AllData!U33</f>
+        <v>3</v>
+      </c>
+      <c r="B162">
+        <f>AllData!V33</f>
+        <v>4</v>
+      </c>
+      <c r="C162">
+        <f>AllData!T33</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <f>AllData!U34</f>
+        <v>4</v>
+      </c>
+      <c r="B163">
+        <f>AllData!V34</f>
+        <v>4</v>
+      </c>
+      <c r="C163">
+        <f>AllData!T34</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <f>AllData!U35</f>
+        <v>1</v>
+      </c>
+      <c r="B164">
+        <f>AllData!V35</f>
+        <v>3</v>
+      </c>
+      <c r="C164">
+        <f>AllData!T35</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <f>AllData!U36</f>
+        <v>5</v>
+      </c>
+      <c r="B165">
+        <f>AllData!V36</f>
+        <v>3</v>
+      </c>
+      <c r="C165">
+        <f>AllData!T36</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <f>AllData!U37</f>
+        <v>4</v>
+      </c>
+      <c r="B166">
+        <f>AllData!V37</f>
+        <v>5</v>
+      </c>
+      <c r="C166">
+        <f>AllData!T37</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <f>AllData!U38</f>
+        <v>3</v>
+      </c>
+      <c r="B167">
+        <f>AllData!V38</f>
+        <v>2</v>
+      </c>
+      <c r="C167">
+        <f>AllData!T38</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <f>AllData!U39</f>
+        <v>5</v>
+      </c>
+      <c r="B168">
+        <f>AllData!V39</f>
+        <v>2</v>
+      </c>
+      <c r="C168">
+        <f>AllData!T39</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <f>AllData!U40</f>
+        <v>3</v>
+      </c>
+      <c r="B169">
+        <f>AllData!V40</f>
+        <v>5</v>
+      </c>
+      <c r="C169">
+        <f>AllData!T40</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <f>AllData!U41</f>
+        <v>4</v>
+      </c>
+      <c r="B170">
+        <f>AllData!V41</f>
+        <v>5</v>
+      </c>
+      <c r="C170">
+        <f>AllData!T41</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <f>AllData!U42</f>
+        <v>3</v>
+      </c>
+      <c r="B171">
+        <f>AllData!V42</f>
+        <v>3</v>
+      </c>
+      <c r="C171">
+        <f>AllData!T42</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <f>AllData!U43</f>
+        <v>1</v>
+      </c>
+      <c r="B172">
+        <f>AllData!V43</f>
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <f>AllData!T43</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <f>AllData!U44</f>
+        <v>4</v>
+      </c>
+      <c r="B173">
+        <f>AllData!V44</f>
+        <v>4</v>
+      </c>
+      <c r="C173">
+        <f>AllData!T44</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <f>AllData!X2</f>
+        <v>5</v>
+      </c>
+      <c r="B174">
+        <f>AllData!W2</f>
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <f>AllData!Y2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <f>AllData!X3</f>
+        <v>3</v>
+      </c>
+      <c r="B175">
+        <f>AllData!W3</f>
+        <v>4</v>
+      </c>
+      <c r="C175">
+        <f>AllData!Y3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <f>AllData!X4</f>
+        <v>4</v>
+      </c>
+      <c r="B176">
+        <f>AllData!W4</f>
+        <v>2</v>
+      </c>
+      <c r="C176">
+        <f>AllData!Y4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <f>AllData!X5</f>
+        <v>3</v>
+      </c>
+      <c r="B177">
+        <f>AllData!W5</f>
+        <v>5</v>
+      </c>
+      <c r="C177">
+        <f>AllData!Y5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <f>AllData!X6</f>
+        <v>1</v>
+      </c>
+      <c r="B178">
+        <f>AllData!W6</f>
+        <v>5</v>
+      </c>
+      <c r="C178">
+        <f>AllData!Y6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <f>AllData!X7</f>
+        <v>5</v>
+      </c>
+      <c r="B179">
+        <f>AllData!W7</f>
+        <v>5</v>
+      </c>
+      <c r="C179">
+        <f>AllData!Y7</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <f>AllData!X8</f>
+        <v>4</v>
+      </c>
+      <c r="B180">
+        <f>AllData!W8</f>
+        <v>4</v>
+      </c>
+      <c r="C180">
+        <f>AllData!Y8</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <f>AllData!X9</f>
+        <v>3</v>
+      </c>
+      <c r="B181">
+        <f>AllData!W9</f>
+        <v>4</v>
+      </c>
+      <c r="C181">
+        <f>AllData!Y9</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <f>AllData!X10</f>
+        <v>3</v>
+      </c>
+      <c r="B182">
+        <f>AllData!W10</f>
+        <v>4</v>
+      </c>
+      <c r="C182">
+        <f>AllData!Y10</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <f>AllData!X11</f>
+        <v>3</v>
+      </c>
+      <c r="B183">
+        <f>AllData!W11</f>
+        <v>3</v>
+      </c>
+      <c r="C183">
+        <f>AllData!Y11</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <f>AllData!X12</f>
+        <v>5</v>
+      </c>
+      <c r="B184">
+        <f>AllData!W12</f>
+        <v>4</v>
+      </c>
+      <c r="C184">
+        <f>AllData!Y12</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <f>AllData!X13</f>
+        <v>3</v>
+      </c>
+      <c r="B185">
+        <f>AllData!W13</f>
+        <v>3</v>
+      </c>
+      <c r="C185">
+        <f>AllData!Y13</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <f>AllData!X14</f>
+        <v>4</v>
+      </c>
+      <c r="B186">
+        <f>AllData!W14</f>
+        <v>3</v>
+      </c>
+      <c r="C186">
+        <f>AllData!Y14</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <f>AllData!X15</f>
+        <v>1</v>
+      </c>
+      <c r="B187">
+        <f>AllData!W15</f>
+        <v>5</v>
+      </c>
+      <c r="C187">
+        <f>AllData!Y15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <f>AllData!X16</f>
+        <v>3</v>
+      </c>
+      <c r="B188">
+        <f>AllData!W16</f>
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <f>AllData!Y16</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <f>AllData!X17</f>
+        <v>5</v>
+      </c>
+      <c r="B189">
+        <f>AllData!W17</f>
+        <v>5</v>
+      </c>
+      <c r="C189">
+        <f>AllData!Y17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <f>AllData!X18</f>
+        <v>3</v>
+      </c>
+      <c r="B190">
+        <f>AllData!W18</f>
+        <v>4</v>
+      </c>
+      <c r="C190">
+        <f>AllData!Y18</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <f>AllData!X19</f>
+        <v>3</v>
+      </c>
+      <c r="B191">
+        <f>AllData!W19</f>
+        <v>2</v>
+      </c>
+      <c r="C191">
+        <f>AllData!Y19</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <f>AllData!X20</f>
+        <v>3</v>
+      </c>
+      <c r="B192">
+        <f>AllData!W20</f>
+        <v>5</v>
+      </c>
+      <c r="C192">
+        <f>AllData!Y20</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <f>AllData!X21</f>
+        <v>5</v>
+      </c>
+      <c r="B193">
+        <f>AllData!W21</f>
+        <v>4</v>
+      </c>
+      <c r="C193">
+        <f>AllData!Y21</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <f>AllData!X22</f>
+        <v>5</v>
+      </c>
+      <c r="B194">
+        <f>AllData!W22</f>
+        <v>3</v>
+      </c>
+      <c r="C194">
+        <f>AllData!Y22</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <f>AllData!X23</f>
+        <v>4</v>
+      </c>
+      <c r="B195">
+        <f>AllData!W23</f>
+        <v>4</v>
+      </c>
+      <c r="C195">
+        <f>AllData!Y23</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <f>AllData!X24</f>
+        <v>3</v>
+      </c>
+      <c r="B196">
+        <f>AllData!W24</f>
+        <v>5</v>
+      </c>
+      <c r="C196">
+        <f>AllData!Y24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <f>AllData!X25</f>
+        <v>4</v>
+      </c>
+      <c r="B197">
+        <f>AllData!W25</f>
+        <v>5</v>
+      </c>
+      <c r="C197">
+        <f>AllData!Y25</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <f>AllData!X26</f>
+        <v>3</v>
+      </c>
+      <c r="B198">
+        <f>AllData!W26</f>
+        <v>4</v>
+      </c>
+      <c r="C198">
+        <f>AllData!Y26</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <f>AllData!X27</f>
+        <v>3</v>
+      </c>
+      <c r="B199">
+        <f>AllData!W27</f>
+        <v>3</v>
+      </c>
+      <c r="C199">
+        <f>AllData!Y27</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <f>AllData!X28</f>
+        <v>5</v>
+      </c>
+      <c r="B200">
+        <f>AllData!W28</f>
+        <v>4</v>
+      </c>
+      <c r="C200">
+        <f>AllData!Y28</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <f>AllData!X29</f>
+        <v>3</v>
+      </c>
+      <c r="B201">
+        <f>AllData!W29</f>
+        <v>5</v>
+      </c>
+      <c r="C201">
+        <f>AllData!Y29</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <f>AllData!X30</f>
+        <v>3</v>
+      </c>
+      <c r="B202">
+        <f>AllData!W30</f>
+        <v>4</v>
+      </c>
+      <c r="C202">
+        <f>AllData!Y30</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <f>AllData!X31</f>
+        <v>3</v>
+      </c>
+      <c r="B203">
+        <f>AllData!W31</f>
+        <v>4</v>
+      </c>
+      <c r="C203">
+        <f>AllData!Y31</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <f>AllData!X32</f>
+        <v>4</v>
+      </c>
+      <c r="B204">
+        <f>AllData!W32</f>
+        <v>3</v>
+      </c>
+      <c r="C204">
+        <f>AllData!Y32</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <f>AllData!X33</f>
+        <v>4</v>
+      </c>
+      <c r="B205">
+        <f>AllData!W33</f>
+        <v>3</v>
+      </c>
+      <c r="C205">
+        <f>AllData!Y33</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <f>AllData!X34</f>
+        <v>4</v>
+      </c>
+      <c r="B206">
+        <f>AllData!W34</f>
+        <v>3</v>
+      </c>
+      <c r="C206">
+        <f>AllData!Y34</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <f>AllData!X35</f>
+        <v>3</v>
+      </c>
+      <c r="B207">
+        <f>AllData!W35</f>
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <f>AllData!Y35</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <f>AllData!X36</f>
+        <v>4</v>
+      </c>
+      <c r="B208">
+        <f>AllData!W36</f>
+        <v>5</v>
+      </c>
+      <c r="C208">
+        <f>AllData!Y36</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <f>AllData!X37</f>
+        <v>4</v>
+      </c>
+      <c r="B209">
+        <f>AllData!W37</f>
+        <v>3</v>
+      </c>
+      <c r="C209">
+        <f>AllData!Y37</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <f>AllData!X38</f>
+        <v>2</v>
+      </c>
+      <c r="B210">
+        <f>AllData!W38</f>
+        <v>3</v>
+      </c>
+      <c r="C210">
+        <f>AllData!Y38</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <f>AllData!X39</f>
+        <v>4</v>
+      </c>
+      <c r="B211">
+        <f>AllData!W39</f>
+        <v>4</v>
+      </c>
+      <c r="C211">
+        <f>AllData!Y39</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <f>AllData!X40</f>
+        <v>4</v>
+      </c>
+      <c r="B212">
+        <f>AllData!W40</f>
+        <v>3</v>
+      </c>
+      <c r="C212">
+        <f>AllData!Y40</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <f>AllData!X41</f>
+        <v>5</v>
+      </c>
+      <c r="B213">
+        <f>AllData!W41</f>
+        <v>4</v>
+      </c>
+      <c r="C213">
+        <f>AllData!Y41</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <f>AllData!X42</f>
+        <v>1</v>
+      </c>
+      <c r="B214">
+        <f>AllData!W42</f>
+        <v>5</v>
+      </c>
+      <c r="C214">
+        <f>AllData!Y42</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <f>AllData!X43</f>
+        <v>3</v>
+      </c>
+      <c r="B215">
+        <f>AllData!W43</f>
+        <v>3</v>
+      </c>
+      <c r="C215">
+        <f>AllData!Y43</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <f>AllData!X44</f>
+        <v>2</v>
+      </c>
+      <c r="B216">
+        <f>AllData!W44</f>
+        <v>3</v>
+      </c>
+      <c r="C216">
+        <f>AllData!Y44</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/UserTestEval/Data/Rawdata.xlsx
+++ b/UserTestEval/Data/Rawdata.xlsx
@@ -8,41 +8,123 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katha\Documents\uni\Evaluation-of-templates-for-requirements-documentation\UserTestEval\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE128EA-297E-4771-A73D-EC79FE47C5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F228B813-FFDB-465F-BDEA-340B65A0E469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllData" sheetId="2" r:id="rId1"/>
     <sheet name="SubjectBackground" sheetId="5" r:id="rId2"/>
     <sheet name="SortedTexts" sheetId="3" r:id="rId3"/>
     <sheet name="Ranking" sheetId="4" r:id="rId4"/>
+    <sheet name="QualityReview" sheetId="6" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Ranking!$A$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Ranking!$A$2:$A$216</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">Ranking!$C$1</definedName>
+    <definedName name="_xlchart.v1.100" hidden="1">[1]QualityReview!$F$22</definedName>
+    <definedName name="_xlchart.v1.101" hidden="1">[1]QualityReview!$F$23:$F$34</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">Ranking!$C$2:$C$216</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Ranking!$A$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Ranking!$A$2:$A$216</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Ranking!$B$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Ranking!$B$2:$B$216</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Ranking!$C$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Ranking!$C$2:$C$216</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Ranking!$A$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Ranking!$A$2:$A$216</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">QualityReview!$A$2:$B$13</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">QualityReview!$C$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">QualityReview!$C$2:$C$13</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">QualityReview!$D$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">QualityReview!$D$2:$D$13</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">QualityReview!$E$1</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">QualityReview!$E$2:$E$13</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">QualityReview!$F$1</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Ranking!$B$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Ranking!$B$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Ranking!$B$2:$B$216</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Ranking!$C$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Ranking!$C$2:$C$216</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">QualityReview!$F$2:$F$13</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">[1]QualityReview!$A$2:$B$13</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">[1]QualityReview!$C$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">[1]QualityReview!$C$2:$C$13</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">[1]QualityReview!$D$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">[1]QualityReview!$D$2:$D$13</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">[1]QualityReview!$E$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">[1]QualityReview!$E$2:$E$13</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">[1]QualityReview!$F$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">[1]QualityReview!$F$2:$F$13</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Ranking!$B$2:$B$216</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">QualityReview!$A$23:$A$34</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">QualityReview!$C$22</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">QualityReview!$C$23:$C$34</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">QualityReview!$D$22</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">QualityReview!$D$23:$D$34</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">QualityReview!$E$22</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">QualityReview!$E$23:$E$34</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">QualityReview!$F$22</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">QualityReview!$F$23:$F$34</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">[1]QualityReview!$A$23:$A$34</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Ranking!$C$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">[1]QualityReview!$C$22</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">[1]QualityReview!$C$23:$C$34</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">[1]QualityReview!$D$22</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">[1]QualityReview!$D$23:$D$34</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">[1]QualityReview!$E$22</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">[1]QualityReview!$E$23:$E$34</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">[1]QualityReview!$F$22</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">[1]QualityReview!$F$23:$F$34</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">QualityReview!$A$23:$A$34</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">QualityReview!$C$22</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Ranking!$C$2:$C$216</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">QualityReview!$C$23:$C$34</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">QualityReview!$D$22</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">QualityReview!$D$23:$D$34</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">QualityReview!$E$22</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">QualityReview!$E$23:$E$34</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">QualityReview!$F$22</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">QualityReview!$F$23:$F$34</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">[1]QualityReview!$A$23:$A$34</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">[1]QualityReview!$C$22</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">[1]QualityReview!$C$23:$C$34</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Ranking!$A$1</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">[1]QualityReview!$D$22</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">[1]QualityReview!$D$23:$D$34</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">[1]QualityReview!$E$22</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">[1]QualityReview!$E$23:$E$34</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">[1]QualityReview!$F$22</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">[1]QualityReview!$F$23:$F$34</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">QualityReview!$A$2:$B$13</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">QualityReview!$C$1</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">QualityReview!$C$2:$C$13</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">QualityReview!$D$1</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Ranking!$A$2:$A$216</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">QualityReview!$D$2:$D$13</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">QualityReview!$E$1</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">QualityReview!$E$2:$E$13</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">QualityReview!$F$1</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">QualityReview!$F$2:$F$13</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">[1]QualityReview!$A$2:$B$13</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">[1]QualityReview!$C$1</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">[1]QualityReview!$C$2:$C$13</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">[1]QualityReview!$D$1</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">[1]QualityReview!$D$2:$D$13</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Ranking!$B$1</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">[1]QualityReview!$E$1</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">[1]QualityReview!$E$2:$E$13</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">[1]QualityReview!$F$1</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">[1]QualityReview!$F$2:$F$13</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">QualityReview!$A$23:$A$34</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">QualityReview!$C$22</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">QualityReview!$C$23:$C$34</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">QualityReview!$D$22</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">QualityReview!$D$23:$D$34</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">QualityReview!$E$22</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">Ranking!$B$2:$B$216</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">QualityReview!$E$23:$E$34</definedName>
+    <definedName name="_xlchart.v1.91" hidden="1">QualityReview!$F$22</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">QualityReview!$F$23:$F$34</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">[1]QualityReview!$A$23:$A$34</definedName>
+    <definedName name="_xlchart.v1.94" hidden="1">[1]QualityReview!$C$22</definedName>
+    <definedName name="_xlchart.v1.95" hidden="1">[1]QualityReview!$C$23:$C$34</definedName>
+    <definedName name="_xlchart.v1.96" hidden="1">[1]QualityReview!$D$22</definedName>
+    <definedName name="_xlchart.v1.97" hidden="1">[1]QualityReview!$D$23:$D$34</definedName>
+    <definedName name="_xlchart.v1.98" hidden="1">[1]QualityReview!$E$22</definedName>
+    <definedName name="_xlchart.v1.99" hidden="1">[1]QualityReview!$E$23:$E$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="258">
   <si>
     <t>What is your occupation?</t>
   </si>
@@ -823,6 +905,24 @@
   </si>
   <si>
     <t>Templates</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Req1</t>
+  </si>
+  <si>
+    <t>Req2</t>
+  </si>
+  <si>
+    <t>Req3</t>
+  </si>
+  <si>
+    <t>Req4</t>
   </si>
 </sst>
 </file>
@@ -885,7 +985,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -895,9 +995,6 @@
     </xf>
     <xf numFmtId="19" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1749,6 +1846,845 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>QualityReview!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vague</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>QualityReview!$A$2:$B$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Free</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>EARS</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>MASTER</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>QualityReview!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>41.860465116279073</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.860465116279073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.860465116279073</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.930232558139537</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.790697674418603</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.534883720930232</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.581395348837212</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.883720930232556</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.209302325581397</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.906976744186046</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.883720930232556</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.906976744186046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-85A9-4C44-8162-42119E8927DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>QualityReview!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>incomplete</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>QualityReview!$A$2:$B$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Free</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>EARS</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>MASTER</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>QualityReview!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25.581395348837212</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6511627906976747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.279069767441861</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.279069767441861</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.581395348837212</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.558139534883722</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.534883720930232</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.581395348837212</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.930232558139537</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.930232558139537</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.232558139534881</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.232558139534881</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-85A9-4C44-8162-42119E8927DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>QualityReview!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>incorrect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>QualityReview!$A$2:$B$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Free</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>EARS</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>MASTER</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>QualityReview!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.9767441860465116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3023255813953494</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.953488372093023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3023255813953494</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9767441860465116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.930232558139537</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.581395348837212</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3023255813953494</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6511627906976747</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.9767441860465116</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.953488372093023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.906976744186046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-85A9-4C44-8162-42119E8927DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>QualityReview!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>none</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>QualityReview!$A$2:$B$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Free</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>EARS</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>MASTER</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>QualityReview!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.9767441860465116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.279069767441861</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.581395348837212</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.581395348837212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.953488372093023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.279069767441861</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.906976744186046</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.534883720930232</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.232558139534881</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.860465116279073</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.906976744186046</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.581395348837212</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-85A9-4C44-8162-42119E8927DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="852054160"/>
+        <c:axId val="852058424"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="852054160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="852058424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="852058424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0" dirty="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>% Review per Requirement</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="852054160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -1906,6 +2842,363 @@
 </cx:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.66</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.68</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.66</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.70</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.66</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.72</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.66</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.74</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{77F25C24-85DD-4A54-A7D1-D94F6F8E168F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.67</cx:f>
+              <cx:v>vague</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" nonoutliers="0"/>
+            <cx:statistics quartileMethod="inclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{14EEBEFD-7F9A-4E97-87C1-E8349BC99461}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.69</cx:f>
+              <cx:v>incomplete</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="inclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{E056748F-24A3-4E02-8A68-8AAC77CCAFCB}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.71</cx:f>
+              <cx:v>incorrect</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="inclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{672FCDD8-5A6D-4A50-BC3E-796BD53E6BB0}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.73</cx:f>
+              <cx:v>none</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="inclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>% Review per Requirement</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-DE">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <cx:printSettings>
+    <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
+    <cx:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.78740157499999996" b="0.78740157499999996" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="default" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  </cx:printSettings>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.48</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.50</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.48</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.52</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.48</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.54</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.48</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.56</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{027BD639-9B66-4C1E-AA91-895916F501ED}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.49</cx:f>
+              <cx:v>vague</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="inclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{72CB3FFF-E10B-447F-9F63-53AD6057415C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.51</cx:f>
+              <cx:v>incomplete</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="inclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{53BA64B2-98E1-43B8-8AF0-164E805B40AA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.53</cx:f>
+              <cx:v>incorrect</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="inclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{AFDE7047-C063-4660-AE6C-95B79B0FA1CB}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.55</cx:f>
+              <cx:v>none</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="inclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1200"/>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>% Review per Template System</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-DE">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1200"/>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200"/>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <cx:printSettings>
+    <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
+    <cx:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.78740157499999996" b="0.78740157499999996" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="default" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  </cx:printSettings>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2034,6 +3327,117 @@
   <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -4138,6 +5542,1481 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:bodyPr rot="0" vert="horz"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:bodyPr rot="0" vert="horz"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4332,6 +7211,673 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Diagramm 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094D8F95-8BB8-445A-8D58-5BD37FA78FEC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6705600" y="904875"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-DE" sz="1100"/>
+                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B022559F-952C-4C6D-AD1F-C1A921E4D56D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Diagramm 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDCC7286-6BF7-4887-AFC6-8396FB8BB1BF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6710362" y="6867525"/>
+              <a:ext cx="4567238" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-DE" sz="1100"/>
+                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="SubjectBackground"/>
+      <sheetName val="SubjectBackgroundChart"/>
+      <sheetName val="QualityReview"/>
+      <sheetName val="Stat"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v>vague</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>incomplete</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>incorrect</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>none</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Free</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>Req1</v>
+          </cell>
+          <cell r="C2">
+            <v>43.902439024390247</v>
+          </cell>
+          <cell r="D2">
+            <v>26.829268292682929</v>
+          </cell>
+          <cell r="E2">
+            <v>7.3170731707317067</v>
+          </cell>
+          <cell r="F2">
+            <v>56.09756097560976</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Req2</v>
+          </cell>
+          <cell r="C3">
+            <v>43.902439024390247</v>
+          </cell>
+          <cell r="D3">
+            <v>17.073170731707318</v>
+          </cell>
+          <cell r="E3">
+            <v>14.634146341463413</v>
+          </cell>
+          <cell r="F3">
+            <v>36.585365853658537</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Req3</v>
+          </cell>
+          <cell r="C4">
+            <v>43.902439024390247</v>
+          </cell>
+          <cell r="D4">
+            <v>4.8780487804878048</v>
+          </cell>
+          <cell r="E4">
+            <v>9.7560975609756095</v>
+          </cell>
+          <cell r="F4">
+            <v>53.658536585365859</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Req4</v>
+          </cell>
+          <cell r="C5">
+            <v>21.951219512195124</v>
+          </cell>
+          <cell r="D5">
+            <v>17.073170731707318</v>
+          </cell>
+          <cell r="E5">
+            <v>9.7560975609756095</v>
+          </cell>
+          <cell r="F5">
+            <v>41.463414634146339</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>EARS</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>Req1</v>
+          </cell>
+          <cell r="C6">
+            <v>65.853658536585371</v>
+          </cell>
+          <cell r="D6">
+            <v>26.829268292682929</v>
+          </cell>
+          <cell r="E6">
+            <v>7.3170731707317067</v>
+          </cell>
+          <cell r="F6">
+            <v>14.634146341463413</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Req2</v>
+          </cell>
+          <cell r="C7">
+            <v>26.829268292682929</v>
+          </cell>
+          <cell r="D7">
+            <v>41.463414634146339</v>
+          </cell>
+          <cell r="E7">
+            <v>26.829268292682929</v>
+          </cell>
+          <cell r="F7">
+            <v>7.3170731707317067</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Req3</v>
+          </cell>
+          <cell r="C8">
+            <v>41.463414634146339</v>
+          </cell>
+          <cell r="D8">
+            <v>34.146341463414636</v>
+          </cell>
+          <cell r="E8">
+            <v>21.951219512195124</v>
+          </cell>
+          <cell r="F8">
+            <v>26.829268292682929</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>Req4</v>
+          </cell>
+          <cell r="C9">
+            <v>36.585365853658537</v>
+          </cell>
+          <cell r="D9">
+            <v>26.829268292682929</v>
+          </cell>
+          <cell r="E9">
+            <v>9.7560975609756095</v>
+          </cell>
+          <cell r="F9">
+            <v>12.195121951219512</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>MASTER</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>Req1</v>
+          </cell>
+          <cell r="C10">
+            <v>39.024390243902438</v>
+          </cell>
+          <cell r="D10">
+            <v>21.951219512195124</v>
+          </cell>
+          <cell r="E10">
+            <v>4.8780487804878048</v>
+          </cell>
+          <cell r="F10">
+            <v>24.390243902439025</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>Req2</v>
+          </cell>
+          <cell r="C11">
+            <v>36.585365853658537</v>
+          </cell>
+          <cell r="D11">
+            <v>31.707317073170731</v>
+          </cell>
+          <cell r="E11">
+            <v>14.634146341463413</v>
+          </cell>
+          <cell r="F11">
+            <v>7.3170731707317067</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>Req3</v>
+          </cell>
+          <cell r="C12">
+            <v>29.268292682926827</v>
+          </cell>
+          <cell r="D12">
+            <v>21.951219512195124</v>
+          </cell>
+          <cell r="E12">
+            <v>7.3170731707317067</v>
+          </cell>
+          <cell r="F12">
+            <v>12.195121951219512</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Req4</v>
+          </cell>
+          <cell r="C13">
+            <v>29.268292682926827</v>
+          </cell>
+          <cell r="D13">
+            <v>31.707317073170731</v>
+          </cell>
+          <cell r="E13">
+            <v>29.268292682926827</v>
+          </cell>
+          <cell r="F13">
+            <v>9.7560975609756095</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22" t="str">
+            <v>vague</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>incomplete</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>incorrect</v>
+          </cell>
+          <cell r="F22" t="str">
+            <v>none</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Free</v>
+          </cell>
+          <cell r="C23">
+            <v>43.902439024390247</v>
+          </cell>
+          <cell r="D23">
+            <v>26.829268292682929</v>
+          </cell>
+          <cell r="E23">
+            <v>7.3170731707317067</v>
+          </cell>
+          <cell r="F23">
+            <v>56.09756097560976</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Free</v>
+          </cell>
+          <cell r="C24">
+            <v>43.902439024390247</v>
+          </cell>
+          <cell r="D24">
+            <v>17.073170731707318</v>
+          </cell>
+          <cell r="E24">
+            <v>14.634146341463413</v>
+          </cell>
+          <cell r="F24">
+            <v>36.585365853658537</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Free</v>
+          </cell>
+          <cell r="C25">
+            <v>43.902439024390247</v>
+          </cell>
+          <cell r="D25">
+            <v>4.8780487804878048</v>
+          </cell>
+          <cell r="E25">
+            <v>9.7560975609756095</v>
+          </cell>
+          <cell r="F25">
+            <v>53.658536585365859</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Free</v>
+          </cell>
+          <cell r="C26">
+            <v>21.951219512195124</v>
+          </cell>
+          <cell r="D26">
+            <v>17.073170731707318</v>
+          </cell>
+          <cell r="E26">
+            <v>9.7560975609756095</v>
+          </cell>
+          <cell r="F26">
+            <v>41.463414634146339</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>EARS</v>
+          </cell>
+          <cell r="C27">
+            <v>65.853658536585371</v>
+          </cell>
+          <cell r="D27">
+            <v>26.829268292682929</v>
+          </cell>
+          <cell r="E27">
+            <v>7.3170731707317067</v>
+          </cell>
+          <cell r="F27">
+            <v>14.634146341463413</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>EARS</v>
+          </cell>
+          <cell r="C28">
+            <v>26.829268292682929</v>
+          </cell>
+          <cell r="D28">
+            <v>41.463414634146339</v>
+          </cell>
+          <cell r="E28">
+            <v>26.829268292682929</v>
+          </cell>
+          <cell r="F28">
+            <v>7.3170731707317067</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>EARS</v>
+          </cell>
+          <cell r="C29">
+            <v>41.463414634146339</v>
+          </cell>
+          <cell r="D29">
+            <v>34.146341463414636</v>
+          </cell>
+          <cell r="E29">
+            <v>21.951219512195124</v>
+          </cell>
+          <cell r="F29">
+            <v>26.829268292682929</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>EARS</v>
+          </cell>
+          <cell r="C30">
+            <v>36.585365853658537</v>
+          </cell>
+          <cell r="D30">
+            <v>26.829268292682929</v>
+          </cell>
+          <cell r="E30">
+            <v>9.7560975609756095</v>
+          </cell>
+          <cell r="F30">
+            <v>12.195121951219512</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>MASTER</v>
+          </cell>
+          <cell r="C31">
+            <v>39.024390243902438</v>
+          </cell>
+          <cell r="D31">
+            <v>21.951219512195124</v>
+          </cell>
+          <cell r="E31">
+            <v>4.8780487804878048</v>
+          </cell>
+          <cell r="F31">
+            <v>24.390243902439025</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>MASTER</v>
+          </cell>
+          <cell r="C32">
+            <v>36.585365853658537</v>
+          </cell>
+          <cell r="D32">
+            <v>31.707317073170731</v>
+          </cell>
+          <cell r="E32">
+            <v>14.634146341463413</v>
+          </cell>
+          <cell r="F32">
+            <v>7.3170731707317067</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>MASTER</v>
+          </cell>
+          <cell r="C33">
+            <v>29.268292682926827</v>
+          </cell>
+          <cell r="D33">
+            <v>21.951219512195124</v>
+          </cell>
+          <cell r="E33">
+            <v>7.3170731707317067</v>
+          </cell>
+          <cell r="F33">
+            <v>12.195121951219512</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>MASTER</v>
+          </cell>
+          <cell r="C34">
+            <v>29.268292682926827</v>
+          </cell>
+          <cell r="D34">
+            <v>31.707317073170731</v>
+          </cell>
+          <cell r="E34">
+            <v>29.268292682926827</v>
+          </cell>
+          <cell r="F34">
+            <v>9.7560975609756095</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4595,12 +8141,768 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride3.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BS44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4855,7 +9157,7 @@
       <c r="H2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <f t="shared" ref="I2:I24" si="0">BS2-J2</f>
         <v>1.3888888888888895E-2</v>
       </c>
@@ -4937,7 +9239,7 @@
       <c r="AK2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AL2" s="5">
+      <c r="AL2" s="4">
         <f>AP2-AM2</f>
         <v>2.0833333333333814E-3</v>
       </c>
@@ -4953,7 +9255,7 @@
       <c r="AP2" s="3">
         <v>0.44930555555555557</v>
       </c>
-      <c r="AQ2" s="6">
+      <c r="AQ2" s="5">
         <f>AU2-AR2</f>
         <v>2.0833333333333259E-3</v>
       </c>
@@ -5067,7 +9369,7 @@
       <c r="H3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <f t="shared" si="0"/>
         <v>1.6666666666666607E-2</v>
       </c>
@@ -5153,7 +9455,7 @@
       <c r="AK3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AL3" s="5">
+      <c r="AL3" s="4">
         <f t="shared" ref="AL3:AL44" si="1">AP3-AM3</f>
         <v>3.4722222222222099E-3</v>
       </c>
@@ -5169,7 +9471,7 @@
       <c r="AP3" s="3">
         <v>0.58958333333333335</v>
       </c>
-      <c r="AQ3" s="6">
+      <c r="AQ3" s="5">
         <f t="shared" ref="AQ3:AQ44" si="2">AU3-AR3</f>
         <v>3.4722222222222099E-3</v>
       </c>
@@ -5283,7 +9585,7 @@
       <c r="H4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <f t="shared" si="0"/>
         <v>2.7777777777777679E-2</v>
       </c>
@@ -5371,7 +9673,7 @@
       <c r="AK4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AL4" s="5">
+      <c r="AL4" s="4">
         <f t="shared" si="1"/>
         <v>2.0833333333333259E-3</v>
       </c>
@@ -5387,7 +9689,7 @@
       <c r="AP4" s="3">
         <v>0.79999999999999993</v>
       </c>
-      <c r="AQ4" s="6">
+      <c r="AQ4" s="5">
         <f t="shared" si="2"/>
         <v>6.9444444444444198E-4</v>
       </c>
@@ -5501,7 +9803,7 @@
       <c r="H5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <f t="shared" si="0"/>
         <v>1.388888888888884E-2</v>
       </c>
@@ -5589,7 +9891,7 @@
       <c r="AK5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AL5" s="5">
+      <c r="AL5" s="4">
         <f t="shared" si="1"/>
         <v>5.5555555555555358E-3</v>
       </c>
@@ -5605,7 +9907,7 @@
       <c r="AP5" s="3">
         <v>0.44444444444444442</v>
       </c>
-      <c r="AQ5" s="6">
+      <c r="AQ5" s="5">
         <f t="shared" si="2"/>
         <v>2.0833333333333814E-3</v>
       </c>
@@ -5719,7 +10021,7 @@
       <c r="H6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <f t="shared" si="0"/>
         <v>1.4583333333333393E-2</v>
       </c>
@@ -5793,7 +10095,7 @@
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
-      <c r="AL6" s="5">
+      <c r="AL6" s="4">
         <f t="shared" si="1"/>
         <v>4.8611111111110383E-3</v>
       </c>
@@ -5809,7 +10111,7 @@
       <c r="AP6" s="3">
         <v>0.44722222222222219</v>
       </c>
-      <c r="AQ6" s="6">
+      <c r="AQ6" s="5">
         <f t="shared" si="2"/>
         <v>2.0833333333333814E-3</v>
       </c>
@@ -5923,7 +10225,7 @@
       <c r="H7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <f t="shared" si="0"/>
         <v>1.8749999999999989E-2</v>
       </c>
@@ -5990,7 +10292,7 @@
       </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="4" t="s">
+      <c r="AG7" s="1" t="s">
         <v>93</v>
       </c>
       <c r="AH7" s="1"/>
@@ -6003,7 +10305,7 @@
       <c r="AK7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AL7" s="5">
+      <c r="AL7" s="4">
         <f t="shared" si="1"/>
         <v>4.1666666666666519E-3</v>
       </c>
@@ -6019,7 +10321,7 @@
       <c r="AP7" s="3">
         <v>0.4465277777777778</v>
       </c>
-      <c r="AQ7" s="6">
+      <c r="AQ7" s="5">
         <f t="shared" si="2"/>
         <v>2.7777777777777679E-3</v>
       </c>
@@ -6133,7 +10435,7 @@
       <c r="H8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <f t="shared" si="0"/>
         <v>1.8749999999999989E-2</v>
       </c>
@@ -6219,7 +10521,7 @@
       <c r="AK8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AL8" s="5">
+      <c r="AL8" s="4">
         <f t="shared" si="1"/>
         <v>3.4722222222222654E-3</v>
       </c>
@@ -6235,7 +10537,7 @@
       <c r="AP8" s="3">
         <v>0.4465277777777778</v>
       </c>
-      <c r="AQ8" s="6">
+      <c r="AQ8" s="5">
         <f t="shared" si="2"/>
         <v>4.8611111111110938E-3</v>
       </c>
@@ -6349,7 +10651,7 @@
       <c r="H9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <f t="shared" si="0"/>
         <v>2.0138888888888928E-2</v>
       </c>
@@ -6433,7 +10735,7 @@
       <c r="AK9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AL9" s="5">
+      <c r="AL9" s="4">
         <f t="shared" si="1"/>
         <v>4.1666666666666519E-3</v>
       </c>
@@ -6449,7 +10751,7 @@
       <c r="AP9" s="3">
         <v>0.45069444444444445</v>
       </c>
-      <c r="AQ9" s="6">
+      <c r="AQ9" s="5">
         <f t="shared" si="2"/>
         <v>2.0833333333333259E-3</v>
       </c>
@@ -6563,7 +10865,7 @@
       <c r="H10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <f t="shared" si="0"/>
         <v>2.430555555555558E-2</v>
       </c>
@@ -6649,7 +10951,7 @@
       <c r="AK10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AL10" s="5">
+      <c r="AL10" s="4">
         <f t="shared" si="1"/>
         <v>6.9444444444444753E-3</v>
       </c>
@@ -6665,7 +10967,7 @@
       <c r="AP10" s="3">
         <v>0.4513888888888889</v>
       </c>
-      <c r="AQ10" s="6">
+      <c r="AQ10" s="5">
         <f t="shared" si="2"/>
         <v>3.4722222222222099E-3</v>
       </c>
@@ -6779,7 +11081,7 @@
       <c r="H11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <f t="shared" si="0"/>
         <v>2.0138888888888873E-2</v>
       </c>
@@ -6855,7 +11157,7 @@
       <c r="AK11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AL11" s="5">
+      <c r="AL11" s="4">
         <f t="shared" si="1"/>
         <v>4.8611111111111494E-3</v>
       </c>
@@ -6871,7 +11173,7 @@
       <c r="AP11" s="3">
         <v>0.44930555555555557</v>
       </c>
-      <c r="AQ11" s="6">
+      <c r="AQ11" s="5">
         <f t="shared" si="2"/>
         <v>4.1666666666666519E-3</v>
       </c>
@@ -6985,7 +11287,7 @@
       <c r="H12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <f t="shared" si="0"/>
         <v>2.0138888888888928E-2</v>
       </c>
@@ -7067,7 +11369,7 @@
       <c r="AK12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AL12" s="5">
+      <c r="AL12" s="4">
         <f t="shared" si="1"/>
         <v>4.1666666666667074E-3</v>
       </c>
@@ -7083,7 +11385,7 @@
       <c r="AP12" s="3">
         <v>0.4513888888888889</v>
       </c>
-      <c r="AQ12" s="6">
+      <c r="AQ12" s="5">
         <f t="shared" si="2"/>
         <v>2.0833333333333259E-3</v>
       </c>
@@ -7197,7 +11499,7 @@
       <c r="H13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <f t="shared" si="0"/>
         <v>6.9444444444445308E-3</v>
       </c>
@@ -7267,7 +11569,7 @@
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
-      <c r="AL13" s="5">
+      <c r="AL13" s="4">
         <f t="shared" si="1"/>
         <v>1.388888888888884E-3</v>
       </c>
@@ -7283,7 +11585,7 @@
       <c r="AP13" s="3">
         <v>0.54027777777777775</v>
       </c>
-      <c r="AQ13" s="6">
+      <c r="AQ13" s="5">
         <f t="shared" si="2"/>
         <v>2.7777777777777679E-3</v>
       </c>
@@ -7397,7 +11699,7 @@
       <c r="H14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <f t="shared" si="0"/>
         <v>1.8055555555555602E-2</v>
       </c>
@@ -7479,7 +11781,7 @@
       <c r="AK14" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AL14" s="5">
+      <c r="AL14" s="4">
         <f t="shared" si="1"/>
         <v>4.1666666666666519E-3</v>
       </c>
@@ -7495,7 +11797,7 @@
       <c r="AP14" s="3">
         <v>0.54097222222222219</v>
       </c>
-      <c r="AQ14" s="6">
+      <c r="AQ14" s="5">
         <f t="shared" si="2"/>
         <v>8.3333333333334147E-3</v>
       </c>
@@ -7609,7 +11911,7 @@
       <c r="H15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <f t="shared" si="0"/>
         <v>2.2916666666666696E-2</v>
       </c>
@@ -7674,7 +11976,7 @@
       <c r="AD15" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AE15" s="4" t="s">
+      <c r="AE15" s="1" t="s">
         <v>128</v>
       </c>
       <c r="AF15" s="1"/>
@@ -7693,7 +11995,7 @@
       <c r="AK15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AL15" s="5">
+      <c r="AL15" s="4">
         <f t="shared" si="1"/>
         <v>4.8611111111112049E-3</v>
       </c>
@@ -7709,7 +12011,7 @@
       <c r="AP15" s="3">
         <v>0.54513888888888895</v>
       </c>
-      <c r="AQ15" s="6">
+      <c r="AQ15" s="5">
         <f t="shared" si="2"/>
         <v>4.8611111111112049E-3</v>
       </c>
@@ -7823,7 +12125,7 @@
       <c r="H16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <f t="shared" si="0"/>
         <v>2.9861111111111116E-2</v>
       </c>
@@ -7893,7 +12195,7 @@
       <c r="AE16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AF16" s="4" t="s">
+      <c r="AF16" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AG16" s="1"/>
@@ -7909,7 +12211,7 @@
       <c r="AK16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AL16" s="5">
+      <c r="AL16" s="4">
         <f t="shared" si="1"/>
         <v>6.2500000000000888E-3</v>
       </c>
@@ -7925,7 +12227,7 @@
       <c r="AP16" s="3">
         <v>0.5493055555555556</v>
       </c>
-      <c r="AQ16" s="6">
+      <c r="AQ16" s="5">
         <f t="shared" si="2"/>
         <v>5.5555555555556468E-3</v>
       </c>
@@ -8039,7 +12341,7 @@
       <c r="H17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <f t="shared" si="0"/>
         <v>2.5694444444444464E-2</v>
       </c>
@@ -8121,7 +12423,7 @@
       <c r="AK17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AL17" s="5">
+      <c r="AL17" s="4">
         <f t="shared" si="1"/>
         <v>3.4722222222222099E-3</v>
       </c>
@@ -8137,7 +12439,7 @@
       <c r="AP17" s="3">
         <v>0.53749999999999998</v>
       </c>
-      <c r="AQ17" s="6">
+      <c r="AQ17" s="5">
         <f t="shared" si="2"/>
         <v>1.1111111111111072E-2</v>
       </c>
@@ -8251,7 +12553,7 @@
       <c r="H18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <f t="shared" si="0"/>
         <v>2.777777777777778E-2</v>
       </c>
@@ -8339,7 +12641,7 @@
       <c r="AK18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AL18" s="5">
+      <c r="AL18" s="4">
         <f>AP18-AM18</f>
         <v>7.6388888888888618E-3</v>
       </c>
@@ -8355,7 +12657,7 @@
       <c r="AP18" s="3">
         <v>0.54861111111111105</v>
       </c>
-      <c r="AQ18" s="6">
+      <c r="AQ18" s="5">
         <f t="shared" si="2"/>
         <v>8.3333333333334147E-3</v>
       </c>
@@ -8469,7 +12771,7 @@
       <c r="H19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <f t="shared" si="0"/>
         <v>2.430555555555558E-2</v>
       </c>
@@ -8549,7 +12851,7 @@
       <c r="AK19" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AL19" s="5">
+      <c r="AL19" s="4">
         <f t="shared" si="1"/>
         <v>6.9444444444445308E-3</v>
       </c>
@@ -8565,7 +12867,7 @@
       <c r="AP19" s="3">
         <v>0.40972222222222227</v>
       </c>
-      <c r="AQ19" s="6">
+      <c r="AQ19" s="5">
         <f t="shared" si="2"/>
         <v>6.9444444444444198E-3</v>
       </c>
@@ -8679,7 +12981,7 @@
       <c r="H20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <f t="shared" si="0"/>
         <v>1.7361111111111105E-2</v>
       </c>
@@ -8761,7 +13063,7 @@
       <c r="AK20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AL20" s="5">
+      <c r="AL20" s="4">
         <f t="shared" si="1"/>
         <v>2.0833333333333259E-3</v>
       </c>
@@ -8777,7 +13079,7 @@
       <c r="AP20" s="3">
         <v>0.45</v>
       </c>
-      <c r="AQ20" s="6">
+      <c r="AQ20" s="5">
         <f t="shared" si="2"/>
         <v>2.7777777777777679E-3</v>
       </c>
@@ -8891,7 +13193,7 @@
       <c r="H21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
@@ -8979,7 +13281,7 @@
       <c r="AK21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AL21" s="5">
+      <c r="AL21" s="4">
         <f t="shared" si="1"/>
         <v>6.9444444444444753E-3</v>
       </c>
@@ -8995,7 +13297,7 @@
       <c r="AP21" s="3">
         <v>0.4513888888888889</v>
       </c>
-      <c r="AQ21" s="6">
+      <c r="AQ21" s="5">
         <f t="shared" si="2"/>
         <v>6.9444444444444198E-3</v>
       </c>
@@ -9109,7 +13411,7 @@
       <c r="H22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <f t="shared" si="0"/>
         <v>1.8055555555555547E-2</v>
       </c>
@@ -9185,7 +13487,7 @@
       <c r="AK22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AL22" s="5">
+      <c r="AL22" s="4">
         <f t="shared" si="1"/>
         <v>4.1666666666666519E-3</v>
       </c>
@@ -9201,7 +13503,7 @@
       <c r="AP22" s="3">
         <v>0.44791666666666669</v>
       </c>
-      <c r="AQ22" s="6">
+      <c r="AQ22" s="5">
         <f t="shared" si="2"/>
         <v>3.4722222222222099E-3</v>
       </c>
@@ -9315,7 +13617,7 @@
       <c r="H23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="4">
         <f t="shared" si="0"/>
         <v>2.5000000000000078E-2</v>
       </c>
@@ -9395,7 +13697,7 @@
         <v>143</v>
       </c>
       <c r="AK23" s="1"/>
-      <c r="AL23" s="5">
+      <c r="AL23" s="4">
         <f t="shared" si="1"/>
         <v>3.4722222222222099E-3</v>
       </c>
@@ -9411,7 +13713,7 @@
       <c r="AP23" s="3">
         <v>0.4513888888888889</v>
       </c>
-      <c r="AQ23" s="6">
+      <c r="AQ23" s="5">
         <f t="shared" si="2"/>
         <v>5.5555555555555358E-3</v>
       </c>
@@ -9525,7 +13827,7 @@
       <c r="H24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="4">
         <f t="shared" si="0"/>
         <v>2.6388888888888851E-2</v>
       </c>
@@ -9605,7 +13907,7 @@
       <c r="AK24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AL24" s="5">
+      <c r="AL24" s="4">
         <f t="shared" si="1"/>
         <v>3.4722222222222099E-3</v>
       </c>
@@ -9621,7 +13923,7 @@
       <c r="AP24" s="3">
         <v>0.45</v>
       </c>
-      <c r="AQ24" s="6">
+      <c r="AQ24" s="5">
         <f t="shared" si="2"/>
         <v>5.5555555555555358E-3</v>
       </c>
@@ -9735,7 +14037,7 @@
       <c r="H25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="4">
         <f>BS25-J25</f>
         <v>3.0555555555555614E-2</v>
       </c>
@@ -9815,7 +14117,7 @@
       <c r="AK25" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AL25" s="5">
+      <c r="AL25" s="4">
         <f t="shared" si="1"/>
         <v>2.7777777777777679E-3</v>
       </c>
@@ -9831,7 +14133,7 @@
       <c r="AP25" s="3">
         <v>0.45763888888888887</v>
       </c>
-      <c r="AQ25" s="6">
+      <c r="AQ25" s="5">
         <f t="shared" si="2"/>
         <v>4.8611111111110938E-3</v>
       </c>
@@ -9945,7 +14247,7 @@
       <c r="H26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="4">
         <f t="shared" ref="I26:I44" si="3">BS26-J26</f>
         <v>1.5277777777777724E-2</v>
       </c>
@@ -10029,7 +14331,7 @@
       <c r="AK26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AL26" s="5">
+      <c r="AL26" s="4">
         <f t="shared" si="1"/>
         <v>2.7777777777777679E-3</v>
       </c>
@@ -10045,7 +14347,7 @@
       <c r="AP26" s="3">
         <v>0.5756944444444444</v>
       </c>
-      <c r="AQ26" s="6">
+      <c r="AQ26" s="5">
         <f t="shared" si="2"/>
         <v>5.5555555555555358E-3</v>
       </c>
@@ -10159,7 +14461,7 @@
       <c r="H27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="4">
         <f t="shared" si="3"/>
         <v>2.0138888888888928E-2</v>
       </c>
@@ -10225,7 +14527,7 @@
         <v>57</v>
       </c>
       <c r="AE27" s="1"/>
-      <c r="AF27" s="4" t="s">
+      <c r="AF27" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AG27" s="1"/>
@@ -10237,7 +14539,7 @@
         <v>60</v>
       </c>
       <c r="AK27" s="1"/>
-      <c r="AL27" s="5">
+      <c r="AL27" s="4">
         <f t="shared" si="1"/>
         <v>2.7777777777778234E-3</v>
       </c>
@@ -10253,7 +14555,7 @@
       <c r="AP27" s="3">
         <v>0.45</v>
       </c>
-      <c r="AQ27" s="6">
+      <c r="AQ27" s="5">
         <f t="shared" si="2"/>
         <v>4.8611111111110383E-3</v>
       </c>
@@ -10367,7 +14669,7 @@
       <c r="H28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="4">
         <f t="shared" si="3"/>
         <v>1.9444444444444431E-2</v>
       </c>
@@ -10445,7 +14747,7 @@
       <c r="AK28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AL28" s="5">
+      <c r="AL28" s="4">
         <f t="shared" si="1"/>
         <v>2.0833333333333259E-3</v>
       </c>
@@ -10461,7 +14763,7 @@
       <c r="AP28" s="3">
         <v>0.45069444444444445</v>
       </c>
-      <c r="AQ28" s="6">
+      <c r="AQ28" s="5">
         <f t="shared" si="2"/>
         <v>6.9444444444444753E-3</v>
       </c>
@@ -10575,7 +14877,7 @@
       <c r="H29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="4">
         <f t="shared" si="3"/>
         <v>1.8749999999999989E-2</v>
       </c>
@@ -10657,7 +14959,7 @@
       <c r="AK29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AL29" s="5">
+      <c r="AL29" s="4">
         <f t="shared" si="1"/>
         <v>2.0833333333333259E-3</v>
       </c>
@@ -10673,7 +14975,7 @@
       <c r="AP29" s="3">
         <v>0.4513888888888889</v>
       </c>
-      <c r="AQ29" s="6">
+      <c r="AQ29" s="5">
         <f t="shared" si="2"/>
         <v>6.2500000000000333E-3</v>
       </c>
@@ -10787,7 +15089,7 @@
       <c r="H30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="4">
         <f t="shared" si="3"/>
         <v>1.8749999999999989E-2</v>
       </c>
@@ -10875,7 +15177,7 @@
       <c r="AK30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AL30" s="5">
+      <c r="AL30" s="4">
         <f t="shared" si="1"/>
         <v>2.0833333333333259E-3</v>
       </c>
@@ -10891,7 +15193,7 @@
       <c r="AP30" s="3">
         <v>0.4513888888888889</v>
       </c>
-      <c r="AQ30" s="6">
+      <c r="AQ30" s="5">
         <f t="shared" si="2"/>
         <v>2.7777777777778234E-3</v>
       </c>
@@ -11005,7 +15307,7 @@
       <c r="H31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="4">
         <f t="shared" si="3"/>
         <v>1.8750000000000044E-2</v>
       </c>
@@ -11093,7 +15395,7 @@
       <c r="AK31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AL31" s="5">
+      <c r="AL31" s="4">
         <f t="shared" si="1"/>
         <v>2.0833333333333259E-3</v>
       </c>
@@ -11109,7 +15411,7 @@
       <c r="AP31" s="3">
         <v>0.4513888888888889</v>
       </c>
-      <c r="AQ31" s="6">
+      <c r="AQ31" s="5">
         <f t="shared" si="2"/>
         <v>5.5555555555555358E-3</v>
       </c>
@@ -11223,7 +15525,7 @@
       <c r="H32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="4">
         <f t="shared" si="3"/>
         <v>2.0833333333333315E-2</v>
       </c>
@@ -11303,7 +15605,7 @@
       <c r="AK32" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AL32" s="5">
+      <c r="AL32" s="4">
         <f t="shared" si="1"/>
         <v>2.7777777777777679E-3</v>
       </c>
@@ -11319,7 +15621,7 @@
       <c r="AP32" s="3">
         <v>0.4513888888888889</v>
       </c>
-      <c r="AQ32" s="6">
+      <c r="AQ32" s="5">
         <f t="shared" si="2"/>
         <v>4.8611111111111494E-3</v>
       </c>
@@ -11433,7 +15735,7 @@
       <c r="H33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="4">
         <f t="shared" si="3"/>
         <v>2.0833333333333315E-2</v>
       </c>
@@ -11513,7 +15815,7 @@
       <c r="AK33" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AL33" s="5">
+      <c r="AL33" s="4">
         <f t="shared" si="1"/>
         <v>2.7777777777777679E-3</v>
       </c>
@@ -11529,7 +15831,7 @@
       <c r="AP33" s="3">
         <v>0.4513888888888889</v>
       </c>
-      <c r="AQ33" s="6">
+      <c r="AQ33" s="5">
         <f t="shared" si="2"/>
         <v>4.8611111111111494E-3</v>
       </c>
@@ -11643,7 +15945,7 @@
       <c r="H34" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="4">
         <f t="shared" si="3"/>
         <v>1.8750000000000044E-2</v>
       </c>
@@ -11731,7 +16033,7 @@
       <c r="AK34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AL34" s="5">
+      <c r="AL34" s="4">
         <f t="shared" si="1"/>
         <v>4.8611111111110938E-3</v>
       </c>
@@ -11747,7 +16049,7 @@
       <c r="AP34" s="3">
         <v>0.45277777777777778</v>
       </c>
-      <c r="AQ34" s="6">
+      <c r="AQ34" s="5">
         <f t="shared" si="2"/>
         <v>4.8611111111111494E-3</v>
       </c>
@@ -11861,7 +16163,7 @@
       <c r="H35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="4">
         <f t="shared" si="3"/>
         <v>2.9166666666666674E-2</v>
       </c>
@@ -11941,7 +16243,7 @@
       <c r="AK35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AL35" s="5">
+      <c r="AL35" s="4">
         <f t="shared" si="1"/>
         <v>4.8611111111110938E-3</v>
       </c>
@@ -11957,7 +16259,7 @@
       <c r="AP35" s="3">
         <v>0.4548611111111111</v>
       </c>
-      <c r="AQ35" s="6">
+      <c r="AQ35" s="5">
         <f t="shared" si="2"/>
         <v>6.9444444444444753E-3</v>
       </c>
@@ -12071,7 +16373,7 @@
       <c r="H36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="4">
         <f t="shared" si="3"/>
         <v>2.430555555555558E-2</v>
       </c>
@@ -12149,7 +16451,7 @@
       <c r="AK36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AL36" s="5">
+      <c r="AL36" s="4">
         <f t="shared" si="1"/>
         <v>2.7777777777778789E-3</v>
       </c>
@@ -12165,7 +16467,7 @@
       <c r="AP36" s="3">
         <v>0.4694444444444445</v>
       </c>
-      <c r="AQ36" s="6">
+      <c r="AQ36" s="5">
         <f t="shared" si="2"/>
         <v>7.6388888888889173E-3</v>
       </c>
@@ -12279,7 +16581,7 @@
       <c r="H37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="4">
         <f t="shared" si="3"/>
         <v>1.3194444444444398E-2</v>
       </c>
@@ -12357,7 +16659,7 @@
       <c r="AK37" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AL37" s="5">
+      <c r="AL37" s="4">
         <f t="shared" si="1"/>
         <v>2.0833333333333259E-3</v>
       </c>
@@ -12373,7 +16675,7 @@
       <c r="AP37" s="3">
         <v>0.5395833333333333</v>
       </c>
-      <c r="AQ37" s="6">
+      <c r="AQ37" s="5">
         <f t="shared" si="2"/>
         <v>3.4722222222222099E-3</v>
       </c>
@@ -12487,7 +16789,7 @@
       <c r="H38" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="4">
         <f t="shared" si="3"/>
         <v>2.0833333333333259E-2</v>
       </c>
@@ -12563,7 +16865,7 @@
       <c r="AK38" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AL38" s="5">
+      <c r="AL38" s="4">
         <f t="shared" si="1"/>
         <v>3.4722222222220989E-3</v>
       </c>
@@ -12579,7 +16881,7 @@
       <c r="AP38" s="3">
         <v>0.54999999999999993</v>
       </c>
-      <c r="AQ38" s="6">
+      <c r="AQ38" s="5">
         <f t="shared" si="2"/>
         <v>6.2499999999999778E-3</v>
       </c>
@@ -12693,7 +16995,7 @@
       <c r="H39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="4">
         <f t="shared" si="3"/>
         <v>3.3333333333333326E-2</v>
       </c>
@@ -12767,7 +17069,7 @@
         <v>57</v>
       </c>
       <c r="AK39" s="1"/>
-      <c r="AL39" s="5">
+      <c r="AL39" s="4">
         <f t="shared" si="1"/>
         <v>6.9444444444444198E-3</v>
       </c>
@@ -12783,7 +17085,7 @@
       <c r="AP39" s="3">
         <v>0.55902777777777779</v>
       </c>
-      <c r="AQ39" s="6">
+      <c r="AQ39" s="5">
         <f t="shared" si="2"/>
         <v>8.3333333333333037E-3</v>
       </c>
@@ -12897,7 +17199,7 @@
       <c r="H40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="4">
         <f t="shared" si="3"/>
         <v>3.8194444444444531E-2</v>
       </c>
@@ -12985,7 +17287,7 @@
       <c r="AK40" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AL40" s="5">
+      <c r="AL40" s="4">
         <f t="shared" si="1"/>
         <v>6.9444444444444198E-3</v>
       </c>
@@ -13001,7 +17303,7 @@
       <c r="AP40" s="3">
         <v>0.46527777777777773</v>
       </c>
-      <c r="AQ40" s="6">
+      <c r="AQ40" s="5">
         <f t="shared" si="2"/>
         <v>5.5555555555555358E-3</v>
       </c>
@@ -13115,7 +17417,7 @@
       <c r="H41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="4">
         <f t="shared" si="3"/>
         <v>2.083333333333337E-2</v>
       </c>
@@ -13203,7 +17505,7 @@
       <c r="AK41" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AL41" s="5">
+      <c r="AL41" s="4">
         <f t="shared" si="1"/>
         <v>2.0833333333333259E-3</v>
       </c>
@@ -13219,7 +17521,7 @@
       <c r="AP41" s="3">
         <v>0.45416666666666666</v>
       </c>
-      <c r="AQ41" s="6">
+      <c r="AQ41" s="5">
         <f t="shared" si="2"/>
         <v>5.5555555555555358E-3</v>
       </c>
@@ -13333,7 +17635,7 @@
       <c r="H42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="4">
         <f t="shared" si="3"/>
         <v>2.2916666666666641E-2</v>
       </c>
@@ -13417,7 +17719,7 @@
       </c>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
-      <c r="AL42" s="5">
+      <c r="AL42" s="4">
         <f t="shared" si="1"/>
         <v>3.4722222222222099E-3</v>
       </c>
@@ -13433,7 +17735,7 @@
       <c r="AP42" s="3">
         <v>0.45624999999999999</v>
       </c>
-      <c r="AQ42" s="6">
+      <c r="AQ42" s="5">
         <f t="shared" si="2"/>
         <v>5.5555555555555358E-3</v>
       </c>
@@ -13547,7 +17849,7 @@
       <c r="H43" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="4">
         <f t="shared" si="3"/>
         <v>2.1527777777777812E-2</v>
       </c>
@@ -13625,7 +17927,7 @@
         <v>57</v>
       </c>
       <c r="AK43" s="1"/>
-      <c r="AL43" s="5">
+      <c r="AL43" s="4">
         <f t="shared" si="1"/>
         <v>3.4722222222222099E-3</v>
       </c>
@@ -13641,7 +17943,7 @@
       <c r="AP43" s="3">
         <v>0.45555555555555555</v>
       </c>
-      <c r="AQ43" s="6">
+      <c r="AQ43" s="5">
         <f t="shared" si="2"/>
         <v>4.8611111111111494E-3</v>
       </c>
@@ -13755,7 +18057,7 @@
       <c r="H44" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44" s="4">
         <f t="shared" si="3"/>
         <v>2.2916666666666696E-2</v>
       </c>
@@ -13843,7 +18145,7 @@
       <c r="AK44" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AL44" s="5">
+      <c r="AL44" s="4">
         <f t="shared" si="1"/>
         <v>3.4722222222222099E-3</v>
       </c>
@@ -13859,7 +18161,7 @@
       <c r="AP44" s="3">
         <v>0.45694444444444443</v>
       </c>
-      <c r="AQ44" s="6">
+      <c r="AQ44" s="5">
         <f t="shared" si="2"/>
         <v>3.4722222222222099E-3</v>
       </c>
@@ -13957,7 +18259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087BB873-2F62-45CC-8334-B2879527653B}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
@@ -14087,20 +18389,20 @@
     <col min="5" max="5" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>242</v>
       </c>
     </row>
@@ -15074,13 +19376,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>243</v>
       </c>
     </row>
@@ -18099,4 +22401,621 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168FCA7C-DF0F-4DB4-A6C7-395CDDD91BBA}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2">
+        <f>COUNTIF(AllData!$AA$2:$AA$44,"*"&amp;C$1&amp;"*")/43*100</f>
+        <v>41.860465116279073</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(AllData!$AA$2:$AA$44,"*"&amp;D$1&amp;"*")/43*100</f>
+        <v>25.581395348837212</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF(AllData!$AA$2:$AA$44,"*"&amp;E$1&amp;"*")/43*100</f>
+        <v>6.9767441860465116</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIF(AllData!$AA$2:$AA$44,"")/43*100</f>
+        <v>6.9767441860465116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3">
+        <f>COUNTIF(AllData!$AJ$2:$AJ$44,"*"&amp;C$1&amp;"*")/43*100</f>
+        <v>41.860465116279073</v>
+      </c>
+      <c r="D3">
+        <f>COUNTIF(AllData!$AJ$2:$AJ$44,"*"&amp;D$1&amp;"*")/43*100</f>
+        <v>4.6511627906976747</v>
+      </c>
+      <c r="E3">
+        <f>COUNTIF(AllData!$AJ$2:$AJ$44,"*"&amp;E$1&amp;"*")/43*100</f>
+        <v>9.3023255813953494</v>
+      </c>
+      <c r="F3">
+        <f>COUNTIF(AllData!$AJ$2:$AJ$44,"")/43*100</f>
+        <v>16.279069767441861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4">
+        <f>COUNTIF(AllData!$AC$2:$AC$44,"*"&amp;C$1&amp;"*")/43*100</f>
+        <v>41.860465116279073</v>
+      </c>
+      <c r="D4">
+        <f>COUNTIF(AllData!$AC$2:$AC$44,"*"&amp;D$1&amp;"*")/43*100</f>
+        <v>16.279069767441861</v>
+      </c>
+      <c r="E4">
+        <f>COUNTIF(AllData!$AC$2:$AC$44,"*"&amp;E$1&amp;"*")/43*100</f>
+        <v>13.953488372093023</v>
+      </c>
+      <c r="F4">
+        <f>COUNTIF(AllData!$AC$2:$AC$44,"")/43*100</f>
+        <v>25.581395348837212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5">
+        <f>COUNTIF(AllData!$AH$2:$AH$44,"*"&amp;C$1&amp;"*")/43*100</f>
+        <v>20.930232558139537</v>
+      </c>
+      <c r="D5">
+        <f>COUNTIF(AllData!$AH$2:$AH$44,"*"&amp;D$1&amp;"*")/43*100</f>
+        <v>16.279069767441861</v>
+      </c>
+      <c r="E5">
+        <f>COUNTIF(AllData!$AH$2:$AH$44,"*"&amp;E$1&amp;"*")/43*100</f>
+        <v>9.3023255813953494</v>
+      </c>
+      <c r="F5">
+        <f>COUNTIF(AllData!$AH$2:$AH$44,"")/43*100</f>
+        <v>25.581395348837212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6">
+        <f>COUNTIF(AllData!$Z$2:$Z$44,"*"&amp;C$1&amp;"*")/43*100</f>
+        <v>62.790697674418603</v>
+      </c>
+      <c r="D6">
+        <f>COUNTIF(AllData!$Z$2:$Z$44,"*"&amp;D$1&amp;"*")/43*100</f>
+        <v>25.581395348837212</v>
+      </c>
+      <c r="E6">
+        <f>COUNTIF(AllData!$Z$2:$Z$44,"*"&amp;E$1&amp;"*")/43*100</f>
+        <v>6.9767441860465116</v>
+      </c>
+      <c r="F6">
+        <f>COUNTIF(AllData!$Z$2:$Z$44,"")/43*100</f>
+        <v>13.953488372093023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7">
+        <f>COUNTIF(AllData!$AK$2:$AK$44,"*"&amp;C$1&amp;"*")/43*100</f>
+        <v>39.534883720930232</v>
+      </c>
+      <c r="D7">
+        <f>COUNTIF(AllData!$AK$2:$AK$44,"*"&amp;D$1&amp;"*")/43*100</f>
+        <v>32.558139534883722</v>
+      </c>
+      <c r="E7">
+        <f>COUNTIF(AllData!$AK$2:$AK$44,"*"&amp;E$1&amp;"*")/43*100</f>
+        <v>20.930232558139537</v>
+      </c>
+      <c r="F7">
+        <f>COUNTIF(AllData!$AK$2:$AK$44,"")/43*100</f>
+        <v>16.279069767441861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8">
+        <f>COUNTIF(AllData!$AE$2:$AE$44,"*"&amp;C$1&amp;"*")/43*100</f>
+        <v>25.581395348837212</v>
+      </c>
+      <c r="D8">
+        <f>COUNTIF(AllData!$AE$2:$AE$44,"*"&amp;D$1&amp;"*")/43*100</f>
+        <v>39.534883720930232</v>
+      </c>
+      <c r="E8">
+        <f>COUNTIF(AllData!$AE$2:$AE$44,"*"&amp;E$1&amp;"*")/43*100</f>
+        <v>25.581395348837212</v>
+      </c>
+      <c r="F8">
+        <f>COUNTIF(AllData!$AE$2:$AE$44,"")/43*100</f>
+        <v>27.906976744186046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9">
+        <f>COUNTIF(AllData!$AF$2:$AF$44,"*"&amp;C$1&amp;"*")/43*100</f>
+        <v>34.883720930232556</v>
+      </c>
+      <c r="D9">
+        <f>COUNTIF(AllData!$AF$2:$AF$44,"*"&amp;D$1&amp;"*")/43*100</f>
+        <v>25.581395348837212</v>
+      </c>
+      <c r="E9">
+        <f>COUNTIF(AllData!$AF$2:$AF$44,"*"&amp;E$1&amp;"*")/43*100</f>
+        <v>9.3023255813953494</v>
+      </c>
+      <c r="F9">
+        <f>COUNTIF(AllData!$AF$2:$AF$44,"")/43*100</f>
+        <v>39.534883720930232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10">
+        <f>COUNTIF(AllData!$AB$2:$AB$44,"*"&amp;C$1&amp;"*")/43*100</f>
+        <v>37.209302325581397</v>
+      </c>
+      <c r="D10">
+        <f>COUNTIF(AllData!$AB$2:$AB$44,"*"&amp;D$1&amp;"*")/43*100</f>
+        <v>20.930232558139537</v>
+      </c>
+      <c r="E10">
+        <f>COUNTIF(AllData!$AB$2:$AB$44,"*"&amp;E$1&amp;"*")/43*100</f>
+        <v>4.6511627906976747</v>
+      </c>
+      <c r="F10">
+        <f>COUNTIF(AllData!$AB$2:$AB$44,"")/43*100</f>
+        <v>30.232558139534881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11">
+        <f>COUNTIF(AllData!$AI$2:$AI$44,"*"&amp;C$1&amp;"*")/43*100</f>
+        <v>27.906976744186046</v>
+      </c>
+      <c r="D11">
+        <f>COUNTIF(AllData!$AI$2:$AI$44,"*"&amp;D$1&amp;"*")/43*100</f>
+        <v>20.930232558139537</v>
+      </c>
+      <c r="E11">
+        <f>COUNTIF(AllData!$AI$2:$AI$44,"*"&amp;E$1&amp;"*")/43*100</f>
+        <v>6.9767441860465116</v>
+      </c>
+      <c r="F11">
+        <f>COUNTIF(AllData!$AI$2:$AI$44,"")/43*100</f>
+        <v>41.860465116279073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12">
+        <f>COUNTIF(AllData!$AD$2:$AD$44,"*"&amp;C$1&amp;"*")/43*100</f>
+        <v>34.883720930232556</v>
+      </c>
+      <c r="D12">
+        <f>COUNTIF(AllData!$AD$2:$AD$44,"*"&amp;D$1&amp;"*")/43*100</f>
+        <v>30.232558139534881</v>
+      </c>
+      <c r="E12">
+        <f>COUNTIF(AllData!$AD$2:$AD$44,"*"&amp;E$1&amp;"*")/43*100</f>
+        <v>13.953488372093023</v>
+      </c>
+      <c r="F12">
+        <f>COUNTIF(AllData!$AD$2:$AD$44,"")/43*100</f>
+        <v>27.906976744186046</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13">
+        <f>COUNTIF(AllData!$AG$2:$AG$44,"*"&amp;C$1&amp;"*")/43*100</f>
+        <v>27.906976744186046</v>
+      </c>
+      <c r="D13">
+        <f>COUNTIF(AllData!$AG$2:$AG$44,"*"&amp;D$1&amp;"*")/43*100</f>
+        <v>30.232558139534881</v>
+      </c>
+      <c r="E13">
+        <f>COUNTIF(AllData!$AG$2:$AG$44,"*"&amp;E$1&amp;"*")/43*100</f>
+        <v>27.906976744186046</v>
+      </c>
+      <c r="F13">
+        <f>COUNTIF(AllData!$AG$2:$AG$44,"")/43*100</f>
+        <v>25.581395348837212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f>A2</f>
+        <v>Free</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" ref="B23:F23" si="0">B2</f>
+        <v>Req1</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>41.860465116279073</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>25.581395348837212</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>6.9767441860465116</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>6.9767441860465116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f>A23</f>
+        <v>Free</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" ref="A24:F24" si="1">B3</f>
+        <v>Req2</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>41.860465116279073</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>4.6511627906976747</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>9.3023255813953494</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>16.279069767441861</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f t="shared" ref="A25:A26" si="2">A24</f>
+        <v>Free</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" ref="A25:F25" si="3">B4</f>
+        <v>Req3</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="3"/>
+        <v>41.860465116279073</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>16.279069767441861</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>13.953488372093023</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>25.581395348837212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f t="shared" si="2"/>
+        <v>Free</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" ref="A26:F26" si="4">B5</f>
+        <v>Req4</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>20.930232558139537</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="4"/>
+        <v>16.279069767441861</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="4"/>
+        <v>9.3023255813953494</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>25.581395348837212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f t="shared" ref="A27:F27" si="5">A6</f>
+        <v>EARS</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="5"/>
+        <v>Req1</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="5"/>
+        <v>62.790697674418603</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="5"/>
+        <v>25.581395348837212</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="5"/>
+        <v>6.9767441860465116</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="5"/>
+        <v>13.953488372093023</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f>A27</f>
+        <v>EARS</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" ref="A28:F28" si="6">B7</f>
+        <v>Req2</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="6"/>
+        <v>39.534883720930232</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="6"/>
+        <v>32.558139534883722</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="6"/>
+        <v>20.930232558139537</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="6"/>
+        <v>16.279069767441861</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f t="shared" ref="A29:A30" si="7">A28</f>
+        <v>EARS</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" ref="A29:F29" si="8">B8</f>
+        <v>Req3</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="8"/>
+        <v>25.581395348837212</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="8"/>
+        <v>39.534883720930232</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="8"/>
+        <v>25.581395348837212</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="8"/>
+        <v>27.906976744186046</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f t="shared" si="7"/>
+        <v>EARS</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" ref="A30:F30" si="9">B9</f>
+        <v>Req4</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="9"/>
+        <v>34.883720930232556</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="9"/>
+        <v>25.581395348837212</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="9"/>
+        <v>9.3023255813953494</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="9"/>
+        <v>39.534883720930232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f t="shared" ref="A31:F31" si="10">A10</f>
+        <v>MASTER</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="10"/>
+        <v>Req1</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="10"/>
+        <v>37.209302325581397</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="10"/>
+        <v>20.930232558139537</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="10"/>
+        <v>4.6511627906976747</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="10"/>
+        <v>30.232558139534881</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f>A31</f>
+        <v>MASTER</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" ref="A32:F32" si="11">B11</f>
+        <v>Req2</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="11"/>
+        <v>27.906976744186046</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="11"/>
+        <v>20.930232558139537</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="11"/>
+        <v>6.9767441860465116</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="11"/>
+        <v>41.860465116279073</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <f t="shared" ref="A33:A34" si="12">A32</f>
+        <v>MASTER</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" ref="A33:F33" si="13">B12</f>
+        <v>Req3</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="13"/>
+        <v>34.883720930232556</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="13"/>
+        <v>30.232558139534881</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="13"/>
+        <v>13.953488372093023</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="13"/>
+        <v>27.906976744186046</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <f t="shared" si="12"/>
+        <v>MASTER</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" ref="A34:F34" si="14">B13</f>
+        <v>Req4</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="14"/>
+        <v>27.906976744186046</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="14"/>
+        <v>30.232558139534881</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="14"/>
+        <v>27.906976744186046</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="14"/>
+        <v>25.581395348837212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/UserTestEval/Data/Rawdata.xlsx
+++ b/UserTestEval/Data/Rawdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katha\Documents\uni\Evaluation-of-templates-for-requirements-documentation\UserTestEval\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9647B595-3A8A-4BFF-B22B-BB4DB4BEF349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5287A3E-2021-4A12-90CB-FA0F9C7BD33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="3975" windowWidth="25440" windowHeight="15270" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllData" sheetId="2" r:id="rId1"/>
@@ -26,88 +26,53 @@
     <definedName name="_xlchart.v1.10" hidden="1">Ranking!$C$2:$C$216</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">Ranking!$D$1</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">Ranking!$D$2:$D$216</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Ranking!$A$2:$A$216</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Ranking!$A$2:$A$211</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">Ranking!$B$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Ranking!$B$2:$B$216</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Ranking!$B$2:$B$211</definedName>
     <definedName name="_xlchart.v1.16" hidden="1">Ranking!$C$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Ranking!$C$2:$C$216</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Ranking!$C$2:$C$211</definedName>
     <definedName name="_xlchart.v1.18" hidden="1">Ranking!$D$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Ranking!$D$2:$D$216</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Ranking!$D$2:$D$211</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Ranking!$C$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Ranking!$A$2:$A$216</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Ranking!$B$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Ranking!$B$2:$B$216</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Ranking!$C$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Ranking!$C$2:$C$216</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Ranking!$D$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Ranking!$D$2:$D$216</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Ranking!$A$2:$A$211</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Ranking!$A$2:$A$216</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Ranking!$B$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Time!$A$2:$A$43</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Time!$B$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Time!$B$2:$B$43</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Time!$C$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Time!$C$2:$C$43</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Time!$A$2:$A$44</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Time!$B$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Time!$B$2:$B$44</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Time!$C$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Time!$C$2:$C$44</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Ranking!$C$2:$C$216</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Ranking!$B$2:$B$211</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Ranking!$B$2:$B$216</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Ranking!$C$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Ranking!$C$2:$C$211</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Ranking!$C$2:$C$216</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Ranking!$D$1</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Ranking!$D$2:$D$211</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Ranking!$D$2:$D$216</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Ranking!$A$2:$A$216</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Ranking!$B$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Time!$D$3:$D$43</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Time!$E$3:$E$43</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Time!$F$2:$F$43</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Time!$G$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Time!$G$2:$G$43</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">QualityReview!$A$2:$B$13</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">QualityReview!$C$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">QualityReview!$C$2:$C$13</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">QualityReview!$D$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">QualityReview!$D$2:$D$13</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Ranking!$D$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Ranking!$B$2:$B$216</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Ranking!$C$1</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Ranking!$C$2:$C$216</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Ranking!$D$1</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Ranking!$D$2:$D$216</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Ranking!$A$2:$A$216</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Ranking!$B$1</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Ranking!$B$2:$B$216</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Ranking!$C$1</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Ranking!$C$2:$C$216</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">QualityReview!$E$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">QualityReview!$E$2:$E$13</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">QualityReview!$F$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">QualityReview!$F$2:$F$13</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">QualityReview!$A$23:$A$34</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">QualityReview!$C$22</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">QualityReview!$C$23:$C$34</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">QualityReview!$D$22</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">QualityReview!$D$23:$D$34</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">QualityReview!$E$22</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Ranking!$D$2:$D$216</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Ranking!$D$1</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Ranking!$D$2:$D$216</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Time!$D$3:$D$43</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Time!$E$3:$E$43</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Time!$F$2:$F$43</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Time!$G$1</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Time!$G$2:$G$43</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Time!$A$2:$A$43</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Time!$B$1</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Time!$B$2:$B$43</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">QualityReview!$E$23:$E$34</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">QualityReview!$F$22</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">QualityReview!$F$23:$F$34</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Ranking!$A$2:$A$216</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Time!$C$1</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Time!$C$2:$C$43</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Time!$A$2:$A$44</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Time!$B$1</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Time!$B$2:$B$44</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">Time!$C$1</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">Time!$C$2:$C$44</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">Time!$F$2:$F$43</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">Time!$G$1</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">Time!$G$2:$G$43</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Ranking!$B$1</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">QualityReview!$A$2:$B$13</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">QualityReview!$C$1</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">QualityReview!$C$2:$C$13</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">QualityReview!$D$1</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">QualityReview!$D$2:$D$13</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">QualityReview!$E$1</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">QualityReview!$E$2:$E$13</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">QualityReview!$F$1</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">QualityReview!$F$2:$F$13</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">QualityReview!$A$23:$A$34</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Ranking!$B$2:$B$216</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">QualityReview!$C$22</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">QualityReview!$C$23:$C$34</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">QualityReview!$D$22</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">QualityReview!$D$23:$D$34</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">QualityReview!$E$22</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">QualityReview!$E$23:$E$34</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">QualityReview!$F$22</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">QualityReview!$F$23:$F$34</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">Ranking!$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -2849,26 +2814,26 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.38</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.40</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.38</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.42</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.38</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.44</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2885,7 +2850,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9F5367F5-9D47-46AD-B596-0EFA7A478491}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.39</cx:f>
+              <cx:f>_xlchart.v1.7</cx:f>
               <cx:v>free</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2898,7 +2863,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5A5F7C4B-719B-40B2-B332-D53E44E122AB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.41</cx:f>
+              <cx:f>_xlchart.v1.9</cx:f>
               <cx:v>EARS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2911,7 +2876,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{55F26920-8301-4343-A252-521020BA38E7}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.43</cx:f>
+              <cx:f>_xlchart.v1.11</cx:f>
               <cx:v>MASTER</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3129,26 +3094,26 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.30</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.33</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.36</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3165,7 +3130,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CB637DB2-7F16-46BD-BECF-B186D777151E}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.29</cx:f>
+              <cx:f>_xlchart.v1.14</cx:f>
               <cx:v>free</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3178,7 +3143,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C908A5A9-6C1E-4C60-B384-5224CE0FDF11}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.32</cx:f>
+              <cx:f>_xlchart.v1.16</cx:f>
               <cx:v>EARS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3191,7 +3156,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B19EAA18-68A6-4A27-8698-E85CD5441D2F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.35</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>MASTER</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3409,18 +3374,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.62</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.64</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.62</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.66</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3430,7 +3395,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A7955AD6-7364-416F-A82A-58A1F76E455D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.63</cx:f>
+              <cx:f>_xlchart.v1.26</cx:f>
               <cx:v>EARS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3455,7 +3420,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6C77626C-2690-4B4A-A861-13008AE16954}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.65</cx:f>
+              <cx:f>_xlchart.v1.28</cx:f>
               <cx:v>MASTER</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3503,18 +3468,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.57</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.59</cx:f>
+        <cx:f>_xlchart.v1.22</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.57</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.61</cx:f>
+        <cx:f>_xlchart.v1.24</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3524,7 +3489,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F8EE3ECA-F2A0-4D89-B44B-860DB1DF4BFB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.58</cx:f>
+              <cx:f>_xlchart.v1.21</cx:f>
               <cx:v>EARS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3549,7 +3514,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5FE71DA6-CBA9-45DB-9983-296628AFA7E5}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.60</cx:f>
+              <cx:f>_xlchart.v1.23</cx:f>
               <cx:v>MASTER</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3597,10 +3562,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.54</cx:f>
+        <cx:f>_xlchart.v1.32</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.56</cx:f>
+        <cx:f>_xlchart.v1.34</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3617,7 +3582,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4F766D4F-6C7B-48A5-BD5A-CAC0903FDF09}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.55</cx:f>
+              <cx:f>_xlchart.v1.33</cx:f>
               <cx:v>Total</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3653,10 +3618,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.52</cx:f>
+        <cx:f>_xlchart.v1.30</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.53</cx:f>
+        <cx:f>_xlchart.v1.31</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3696,34 +3661,34 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.70</cx:f>
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.72</cx:f>
+        <cx:f>_xlchart.v1.37</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.70</cx:f>
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.74</cx:f>
+        <cx:f>_xlchart.v1.39</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.70</cx:f>
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.76</cx:f>
+        <cx:f>_xlchart.v1.41</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.70</cx:f>
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.78</cx:f>
+        <cx:f>_xlchart.v1.43</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3733,7 +3698,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{77F25C24-85DD-4A54-A7D1-D94F6F8E168F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.71</cx:f>
+              <cx:f>_xlchart.v1.36</cx:f>
               <cx:v>vague</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3746,7 +3711,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{14EEBEFD-7F9A-4E97-87C1-E8349BC99461}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.73</cx:f>
+              <cx:f>_xlchart.v1.38</cx:f>
               <cx:v>incomplete</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3759,7 +3724,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E056748F-24A3-4E02-8A68-8AAC77CCAFCB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.75</cx:f>
+              <cx:f>_xlchart.v1.40</cx:f>
               <cx:v>incorrect</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3772,7 +3737,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{672FCDD8-5A6D-4A50-BC3E-796BD53E6BB0}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.77</cx:f>
+              <cx:f>_xlchart.v1.42</cx:f>
               <cx:v>none</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3859,34 +3824,34 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.79</cx:f>
+        <cx:f>_xlchart.v1.44</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.81</cx:f>
+        <cx:f>_xlchart.v1.46</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.79</cx:f>
+        <cx:f>_xlchart.v1.44</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.83</cx:f>
+        <cx:f>_xlchart.v1.48</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.79</cx:f>
+        <cx:f>_xlchart.v1.44</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.85</cx:f>
+        <cx:f>_xlchart.v1.50</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.79</cx:f>
+        <cx:f>_xlchart.v1.44</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.87</cx:f>
+        <cx:f>_xlchart.v1.52</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3896,7 +3861,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{027BD639-9B66-4C1E-AA91-895916F501ED}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.80</cx:f>
+              <cx:f>_xlchart.v1.45</cx:f>
               <cx:v>vague</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3909,7 +3874,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{72CB3FFF-E10B-447F-9F63-53AD6057415C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.82</cx:f>
+              <cx:f>_xlchart.v1.47</cx:f>
               <cx:v>incomplete</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3922,7 +3887,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{53BA64B2-98E1-43B8-8AF0-164E805B40AA}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.84</cx:f>
+              <cx:f>_xlchart.v1.49</cx:f>
               <cx:v>incorrect</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3935,7 +3900,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{AFDE7047-C063-4660-AE6C-95B79B0FA1CB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.86</cx:f>
+              <cx:f>_xlchart.v1.51</cx:f>
               <cx:v>none</cx:v>
             </cx:txData>
           </cx:tx>
@@ -11359,7 +11324,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="3752850" y="161925"/>
-              <a:ext cx="4572000" cy="2600325"/>
+              <a:ext cx="4572000" cy="2595563"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11436,7 +11401,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3838574" y="3009900"/>
+              <a:off x="3838574" y="3005138"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -11514,7 +11479,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8505825" y="3057525"/>
+              <a:off x="8505825" y="3052763"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -11597,7 +11562,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5000625" y="457200"/>
+              <a:off x="6677025" y="452438"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -11675,7 +11640,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5038725" y="3695700"/>
+              <a:off x="6715125" y="3690938"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -11753,7 +11718,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5895975" y="6905625"/>
+              <a:off x="6734175" y="6900863"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -11831,7 +11796,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1828800" y="7724775"/>
+              <a:off x="1828800" y="7720013"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -12030,8 +11995,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6715124" y="6515100"/>
-              <a:ext cx="4562476" cy="2590800"/>
+              <a:off x="6710362" y="6515100"/>
+              <a:ext cx="4567238" cy="2590800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13085,9 +13050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BS44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -13316,7 +13279,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:71" ht="319.14999999999998" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:71" ht="306.39999999999998" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>174</v>
       </c>
@@ -13528,7 +13491,7 @@
         <v>0.45277777777777778</v>
       </c>
     </row>
-    <row r="3" spans="1:71" ht="293.64999999999998" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:71" ht="280.89999999999998" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>171</v>
       </c>
@@ -14180,7 +14143,7 @@
         <v>0.44722222222222219</v>
       </c>
     </row>
-    <row r="6" spans="1:71" ht="357.4" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:71" ht="344.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>174</v>
       </c>
@@ -14384,7 +14347,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="7" spans="1:71" ht="382.9" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:71" ht="370.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>174</v>
       </c>
@@ -14594,7 +14557,7 @@
         <v>0.45208333333333334</v>
       </c>
     </row>
-    <row r="8" spans="1:71" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:71" ht="408.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>174</v>
       </c>
@@ -15658,7 +15621,7 @@
         <v>0.45555555555555555</v>
       </c>
     </row>
-    <row r="13" spans="1:71" ht="370.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:71" ht="357.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>174</v>
       </c>
@@ -16500,7 +16463,7 @@
         <v>0.55902777777777779</v>
       </c>
     </row>
-    <row r="17" spans="1:71" ht="395.65" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:71" ht="382.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>171</v>
       </c>
@@ -17352,7 +17315,7 @@
         <v>0.4548611111111111</v>
       </c>
     </row>
-    <row r="21" spans="1:71" ht="370.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:71" ht="357.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>174</v>
       </c>
@@ -17776,7 +17739,7 @@
         <v>0.45277777777777778</v>
       </c>
     </row>
-    <row r="23" spans="1:71" ht="344.65" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:71" ht="331.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>174</v>
       </c>
@@ -19036,7 +18999,7 @@
         <v>0.45277777777777778</v>
       </c>
     </row>
-    <row r="29" spans="1:71" ht="370.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:71" ht="357.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>174</v>
       </c>
@@ -21154,7 +21117,7 @@
         <v>0.55138888888888882</v>
       </c>
     </row>
-    <row r="39" spans="1:71" ht="217.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:71" ht="204.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>174</v>
       </c>
@@ -21358,7 +21321,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="40" spans="1:71" ht="344.65" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:71" ht="331.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>174</v>
       </c>
@@ -21576,7 +21539,7 @@
         <v>0.47222222222222227</v>
       </c>
     </row>
-    <row r="41" spans="1:71" ht="370.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:71" ht="357.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>174</v>
       </c>
@@ -22216,7 +22179,7 @@
         <v>0.45694444444444443</v>
       </c>
     </row>
-    <row r="44" spans="1:71" ht="191.65" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:71" ht="178.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>174</v>
       </c>
@@ -27457,7 +27420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC39F50-491B-4545-9F82-98E8A6306DE7}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
@@ -27500,7 +27463,7 @@
         <v>6.9444444444444753E-3</v>
       </c>
       <c r="D2" s="8" t="str">
-        <f>A2</f>
+        <f t="shared" ref="D2:D44" si="0">A2</f>
         <v>Student</v>
       </c>
       <c r="E2" s="8">
@@ -27508,7 +27471,7 @@
         <v>-0.18541666666666662</v>
       </c>
       <c r="F2" s="8" t="str">
-        <f>A2</f>
+        <f t="shared" ref="F2:F44" si="1">A2</f>
         <v>Student</v>
       </c>
       <c r="G2" s="8">
@@ -27530,7 +27493,7 @@
         <v>2.7777777777777679E-3</v>
       </c>
       <c r="D3" s="8" t="str">
-        <f>A3</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E3" s="8">
@@ -27538,7 +27501,7 @@
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="F3" s="8" t="str">
-        <f>A3</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G3" s="8">
@@ -27560,7 +27523,7 @@
         <v>2.0833333333333814E-3</v>
       </c>
       <c r="D4" s="8" t="str">
-        <f>A4</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E4" s="8">
@@ -27568,7 +27531,7 @@
         <v>5.5555555555555358E-3</v>
       </c>
       <c r="F4" s="8" t="str">
-        <f>A4</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G4" s="8">
@@ -27590,7 +27553,7 @@
         <v>3.4722222222222099E-3</v>
       </c>
       <c r="D5" s="8" t="str">
-        <f>A5</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E5" s="8">
@@ -27598,7 +27561,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F5" s="8" t="str">
-        <f>A5</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G5" s="8">
@@ -27620,7 +27583,7 @@
         <v>8.3333333333334147E-3</v>
       </c>
       <c r="D6" s="8" t="str">
-        <f>A6</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E6" s="8">
@@ -27628,7 +27591,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F6" s="8" t="str">
-        <f>A6</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G6" s="8">
@@ -27650,7 +27613,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="D7" s="8" t="str">
-        <f>A7</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E7" s="8">
@@ -27658,7 +27621,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F7" s="8" t="str">
-        <f>A7</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G7" s="8">
@@ -27680,7 +27643,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="D8" s="8" t="str">
-        <f>A8</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E8" s="8">
@@ -27688,7 +27651,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F8" s="8" t="str">
-        <f>A8</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G8" s="8">
@@ -27710,7 +27673,7 @@
         <v>2.0833333333333814E-3</v>
       </c>
       <c r="D9" s="8" t="str">
-        <f>A9</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E9" s="8">
@@ -27718,7 +27681,7 @@
         <v>6.9444444444445308E-3</v>
       </c>
       <c r="F9" s="8" t="str">
-        <f>A9</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G9" s="8">
@@ -27740,7 +27703,7 @@
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="D10" s="8" t="str">
-        <f>A10</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E10" s="8">
@@ -27748,7 +27711,7 @@
         <v>8.3333333333333037E-3</v>
       </c>
       <c r="F10" s="8" t="str">
-        <f>A10</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G10" s="8">
@@ -27770,7 +27733,7 @@
         <v>4.8611111111110938E-3</v>
       </c>
       <c r="D11" s="8" t="str">
-        <f>A11</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E11" s="8">
@@ -27778,7 +27741,7 @@
         <v>8.3333333333333037E-3</v>
       </c>
       <c r="F11" s="8" t="str">
-        <f>A11</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G11" s="8">
@@ -27800,7 +27763,7 @@
         <v>3.4722222222222099E-3</v>
       </c>
       <c r="D12" s="8" t="str">
-        <f>A12</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E12" s="8">
@@ -27808,7 +27771,7 @@
         <v>9.0277777777777457E-3</v>
       </c>
       <c r="F12" s="8" t="str">
-        <f>A12</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G12" s="8">
@@ -27830,7 +27793,7 @@
         <v>2.7777777777777679E-3</v>
       </c>
       <c r="D13" s="8" t="str">
-        <f>A13</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E13" s="8">
@@ -27838,7 +27801,7 @@
         <v>9.0277777777778012E-3</v>
       </c>
       <c r="F13" s="8" t="str">
-        <f>A13</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G13" s="8">
@@ -27860,7 +27823,7 @@
         <v>3.4722222222222099E-3</v>
       </c>
       <c r="D14" s="8" t="str">
-        <f>A14</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E14" s="8">
@@ -27868,7 +27831,7 @@
         <v>9.0277777777778012E-3</v>
       </c>
       <c r="F14" s="8" t="str">
-        <f>A14</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G14" s="8">
@@ -27890,7 +27853,7 @@
         <v>5.5555555555555358E-3</v>
       </c>
       <c r="D15" s="8" t="str">
-        <f>A15</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E15" s="8">
@@ -27898,7 +27861,7 @@
         <v>9.0277777777778012E-3</v>
       </c>
       <c r="F15" s="8" t="str">
-        <f>A15</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G15" s="8">
@@ -27920,7 +27883,7 @@
         <v>4.1666666666666519E-3</v>
       </c>
       <c r="D16" s="8" t="str">
-        <f>A16</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E16" s="8">
@@ -27928,7 +27891,7 @@
         <v>9.7222222222221877E-3</v>
       </c>
       <c r="F16" s="8" t="str">
-        <f>A16</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G16" s="8">
@@ -27950,7 +27913,7 @@
         <v>2.7777777777777679E-3</v>
       </c>
       <c r="D17" s="8" t="str">
-        <f>A17</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E17" s="8">
@@ -27958,7 +27921,7 @@
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="F17" s="8" t="str">
-        <f>A17</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G17" s="8">
@@ -27980,7 +27943,7 @@
         <v>4.8611111111112049E-3</v>
       </c>
       <c r="D18" s="8" t="str">
-        <f>A18</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E18" s="8">
@@ -27988,7 +27951,7 @@
         <v>1.1111111111111072E-2</v>
       </c>
       <c r="F18" s="8" t="str">
-        <f>A18</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G18" s="8">
@@ -28010,7 +27973,7 @@
         <v>8.3333333333334147E-3</v>
       </c>
       <c r="D19" s="8" t="str">
-        <f>A19</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E19" s="8">
@@ -28018,7 +27981,7 @@
         <v>1.1805555555555514E-2</v>
       </c>
       <c r="F19" s="8" t="str">
-        <f>A19</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G19" s="8">
@@ -28040,7 +28003,7 @@
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="D20" s="8" t="str">
-        <f>A20</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E20" s="8">
@@ -28048,7 +28011,7 @@
         <v>1.1805555555555569E-2</v>
       </c>
       <c r="F20" s="8" t="str">
-        <f>A20</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G20" s="8">
@@ -28070,7 +28033,7 @@
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="D21" s="8" t="str">
-        <f>A21</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E21" s="8">
@@ -28078,7 +28041,7 @@
         <v>1.2500000000000067E-2</v>
       </c>
       <c r="F21" s="8" t="str">
-        <f>A21</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G21" s="8">
@@ -28100,7 +28063,7 @@
         <v>4.8611111111111494E-3</v>
       </c>
       <c r="D22" s="8" t="str">
-        <f>A22</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E22" s="8">
@@ -28108,7 +28071,7 @@
         <v>1.2500000000000067E-2</v>
       </c>
       <c r="F22" s="8" t="str">
-        <f>A22</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G22" s="8">
@@ -28130,7 +28093,7 @@
         <v>5.5555555555556468E-3</v>
       </c>
       <c r="D23" s="8" t="str">
-        <f>A23</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E23" s="8">
@@ -28138,7 +28101,7 @@
         <v>1.388888888888884E-2</v>
       </c>
       <c r="F23" s="8" t="str">
-        <f>A23</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G23" s="8">
@@ -28160,7 +28123,7 @@
         <v>5.5555555555555358E-3</v>
       </c>
       <c r="D24" s="8" t="str">
-        <f>A24</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E24" s="8">
@@ -28168,7 +28131,7 @@
         <v>1.3888888888888951E-2</v>
       </c>
       <c r="F24" s="8" t="str">
-        <f>A24</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G24" s="8">
@@ -28190,7 +28153,7 @@
         <v>5.5555555555555358E-3</v>
       </c>
       <c r="D25" s="8" t="str">
-        <f>A25</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E25" s="8">
@@ -28198,7 +28161,7 @@
         <v>1.3888888888888951E-2</v>
       </c>
       <c r="F25" s="8" t="str">
-        <f>A25</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G25" s="8">
@@ -28220,7 +28183,7 @@
         <v>4.8611111111110383E-3</v>
       </c>
       <c r="D26" s="8" t="str">
-        <f>A26</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E26" s="8">
@@ -28228,7 +28191,7 @@
         <v>1.4583333333333337E-2</v>
       </c>
       <c r="F26" s="8" t="str">
-        <f>A26</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G26" s="8">
@@ -28250,7 +28213,7 @@
         <v>6.2500000000000333E-3</v>
       </c>
       <c r="D27" s="8" t="str">
-        <f>A27</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E27" s="8">
@@ -28258,7 +28221,7 @@
         <v>1.4583333333333337E-2</v>
       </c>
       <c r="F27" s="8" t="str">
-        <f>A27</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G27" s="8">
@@ -28280,7 +28243,7 @@
         <v>2.7777777777778234E-3</v>
       </c>
       <c r="D28" s="8" t="str">
-        <f>A28</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E28" s="8">
@@ -28288,7 +28251,7 @@
         <v>1.4583333333333337E-2</v>
       </c>
       <c r="F28" s="8" t="str">
-        <f>A28</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G28" s="8">
@@ -28310,7 +28273,7 @@
         <v>6.9444444444444753E-3</v>
       </c>
       <c r="D29" s="8" t="str">
-        <f>A29</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E29" s="8">
@@ -28318,7 +28281,7 @@
         <v>1.5277777777777779E-2</v>
       </c>
       <c r="F29" s="8" t="str">
-        <f>A29</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G29" s="8">
@@ -28340,7 +28303,7 @@
         <v>4.8611111111111494E-3</v>
       </c>
       <c r="D30" s="8" t="str">
-        <f>A30</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E30" s="8">
@@ -28348,7 +28311,7 @@
         <v>1.5277777777777779E-2</v>
       </c>
       <c r="F30" s="8" t="str">
-        <f>A30</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G30" s="8">
@@ -28370,7 +28333,7 @@
         <v>4.8611111111111494E-3</v>
       </c>
       <c r="D31" s="8" t="str">
-        <f>A31</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E31" s="8">
@@ -28378,7 +28341,7 @@
         <v>1.5277777777777779E-2</v>
       </c>
       <c r="F31" s="8" t="str">
-        <f>A31</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G31" s="8">
@@ -28400,7 +28363,7 @@
         <v>3.4722222222222099E-3</v>
       </c>
       <c r="D32" s="8" t="str">
-        <f>A32</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E32" s="8">
@@ -28408,7 +28371,7 @@
         <v>1.5972222222222221E-2</v>
       </c>
       <c r="F32" s="8" t="str">
-        <f>A32</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G32" s="8">
@@ -28430,7 +28393,7 @@
         <v>6.2499999999999778E-3</v>
       </c>
       <c r="D33" s="8" t="str">
-        <f>A33</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E33" s="8">
@@ -28438,7 +28401,7 @@
         <v>1.5972222222222276E-2</v>
       </c>
       <c r="F33" s="8" t="str">
-        <f>A33</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G33" s="8">
@@ -28460,7 +28423,7 @@
         <v>5.5555555555555358E-3</v>
       </c>
       <c r="D34" s="8" t="str">
-        <f>A34</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E34" s="8">
@@ -28468,7 +28431,7 @@
         <v>1.6666666666666718E-2</v>
       </c>
       <c r="F34" s="8" t="str">
-        <f>A34</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G34" s="8">
@@ -28490,7 +28453,7 @@
         <v>4.8611111111111494E-3</v>
       </c>
       <c r="D35" s="8" t="str">
-        <f>A35</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E35" s="8">
@@ -28498,7 +28461,7 @@
         <v>1.6666666666666718E-2</v>
       </c>
       <c r="F35" s="8" t="str">
-        <f>A35</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G35" s="8">
@@ -28520,7 +28483,7 @@
         <v>5.5555555555555358E-3</v>
       </c>
       <c r="D36" s="8" t="str">
-        <f>A36</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E36" s="8">
@@ -28528,7 +28491,7 @@
         <v>1.8055555555555547E-2</v>
       </c>
       <c r="F36" s="8" t="str">
-        <f>A36</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G36" s="8">
@@ -28550,7 +28513,7 @@
         <v>4.8611111111110938E-3</v>
       </c>
       <c r="D37" s="8" t="str">
-        <f>A37</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E37" s="8">
@@ -28558,7 +28521,7 @@
         <v>1.9444444444444486E-2</v>
       </c>
       <c r="F37" s="8" t="str">
-        <f>A37</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G37" s="8">
@@ -28580,7 +28543,7 @@
         <v>8.3333333333333037E-3</v>
       </c>
       <c r="D38" s="8" t="str">
-        <f>A38</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E38" s="8">
@@ -28588,7 +28551,7 @@
         <v>2.2916666666666696E-2</v>
       </c>
       <c r="F38" s="8" t="str">
-        <f>A38</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G38" s="8">
@@ -28610,7 +28573,7 @@
         <v>5.5555555555555358E-3</v>
       </c>
       <c r="D39" s="8" t="str">
-        <f>A39</f>
+        <f t="shared" si="0"/>
         <v>Student</v>
       </c>
       <c r="E39" s="8">
@@ -28618,7 +28581,7 @@
         <v>2.430555555555558E-2</v>
       </c>
       <c r="F39" s="8" t="str">
-        <f>A39</f>
+        <f t="shared" si="1"/>
         <v>Student</v>
       </c>
       <c r="G39" s="8">
@@ -28640,7 +28603,7 @@
         <v>3.4722222222222099E-3</v>
       </c>
       <c r="D40" s="8" t="str">
-        <f>A40</f>
+        <f t="shared" si="0"/>
         <v>Industry Professional</v>
       </c>
       <c r="E40" s="8">
@@ -28648,7 +28611,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F40" s="8" t="str">
-        <f>A40</f>
+        <f t="shared" si="1"/>
         <v>Industry Professional</v>
       </c>
       <c r="G40" s="8">
@@ -28670,7 +28633,7 @@
         <v>1.1111111111111072E-2</v>
       </c>
       <c r="D41" s="8" t="str">
-        <f>A41</f>
+        <f t="shared" si="0"/>
         <v>Industry Professional</v>
       </c>
       <c r="E41" s="8">
@@ -28678,7 +28641,7 @@
         <v>9.0277777777777457E-3</v>
       </c>
       <c r="F41" s="8" t="str">
-        <f>A41</f>
+        <f t="shared" si="1"/>
         <v>Industry Professional</v>
       </c>
       <c r="G41" s="8">
@@ -28700,7 +28663,7 @@
         <v>5.5555555555555358E-3</v>
       </c>
       <c r="D42" s="8" t="str">
-        <f>A42</f>
+        <f t="shared" si="0"/>
         <v>Industry Professional</v>
       </c>
       <c r="E42" s="8">
@@ -28708,7 +28671,7 @@
         <v>1.1111111111111072E-2</v>
       </c>
       <c r="F42" s="8" t="str">
-        <f>A42</f>
+        <f t="shared" si="1"/>
         <v>Industry Professional</v>
       </c>
       <c r="G42" s="8">
@@ -28730,7 +28693,7 @@
         <v>7.6388888888889173E-3</v>
       </c>
       <c r="D43" s="8" t="str">
-        <f>A43</f>
+        <f t="shared" si="0"/>
         <v>Industry Professional</v>
       </c>
       <c r="E43" s="8">
@@ -28738,7 +28701,7 @@
         <v>1.8749999999999933E-2</v>
       </c>
       <c r="F43" s="8" t="str">
-        <f>A43</f>
+        <f t="shared" si="1"/>
         <v>Industry Professional</v>
       </c>
       <c r="G43" s="8">
@@ -28760,7 +28723,7 @@
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="D44" s="8" t="str">
-        <f>A44</f>
+        <f t="shared" si="0"/>
         <v>Researcher</v>
       </c>
       <c r="E44" s="8">
@@ -28768,7 +28731,7 @@
         <v>2.2916666666666585E-2</v>
       </c>
       <c r="F44" s="8" t="str">
-        <f>A44</f>
+        <f t="shared" si="1"/>
         <v>Researcher</v>
       </c>
       <c r="G44" s="8">
@@ -28790,8 +28753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168FCA7C-DF0F-4DB4-A6C7-395CDDD91BBA}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>

--- a/UserTestEval/Data/Rawdata.xlsx
+++ b/UserTestEval/Data/Rawdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katha\Documents\uni\Evaluation-of-templates-for-requirements-documentation\UserTestEval\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5287A3E-2021-4A12-90CB-FA0F9C7BD33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B52D7A9-ABAA-4028-9BF4-A2475628E222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40920" yWindow="3975" windowWidth="25440" windowHeight="15270" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllData" sheetId="2" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="QualityReview" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Ranking!$B$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Ranking!$B$2:$B$216</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Ranking!$A$2:$A$216</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Ranking!$B$1</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">Ranking!$C$2:$C$216</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">Ranking!$D$1</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">Ranking!$D$2:$D$216</definedName>
@@ -33,7 +33,7 @@
     <definedName name="_xlchart.v1.17" hidden="1">Ranking!$C$2:$C$211</definedName>
     <definedName name="_xlchart.v1.18" hidden="1">Ranking!$D$1</definedName>
     <definedName name="_xlchart.v1.19" hidden="1">Ranking!$D$2:$D$211</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Ranking!$C$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Ranking!$B$2:$B$216</definedName>
     <definedName name="_xlchart.v1.20" hidden="1">Time!$A$2:$A$43</definedName>
     <definedName name="_xlchart.v1.21" hidden="1">Time!$B$1</definedName>
     <definedName name="_xlchart.v1.22" hidden="1">Time!$B$2:$B$43</definedName>
@@ -44,34 +44,54 @@
     <definedName name="_xlchart.v1.27" hidden="1">Time!$B$2:$B$44</definedName>
     <definedName name="_xlchart.v1.28" hidden="1">Time!$C$1</definedName>
     <definedName name="_xlchart.v1.29" hidden="1">Time!$C$2:$C$44</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Ranking!$C$2:$C$216</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Time!$D$3:$D$43</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Time!$E$3:$E$43</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Time!$F$2:$F$43</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Time!$G$1</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Time!$G$2:$G$43</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">QualityReview!$A$2:$B$13</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">QualityReview!$C$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">QualityReview!$C$2:$C$13</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">QualityReview!$D$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">QualityReview!$D$2:$D$13</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Ranking!$D$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">QualityReview!$E$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">QualityReview!$E$2:$E$13</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">QualityReview!$F$1</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">QualityReview!$F$2:$F$13</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">QualityReview!$A$23:$A$34</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">QualityReview!$C$22</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">QualityReview!$C$23:$C$34</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">QualityReview!$D$22</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">QualityReview!$D$23:$D$34</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">QualityReview!$E$22</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Ranking!$D$2:$D$216</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">QualityReview!$E$23:$E$34</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">QualityReview!$F$22</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">QualityReview!$F$23:$F$34</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Ranking!$A$2:$A$216</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Ranking!$C$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Time!$F$2:$F$43</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Time!$G$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Time!$G$2:$G$43</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Time!$D$3:$D$43</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Time!$E$3:$E$43</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Time!$A$2:$A$43</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Time!$B$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Time!$B$2:$B$43</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Time!$C$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Time!$C$2:$C$43</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Ranking!$C$2:$C$216</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">QualityReview!$A$23:$A$34</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">QualityReview!$C$22</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">QualityReview!$C$23:$C$34</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">QualityReview!$D$22</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">QualityReview!$D$23:$D$34</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">QualityReview!$E$22</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">QualityReview!$E$23:$E$34</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">QualityReview!$F$22</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">QualityReview!$F$23:$F$34</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">QualityReview!$G$22</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Ranking!$D$1</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">QualityReview!$G$23:$G$34</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">QualityReview!$A$23:$A$34</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">QualityReview!$C$22</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">QualityReview!$C$23:$C$34</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">QualityReview!$D$22</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">QualityReview!$D$23:$D$34</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">QualityReview!$E$22</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">QualityReview!$E$23:$E$34</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">QualityReview!$F$22</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">QualityReview!$F$23:$F$34</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Ranking!$D$2:$D$216</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">QualityReview!$G$22</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">QualityReview!$G$23:$G$34</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">QualityReview!$A$2:$B$13</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">QualityReview!$C$1</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">QualityReview!$C$2:$C$13</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">QualityReview!$D$1</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">QualityReview!$D$2:$D$13</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">QualityReview!$E$1</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">QualityReview!$E$2:$E$13</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">QualityReview!$F$1</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Ranking!$B$1</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">QualityReview!$F$2:$F$13</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">QualityReview!$G$1</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">QualityReview!$G$2:$G$13</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Ranking!$B$2:$B$216</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">Ranking!$C$1</definedName>
   </definedNames>
@@ -94,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="265">
   <si>
     <t>What is your occupation?</t>
   </si>
@@ -838,9 +858,6 @@
     <t>Researcher</t>
   </si>
   <si>
-    <t>Industry Expert</t>
-  </si>
-  <si>
     <t>Experience</t>
   </si>
   <si>
@@ -878,6 +895,24 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Review Results</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Professional</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1198,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Industry Expert</c:v>
+                  <c:v>Industry</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Researcher</c:v>
@@ -1184,7 +1219,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>38</c:v>
@@ -2235,7 +2270,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>none</c:v>
+                  <c:v>inconcise</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2316,6 +2351,140 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>53.488372093023251</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.162790697674424</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.883720930232556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.534883720930232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.953488372093023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.581395348837212</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9767441860465116</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.627906976744185</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.255813953488371</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.627906976744185</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.9767441860465116</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.3023255813953494</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-85A9-4C44-8162-42119E8927DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>QualityReview!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>none</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>QualityReview!$A$2:$B$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Free</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>EARS</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>MASTER</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>QualityReview!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
                   <c:v>6.9767441860465116</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -2356,7 +2525,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-85A9-4C44-8162-42119E8927DE}"/>
+              <c16:uniqueId val="{00000000-96D3-44DB-9B1F-B698A628A126}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2402,16 +2571,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-DE"/>
@@ -2466,7 +2635,7 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0" dirty="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -2480,7 +2649,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0" dirty="0">
+                  <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0" dirty="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -2524,7 +2693,7 @@
                 <a:buFontTx/>
                 <a:buNone/>
                 <a:tabLst/>
-                <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0" dirty="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -2557,16 +2726,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-DE"/>
@@ -2599,16 +2768,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-DE"/>
@@ -2641,8 +2810,988 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup paperSize="3" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>QualityReview!$C$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vague</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>QualityReview!$A$40:$B$51</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Free</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>EARS</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>MASTER</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>QualityReview!$C$40:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>41.860465116279073</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.860465116279073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.860465116279073</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.069767441860463</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.790697674418603</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.534883720930232</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.581395348837212</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.116279069767444</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.209302325581397</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72.093023255813961</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.883720930232556</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72.093023255813961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D549-46C8-B2A2-091A2BC7CD55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>QualityReview!$D$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>incomplete</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>QualityReview!$A$40:$B$51</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Free</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>EARS</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>MASTER</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>QualityReview!$D$40:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25.581395348837212</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.348837209302332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.279069767441861</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.720930232558146</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.581395348837212</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.441860465116278</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.534883720930232</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.418604651162781</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.930232558139537</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.069767441860463</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.767441860465112</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69.767441860465112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D549-46C8-B2A2-091A2BC7CD55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>QualityReview!$E$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>incorrect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>QualityReview!$A$40:$B$51</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Free</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>EARS</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>MASTER</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>QualityReview!$E$40:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>93.023255813953483</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.697674418604649</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.04651162790698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.697674418604649</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.023255813953483</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.069767441860463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.418604651162781</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90.697674418604649</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.348837209302332</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93.023255813953483</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86.04651162790698</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72.093023255813961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D549-46C8-B2A2-091A2BC7CD55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>QualityReview!$F$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>inconcise</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>QualityReview!$A$40:$B$51</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Free</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>EARS</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>MASTER</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>QualityReview!$F$40:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>46.511627906976749</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.837209302325576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.116279069767444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.534883720930232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.953488372093023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.418604651162781</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.023255813953483</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88.372093023255815</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.255813953488371</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88.372093023255815</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93.023255813953483</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90.697674418604649</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D549-46C8-B2A2-091A2BC7CD55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>QualityReview!$G$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>none</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>QualityReview!$A$40:$B$51</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Req1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Req2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Req3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Req4</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Free</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>EARS</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>MASTER</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>QualityReview!$G$40:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>93.023255813953483</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.720930232558146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.418604651162781</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.418604651162781</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.04651162790698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.720930232558146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72.093023255813961</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.534883720930232</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69.767441860465112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.860465116279073</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.906976744186046</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74.418604651162781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D549-46C8-B2A2-091A2BC7CD55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="778566511"/>
+        <c:axId val="778574191"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="778566511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="778574191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="778574191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>% Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="778566511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2652,17 +3801,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2672,7 +3821,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DFFD1D8C-500C-4E2A-9211-797C479ECBE1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.7</cx:f>
               <cx:v>free</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2685,7 +3834,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{98B69223-0ACB-44C9-9018-FA832260212A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.9</cx:f>
               <cx:v>EARS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2698,7 +3847,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F4DD60D6-E854-4988-8C74-F33CFDB1A5CD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.11</cx:f>
               <cx:v>MASTER</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2814,26 +3963,26 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2850,7 +3999,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9F5367F5-9D47-46AD-B596-0EFA7A478491}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>free</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2863,7 +4012,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5A5F7C4B-719B-40B2-B332-D53E44E122AB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>EARS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2876,7 +4025,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{55F26920-8301-4343-A252-521020BA38E7}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.11</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>MASTER</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3540,12 +4689,76 @@
       <cx:axis id="0">
         <cx:catScaling gapWidth="1"/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Time (Minutes)</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1200" b="1"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Time (Minutes)</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
         <cx:numFmt formatCode="m" sourceLinked="0"/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1100"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
@@ -3562,10 +4775,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.32</cx:f>
+        <cx:f>_xlchart.v1.30</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.34</cx:f>
+        <cx:f>_xlchart.v1.32</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3582,7 +4795,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4F766D4F-6C7B-48A5-BD5A-CAC0903FDF09}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.33</cx:f>
+              <cx:f>_xlchart.v1.31</cx:f>
               <cx:v>Total</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3618,10 +4831,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.30</cx:f>
+        <cx:f>_xlchart.v1.33</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
+        <cx:f>_xlchart.v1.34</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3661,57 +4874,65 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.35</cx:f>
+        <cx:f>_xlchart.v1.62</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.37</cx:f>
+        <cx:f>_xlchart.v1.64</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.35</cx:f>
+        <cx:f>_xlchart.v1.62</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.39</cx:f>
+        <cx:f>_xlchart.v1.66</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.35</cx:f>
+        <cx:f>_xlchart.v1.62</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.41</cx:f>
+        <cx:f>_xlchart.v1.68</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.35</cx:f>
+        <cx:f>_xlchart.v1.62</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.43</cx:f>
+        <cx:f>_xlchart.v1.70</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.62</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.72</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{77F25C24-85DD-4A54-A7D1-D94F6F8E168F}">
+        <cx:series layoutId="boxWhisker" uniqueId="{4C9521D1-631F-42F0-9749-FB8937F087F6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.36</cx:f>
+              <cx:f>_xlchart.v1.63</cx:f>
               <cx:v>vague</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
           <cx:layoutPr>
-            <cx:visibility meanLine="0" nonoutliers="0"/>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="inclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{14EEBEFD-7F9A-4E97-87C1-E8349BC99461}">
+        <cx:series layoutId="boxWhisker" uniqueId="{9AF2D6D6-5CAF-49D2-9B24-3FDC5856B60B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:f>_xlchart.v1.65</cx:f>
               <cx:v>incomplete</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3721,10 +4942,10 @@
             <cx:statistics quartileMethod="inclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{E056748F-24A3-4E02-8A68-8AAC77CCAFCB}">
+        <cx:series layoutId="boxWhisker" uniqueId="{73B81BD9-37F7-49AC-B2E8-F54E906408DE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.40</cx:f>
+              <cx:f>_xlchart.v1.67</cx:f>
               <cx:v>incorrect</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3734,14 +4955,27 @@
             <cx:statistics quartileMethod="inclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{672FCDD8-5A6D-4A50-BC3E-796BD53E6BB0}">
+        <cx:series layoutId="boxWhisker" uniqueId="{B5BD30F9-3ACC-4B38-AE2B-3C3A90D468E8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.42</cx:f>
+              <cx:f>_xlchart.v1.69</cx:f>
+              <cx:v>inconcise</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="inclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{6A7141D9-821B-43D6-A511-20B9A837316A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.71</cx:f>
               <cx:v>none</cx:v>
             </cx:txData>
           </cx:tx>
-          <cx:dataId val="3"/>
+          <cx:dataId val="4"/>
           <cx:layoutPr>
             <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="inclusive"/>
@@ -3751,59 +4985,167 @@
       <cx:axis id="0">
         <cx:catScaling gapWidth="1"/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="en-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
         <cx:title>
           <cx:tx>
-            <cx:rich>
-              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>% Review per Requirement</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-DE">
+            <cx:txData>
+              <cx:v>% Review per Requirement</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr lang="en-DE" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
                   <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-            </cx:rich>
-          </cx:tx>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-DE" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>% Review per Requirement</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
         </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="en-DE" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
-    <cx:legend pos="b" align="ctr" overlay="0"/>
+    <cx:legend pos="b" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="en-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
   </cx:chart>
   <cx:spPr>
     <a:ln>
@@ -3814,7 +5156,7 @@
   <cx:printSettings>
     <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
     <cx:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.78740157499999996" b="0.78740157499999996" header="0.29999999999999999" footer="0.29999999999999999"/>
-    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="default" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+    <cx:pageSetup paperSize="3" firstPageNumber="1" orientation="landscape" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   </cx:printSettings>
 </cx:chartSpace>
 </file>
@@ -3824,44 +5166,52 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.44</cx:f>
+        <cx:f>_xlchart.v1.51</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.46</cx:f>
+        <cx:f>_xlchart.v1.53</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.44</cx:f>
+        <cx:f>_xlchart.v1.51</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.48</cx:f>
+        <cx:f>_xlchart.v1.55</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.44</cx:f>
+        <cx:f>_xlchart.v1.51</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.50</cx:f>
+        <cx:f>_xlchart.v1.57</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.44</cx:f>
+        <cx:f>_xlchart.v1.51</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.52</cx:f>
+        <cx:f>_xlchart.v1.59</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.51</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.61</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{027BD639-9B66-4C1E-AA91-895916F501ED}">
+        <cx:series layoutId="boxWhisker" uniqueId="{8B770BCC-FD5C-4D68-AEEB-508E9CF72DCE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.45</cx:f>
+              <cx:f>_xlchart.v1.52</cx:f>
               <cx:v>vague</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3871,10 +5221,10 @@
             <cx:statistics quartileMethod="inclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{72CB3FFF-E10B-447F-9F63-53AD6057415C}">
+        <cx:series layoutId="boxWhisker" uniqueId="{291446AC-771A-4D6C-A698-7EF520B42796}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.47</cx:f>
+              <cx:f>_xlchart.v1.54</cx:f>
               <cx:v>incomplete</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3884,10 +5234,10 @@
             <cx:statistics quartileMethod="inclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{53BA64B2-98E1-43B8-8AF0-164E805B40AA}">
+        <cx:series layoutId="boxWhisker" uniqueId="{51452AC8-4C76-4012-8B1F-68B36AD3A0E8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.49</cx:f>
+              <cx:f>_xlchart.v1.56</cx:f>
               <cx:v>incorrect</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3897,14 +5247,27 @@
             <cx:statistics quartileMethod="inclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{AFDE7047-C063-4660-AE6C-95B79B0FA1CB}">
+        <cx:series layoutId="boxWhisker" uniqueId="{B0886783-8255-4C29-A357-F9361D617F60}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.51</cx:f>
+              <cx:f>_xlchart.v1.58</cx:f>
+              <cx:v>inconcise</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
+            <cx:statistics quartileMethod="inclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{7F7349DE-A086-4B3F-9A26-501C2B73C7A8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.60</cx:f>
               <cx:v>none</cx:v>
             </cx:txData>
           </cx:tx>
-          <cx:dataId val="3"/>
+          <cx:dataId val="4"/>
           <cx:layoutPr>
             <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="inclusive"/>
@@ -3948,10 +5311,10 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr/>
+                  <a:defRPr sz="1100" b="1"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -3963,9 +5326,9 @@
                     <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>% Review per Template System</a:t>
+                  <a:t>% Review per Requirement</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-DE">
+                <a:endParaRPr lang="en-DE" sz="1100" b="1">
                   <a:effectLst/>
                 </a:endParaRPr>
               </a:p>
@@ -4007,8 +5370,8 @@
   <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <cx:printSettings>
     <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
-    <cx:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.78740157499999996" b="0.78740157499999996" header="0.29999999999999999" footer="0.29999999999999999"/>
-    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="default" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+    <cx:pageMargins l="0" r="0" t="0" b="0" header="0" footer="0"/>
+    <cx:pageSetup paperSize="3" firstPageNumber="1" orientation="landscape" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="-3" verticalDpi="600" copies="1"/>
   </cx:printSettings>
 </cx:chartSpace>
 </file>
@@ -4168,6 +5531,43 @@
 </file>
 
 <file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -7029,6 +8429,509 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -11596,12 +13499,12 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>9523</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -11640,8 +13543,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6715125" y="3690938"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="6715123" y="3695700"/>
+              <a:ext cx="2895602" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11834,13 +13737,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -11912,13 +13815,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -11950,13 +13853,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -11995,8 +13898,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6710362" y="6515100"/>
-              <a:ext cx="4567238" cy="2590800"/>
+              <a:off x="6715124" y="6496050"/>
+              <a:ext cx="4562476" cy="2609850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -12024,6 +13927,42 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8065ED25-9E1A-8457-855D-073D2C52B435}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -13050,7 +14989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BS44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="T1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -22407,14 +24346,14 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="B1">
         <f>COUNTIF(AllData!$A$2:$A$44,"Industry Professional")</f>
@@ -22426,8 +24365,8 @@
         <v>245</v>
       </c>
       <c r="B2">
-        <f>COUNTIF(AllData!$A$2:$A$44,"Scientific Assistant / Researcher")</f>
-        <v>0</v>
+        <f>COUNTIF(AllData!$A$2:$A$44,"Researcher")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
@@ -22441,7 +24380,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -22478,7 +24417,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B22">
         <f>COUNTIF(AllData!$C$2:$C$44,"Yes")</f>
@@ -22491,7 +24430,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B23">
         <f>COUNTIF(AllData!$F$2:$F$44,"Yes")</f>
@@ -22504,7 +24443,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B24">
         <f>COUNTIF(AllData!$G$2:$G$44,"Yes")</f>
@@ -23524,7 +25463,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>244</v>
@@ -27420,15 +29359,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC39F50-491B-4545-9F82-98E8A6306DE7}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>243</v>
@@ -27437,16 +29376,16 @@
         <v>242</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -28591,8 +30530,8 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
-        <f>AllData!A3</f>
-        <v>Industry Professional</v>
+        <f>SUBSTITUTE(AllData!A3, "Industry ", "")</f>
+        <v>Professional</v>
       </c>
       <c r="B40" s="7">
         <f>AllData!AL3</f>
@@ -28604,7 +30543,7 @@
       </c>
       <c r="D40" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Industry Professional</v>
+        <v>Professional</v>
       </c>
       <c r="E40" s="8">
         <f>AllData!AM3-AllData!J3</f>
@@ -28612,7 +30551,7 @@
       </c>
       <c r="F40" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Industry Professional</v>
+        <v>Professional</v>
       </c>
       <c r="G40" s="8">
         <f>AllData!I3</f>
@@ -28621,8 +30560,8 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
-        <f>AllData!A17</f>
-        <v>Industry Professional</v>
+        <f>SUBSTITUTE(AllData!A17, "Industry ", "")</f>
+        <v>Professional</v>
       </c>
       <c r="B41" s="7">
         <f>AllData!AL17</f>
@@ -28634,7 +30573,7 @@
       </c>
       <c r="D41" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Industry Professional</v>
+        <v>Professional</v>
       </c>
       <c r="E41" s="8">
         <f>AllData!AM17-AllData!J17</f>
@@ -28642,7 +30581,7 @@
       </c>
       <c r="F41" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Industry Professional</v>
+        <v>Professional</v>
       </c>
       <c r="G41" s="8">
         <f>AllData!I17</f>
@@ -28651,8 +30590,8 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
-        <f>AllData!A26</f>
-        <v>Industry Professional</v>
+        <f>SUBSTITUTE(AllData!A26, "Industry ", "")</f>
+        <v>Professional</v>
       </c>
       <c r="B42" s="7">
         <f>AllData!AL26</f>
@@ -28664,7 +30603,7 @@
       </c>
       <c r="D42" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Industry Professional</v>
+        <v>Professional</v>
       </c>
       <c r="E42" s="8">
         <f>AllData!AM26-AllData!J26</f>
@@ -28672,7 +30611,7 @@
       </c>
       <c r="F42" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Industry Professional</v>
+        <v>Professional</v>
       </c>
       <c r="G42" s="8">
         <f>AllData!I26</f>
@@ -28681,8 +30620,8 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
-        <f>AllData!A36</f>
-        <v>Industry Professional</v>
+        <f>SUBSTITUTE(AllData!A36, "Industry ", "")</f>
+        <v>Professional</v>
       </c>
       <c r="B43" s="7">
         <f>AllData!AL36</f>
@@ -28694,7 +30633,7 @@
       </c>
       <c r="D43" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Industry Professional</v>
+        <v>Professional</v>
       </c>
       <c r="E43" s="8">
         <f>AllData!AM36-AllData!J36</f>
@@ -28702,7 +30641,7 @@
       </c>
       <c r="F43" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Industry Professional</v>
+        <v>Professional</v>
       </c>
       <c r="G43" s="8">
         <f>AllData!I36</f>
@@ -28751,15 +30690,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168FCA7C-DF0F-4DB4-A6C7-395CDDD91BBA}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>60</v>
       </c>
@@ -28770,15 +30709,18 @@
         <v>59</v>
       </c>
       <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>252</v>
-      </c>
-      <c r="B2" t="s">
-        <v>253</v>
       </c>
       <c r="C2">
         <f>COUNTIF(AllData!$AA$2:$AA$44,"*"&amp;C$1&amp;"*")/43*100</f>
@@ -28793,13 +30735,17 @@
         <v>6.9767441860465116</v>
       </c>
       <c r="F2">
+        <f>COUNTIF(AllData!$AA$2:$AA$44,"*"&amp;F$1&amp;"*")/43*100</f>
+        <v>53.488372093023251</v>
+      </c>
+      <c r="G2">
         <f>COUNTBLANK(AllData!$AA$2:$AA$44)/43*100</f>
         <v>6.9767441860465116</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3">
         <f>COUNTIF(AllData!$AJ$2:$AJ$44,"*"&amp;C$1&amp;"*")/43*100</f>
@@ -28814,13 +30760,17 @@
         <v>9.3023255813953494</v>
       </c>
       <c r="F3">
+        <f>COUNTIF(AllData!$AJ$2:$AJ$44,"*"&amp;F$1&amp;"*")/43*100</f>
+        <v>51.162790697674424</v>
+      </c>
+      <c r="G3">
         <f>COUNTBLANK(AllData!$AJ$2:$AJ$44)/43*100</f>
         <v>16.279069767441861</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C4">
         <f>COUNTIF(AllData!$AC$2:$AC$44,"*"&amp;C$1&amp;"*")/43*100</f>
@@ -28835,13 +30785,17 @@
         <v>13.953488372093023</v>
       </c>
       <c r="F4">
+        <f>COUNTIF(AllData!$AC$2:$AC$44,"*"&amp;F$1&amp;"*")/43*100</f>
+        <v>34.883720930232556</v>
+      </c>
+      <c r="G4">
         <f>COUNTBLANK(AllData!$AC$2:$AC$44)/43*100</f>
         <v>25.581395348837212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C5">
         <f>COUNTIF(AllData!$AH$2:$AH$44,"*"&amp;C$1&amp;"*")/43*100</f>
@@ -28856,16 +30810,20 @@
         <v>9.3023255813953494</v>
       </c>
       <c r="F5">
+        <f>COUNTIF(AllData!$AH$2:$AH$44,"*"&amp;F$1&amp;"*")/43*100</f>
+        <v>39.534883720930232</v>
+      </c>
+      <c r="G5">
         <f>COUNTBLANK(AllData!$AH$2:$AH$44)/43*100</f>
         <v>25.581395348837212</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>243</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C6">
         <f>COUNTIF(AllData!$Z$2:$Z$44,"*"&amp;C$1&amp;"*")/43*100</f>
@@ -28880,13 +30838,17 @@
         <v>6.9767441860465116</v>
       </c>
       <c r="F6">
+        <f>COUNTIF(AllData!$Z$2:$Z$44,"*"&amp;F$1&amp;"*")/43*100</f>
+        <v>13.953488372093023</v>
+      </c>
+      <c r="G6">
         <f>COUNTBLANK(AllData!$Z$2:$Z$44)/43*100</f>
         <v>13.953488372093023</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C7">
         <f>COUNTIF(AllData!$AK$2:$AK$44,"*"&amp;C$1&amp;"*")/43*100</f>
@@ -28901,13 +30863,17 @@
         <v>20.930232558139537</v>
       </c>
       <c r="F7">
+        <f>COUNTIF(AllData!$AK$2:$AK$44,"*"&amp;F$1&amp;"*")/43*100</f>
+        <v>25.581395348837212</v>
+      </c>
+      <c r="G7">
         <f>COUNTBLANK(AllData!$AK$2:$AK$44)/43*100</f>
         <v>16.279069767441861</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C8">
         <f>COUNTIF(AllData!$AE$2:$AE$44,"*"&amp;C$1&amp;"*")/43*100</f>
@@ -28922,13 +30888,17 @@
         <v>25.581395348837212</v>
       </c>
       <c r="F8">
+        <f>COUNTIF(AllData!$AE$2:$AE$44,"*"&amp;F$1&amp;"*")/43*100</f>
+        <v>6.9767441860465116</v>
+      </c>
+      <c r="G8">
         <f>COUNTBLANK(AllData!$AE$2:$AE$44)/43*100</f>
         <v>27.906976744186046</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C9">
         <f>COUNTIF(AllData!$AF$2:$AF$44,"*"&amp;C$1&amp;"*")/43*100</f>
@@ -28943,16 +30913,20 @@
         <v>9.3023255813953494</v>
       </c>
       <c r="F9">
+        <f>COUNTIF(AllData!$AF$2:$AF$44,"*"&amp;F$1&amp;"*")/43*100</f>
+        <v>11.627906976744185</v>
+      </c>
+      <c r="G9">
         <f>COUNTBLANK(AllData!$AF$2:$AF$44)/43*100</f>
         <v>39.534883720930232</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>242</v>
       </c>
       <c r="B10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C10">
         <f>COUNTIF(AllData!$AB$2:$AB$44,"*"&amp;C$1&amp;"*")/43*100</f>
@@ -28967,13 +30941,17 @@
         <v>4.6511627906976747</v>
       </c>
       <c r="F10">
+        <f>COUNTIF(AllData!$AB$2:$AB$44,"*"&amp;F$1&amp;"*")/43*100</f>
+        <v>23.255813953488371</v>
+      </c>
+      <c r="G10">
         <f>COUNTBLANK(AllData!$AB$2:$AB$44)/43*100</f>
         <v>30.232558139534881</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C11">
         <f>COUNTIF(AllData!$AI$2:$AI$44,"*"&amp;C$1&amp;"*")/43*100</f>
@@ -28988,13 +30966,17 @@
         <v>6.9767441860465116</v>
       </c>
       <c r="F11">
+        <f>COUNTIF(AllData!$AI$2:$AI$44,"*"&amp;F$1&amp;"*")/43*100</f>
+        <v>11.627906976744185</v>
+      </c>
+      <c r="G11">
         <f>COUNTBLANK(AllData!$AI$2:$AI$44)/43*100</f>
         <v>41.860465116279073</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12">
         <f>COUNTIF(AllData!$AD$2:$AD$44,"*"&amp;C$1&amp;"*")/43*100</f>
@@ -29009,13 +30991,17 @@
         <v>13.953488372093023</v>
       </c>
       <c r="F12">
+        <f>COUNTIF(AllData!$AD$2:$AD$44,"*"&amp;F$1&amp;"*")/43*100</f>
+        <v>6.9767441860465116</v>
+      </c>
+      <c r="G12">
         <f>COUNTBLANK(AllData!$AD$2:$AD$44)/43*100</f>
         <v>27.906976744186046</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C13">
         <f>COUNTIF(AllData!$AG$2:$AG$44,"*"&amp;C$1&amp;"*")/43*100</f>
@@ -29030,334 +31016,954 @@
         <v>27.906976744186046</v>
       </c>
       <c r="F13">
+        <f>COUNTIF(AllData!$AG$2:$AG$44,"*"&amp;F$1&amp;"*")/43*100</f>
+        <v>9.3023255813953494</v>
+      </c>
+      <c r="G13">
         <f>COUNTBLANK(AllData!$AG$2:$AG$44)/43*100</f>
         <v>25.581395348837212</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C22" t="str">
+        <f>C1</f>
+        <v>vague</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" ref="D22:G22" si="0">D1</f>
+        <v>incomplete</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>incorrect</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>inconcise</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>none</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>A2</f>
         <v>Free</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" ref="B23:F23" si="0">B2</f>
+        <f t="shared" ref="B23:G23" si="1">B2</f>
         <v>Req1</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41.860465116279073</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25.581395348837212</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.9767441860465116</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F23" si="2">F2</f>
+        <v>53.488372093023251</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
         <v>6.9767441860465116</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>A23</f>
         <v>Free</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" ref="B24:F24" si="1">B3</f>
+        <f t="shared" ref="B24:G24" si="3">B3</f>
         <v>Req2</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
-        <v>41.860465116279073</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>4.6511627906976747</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>9.3023255813953494</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>16.279069767441861</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="str">
-        <f t="shared" ref="A25:A26" si="2">A24</f>
-        <v>Free</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" ref="B25:F25" si="3">B4</f>
-        <v>Req3</v>
-      </c>
-      <c r="C25">
         <f t="shared" si="3"/>
         <v>41.860465116279073</v>
       </c>
-      <c r="D25">
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>4.6511627906976747</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>9.3023255813953494</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24" si="4">F3</f>
+        <v>51.162790697674424</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="3"/>
         <v>16.279069767441861</v>
       </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="str">
+        <f t="shared" ref="A25:A26" si="5">A24</f>
+        <v>Free</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" ref="B25:G25" si="6">B4</f>
+        <v>Req3</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="6"/>
+        <v>41.860465116279073</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="6"/>
+        <v>16.279069767441861</v>
+      </c>
       <c r="E25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>13.953488372093023</v>
       </c>
       <c r="F25">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F25" si="7">F4</f>
+        <v>34.883720930232556</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="6"/>
         <v>25.581395348837212</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Free</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" ref="B26:F26" si="4">B5</f>
+        <f t="shared" ref="B26:G26" si="8">B5</f>
         <v>Req4</v>
       </c>
       <c r="C26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20.930232558139537</v>
       </c>
       <c r="D26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>16.279069767441861</v>
       </c>
       <c r="E26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.3023255813953494</v>
       </c>
       <c r="F26">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F26" si="9">F5</f>
+        <v>39.534883720930232</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="8"/>
         <v>25.581395348837212</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
-        <f t="shared" ref="A27:F27" si="5">A6</f>
+        <f t="shared" ref="A27:G27" si="10">A6</f>
         <v>EARS</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>Req1</v>
       </c>
       <c r="C27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>62.790697674418603</v>
       </c>
       <c r="D27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>25.581395348837212</v>
       </c>
       <c r="E27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6.9767441860465116</v>
       </c>
       <c r="F27">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F27" si="11">F6</f>
         <v>13.953488372093023</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G27">
+        <f t="shared" si="10"/>
+        <v>13.953488372093023</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>A27</f>
         <v>EARS</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" ref="B28:F28" si="6">B7</f>
+        <f t="shared" ref="B28:G28" si="12">B7</f>
         <v>Req2</v>
       </c>
       <c r="C28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>39.534883720930232</v>
       </c>
       <c r="D28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>32.558139534883722</v>
       </c>
       <c r="E28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>20.930232558139537</v>
       </c>
       <c r="F28">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F28" si="13">F7</f>
+        <v>25.581395348837212</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="12"/>
         <v>16.279069767441861</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
-        <f t="shared" ref="A29:A30" si="7">A28</f>
+        <f t="shared" ref="A29:A30" si="14">A28</f>
         <v>EARS</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" ref="B29:F29" si="8">B8</f>
+        <f t="shared" ref="B29:G29" si="15">B8</f>
         <v>Req3</v>
       </c>
       <c r="C29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>25.581395348837212</v>
       </c>
       <c r="D29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>39.534883720930232</v>
       </c>
       <c r="E29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>25.581395348837212</v>
       </c>
       <c r="F29">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="F29" si="16">F8</f>
+        <v>6.9767441860465116</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="15"/>
         <v>27.906976744186046</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>EARS</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" ref="B30:F30" si="9">B9</f>
+        <f t="shared" ref="B30:G30" si="17">B9</f>
         <v>Req4</v>
       </c>
       <c r="C30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>34.883720930232556</v>
       </c>
       <c r="D30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>25.581395348837212</v>
       </c>
       <c r="E30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>9.3023255813953494</v>
       </c>
       <c r="F30">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="F30" si="18">F9</f>
+        <v>11.627906976744185</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="17"/>
         <v>39.534883720930232</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
-        <f t="shared" ref="A31:F31" si="10">A10</f>
+        <f t="shared" ref="A31:G31" si="19">A10</f>
         <v>MASTER</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>Req1</v>
       </c>
       <c r="C31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>37.209302325581397</v>
       </c>
       <c r="D31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>20.930232558139537</v>
       </c>
       <c r="E31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>4.6511627906976747</v>
       </c>
       <c r="F31">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="F31" si="20">F10</f>
+        <v>23.255813953488371</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="19"/>
         <v>30.232558139534881</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>A31</f>
         <v>MASTER</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" ref="B32:F32" si="11">B11</f>
+        <f t="shared" ref="B32:G32" si="21">B11</f>
         <v>Req2</v>
       </c>
       <c r="C32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>27.906976744186046</v>
       </c>
       <c r="D32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>20.930232558139537</v>
       </c>
       <c r="E32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>6.9767441860465116</v>
       </c>
       <c r="F32">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="F32" si="22">F11</f>
+        <v>11.627906976744185</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="21"/>
         <v>41.860465116279073</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
-        <f t="shared" ref="A33:A34" si="12">A32</f>
+        <f t="shared" ref="A33:A34" si="23">A32</f>
         <v>MASTER</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" ref="B33:F33" si="13">B12</f>
+        <f t="shared" ref="B33:G33" si="24">B12</f>
         <v>Req3</v>
       </c>
       <c r="C33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>34.883720930232556</v>
       </c>
       <c r="D33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>30.232558139534881</v>
       </c>
       <c r="E33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>13.953488372093023</v>
       </c>
       <c r="F33">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="F33" si="25">F12</f>
+        <v>6.9767441860465116</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="24"/>
         <v>27.906976744186046</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>MASTER</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" ref="B34:F34" si="14">B13</f>
+        <f t="shared" ref="B34:G34" si="26">B13</f>
         <v>Req4</v>
       </c>
       <c r="C34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>27.906976744186046</v>
       </c>
       <c r="D34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>30.232558139534881</v>
       </c>
       <c r="E34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>27.906976744186046</v>
       </c>
       <c r="F34">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="F34" si="27">F13</f>
+        <v>9.3023255813953494</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="26"/>
         <v>25.581395348837212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C39" t="str">
+        <f>C1</f>
+        <v>vague</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" ref="C39:G39" si="28">D1</f>
+        <v>incomplete</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="28"/>
+        <v>incorrect</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" ref="F39" si="29">F1</f>
+        <v>inconcise</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="28"/>
+        <v>none</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="str">
+        <f>A2</f>
+        <v>Free</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" ref="A40:D40" si="30">B2</f>
+        <v>Req1</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="30"/>
+        <v>41.860465116279073</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="30"/>
+        <v>25.581395348837212</v>
+      </c>
+      <c r="E40">
+        <f>100-E2</f>
+        <v>93.023255813953483</v>
+      </c>
+      <c r="F40">
+        <f>100-F2</f>
+        <v>46.511627906976749</v>
+      </c>
+      <c r="G40">
+        <f>100-G2</f>
+        <v>93.023255813953483</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B41" t="str">
+        <f t="shared" ref="B41:G41" si="31">B3</f>
+        <v>Req2</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="31"/>
+        <v>41.860465116279073</v>
+      </c>
+      <c r="D41">
+        <f>100-D3</f>
+        <v>95.348837209302332</v>
+      </c>
+      <c r="E41">
+        <f>100-E3</f>
+        <v>90.697674418604649</v>
+      </c>
+      <c r="F41">
+        <f>100-F3</f>
+        <v>48.837209302325576</v>
+      </c>
+      <c r="G41">
+        <f>100-G3</f>
+        <v>83.720930232558146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B42" t="str">
+        <f t="shared" ref="B42:G42" si="32">B4</f>
+        <v>Req3</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="32"/>
+        <v>41.860465116279073</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="32"/>
+        <v>16.279069767441861</v>
+      </c>
+      <c r="E42">
+        <f>100-E4</f>
+        <v>86.04651162790698</v>
+      </c>
+      <c r="F42">
+        <f>100-F4</f>
+        <v>65.116279069767444</v>
+      </c>
+      <c r="G42">
+        <f>100-G4</f>
+        <v>74.418604651162781</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B43" t="str">
+        <f t="shared" ref="B43:G43" si="33">B5</f>
+        <v>Req4</v>
+      </c>
+      <c r="C43">
+        <f>100-C5</f>
+        <v>79.069767441860463</v>
+      </c>
+      <c r="D43">
+        <f>100-D5</f>
+        <v>83.720930232558146</v>
+      </c>
+      <c r="E43">
+        <f>100-E5</f>
+        <v>90.697674418604649</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ref="F43" si="34">F5</f>
+        <v>39.534883720930232</v>
+      </c>
+      <c r="G43">
+        <f>100-G5</f>
+        <v>74.418604651162781</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="str">
+        <f>A6</f>
+        <v>EARS</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" ref="A44:G44" si="35">B6</f>
+        <v>Req1</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="35"/>
+        <v>62.790697674418603</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="35"/>
+        <v>25.581395348837212</v>
+      </c>
+      <c r="E44">
+        <f>100-E6</f>
+        <v>93.023255813953483</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44" si="36">F6</f>
+        <v>13.953488372093023</v>
+      </c>
+      <c r="G44">
+        <f>100-G6</f>
+        <v>86.04651162790698</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B45" t="str">
+        <f t="shared" ref="B45:G45" si="37">B7</f>
+        <v>Req2</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="37"/>
+        <v>39.534883720930232</v>
+      </c>
+      <c r="D45">
+        <f>100-D7</f>
+        <v>67.441860465116278</v>
+      </c>
+      <c r="E45">
+        <f>100-E7</f>
+        <v>79.069767441860463</v>
+      </c>
+      <c r="F45">
+        <f>100-F7</f>
+        <v>74.418604651162781</v>
+      </c>
+      <c r="G45">
+        <f>100-G7</f>
+        <v>83.720930232558146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B46" t="str">
+        <f t="shared" ref="B46:G46" si="38">B8</f>
+        <v>Req3</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="38"/>
+        <v>25.581395348837212</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="38"/>
+        <v>39.534883720930232</v>
+      </c>
+      <c r="E46">
+        <f>100-E8</f>
+        <v>74.418604651162781</v>
+      </c>
+      <c r="F46">
+        <f>100-F8</f>
+        <v>93.023255813953483</v>
+      </c>
+      <c r="G46">
+        <f>100-G8</f>
+        <v>72.093023255813961</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B47" t="str">
+        <f t="shared" ref="B47:G47" si="39">B9</f>
+        <v>Req4</v>
+      </c>
+      <c r="C47">
+        <f>100-C9</f>
+        <v>65.116279069767444</v>
+      </c>
+      <c r="D47">
+        <f>100-D9</f>
+        <v>74.418604651162781</v>
+      </c>
+      <c r="E47">
+        <f>100-E9</f>
+        <v>90.697674418604649</v>
+      </c>
+      <c r="F47">
+        <f>100-F9</f>
+        <v>88.372093023255815</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="39"/>
+        <v>39.534883720930232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="str">
+        <f>A10</f>
+        <v>MASTER</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" ref="A48:G48" si="40">B10</f>
+        <v>Req1</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="40"/>
+        <v>37.209302325581397</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="40"/>
+        <v>20.930232558139537</v>
+      </c>
+      <c r="E48">
+        <f>100-E10</f>
+        <v>95.348837209302332</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ref="F48" si="41">F10</f>
+        <v>23.255813953488371</v>
+      </c>
+      <c r="G48">
+        <f>100-G10</f>
+        <v>69.767441860465112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B49" t="str">
+        <f t="shared" ref="B49:G49" si="42">B11</f>
+        <v>Req2</v>
+      </c>
+      <c r="C49">
+        <f>100-C11</f>
+        <v>72.093023255813961</v>
+      </c>
+      <c r="D49">
+        <f>100-D11</f>
+        <v>79.069767441860463</v>
+      </c>
+      <c r="E49">
+        <f>100-E11</f>
+        <v>93.023255813953483</v>
+      </c>
+      <c r="F49">
+        <f>100-F11</f>
+        <v>88.372093023255815</v>
+      </c>
+      <c r="G49">
+        <f>G11</f>
+        <v>41.860465116279073</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B50" t="str">
+        <f t="shared" ref="B50:G50" si="43">B12</f>
+        <v>Req3</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="43"/>
+        <v>34.883720930232556</v>
+      </c>
+      <c r="D50">
+        <f>100-D12</f>
+        <v>69.767441860465112</v>
+      </c>
+      <c r="E50">
+        <f>100-E12</f>
+        <v>86.04651162790698</v>
+      </c>
+      <c r="F50">
+        <f>100-F12</f>
+        <v>93.023255813953483</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="43"/>
+        <v>27.906976744186046</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B51" t="str">
+        <f t="shared" ref="B51:G51" si="44">B13</f>
+        <v>Req4</v>
+      </c>
+      <c r="C51">
+        <f>100-C13</f>
+        <v>72.093023255813961</v>
+      </c>
+      <c r="D51">
+        <f>100-D13</f>
+        <v>69.767441860465112</v>
+      </c>
+      <c r="E51">
+        <f>100-E13</f>
+        <v>72.093023255813961</v>
+      </c>
+      <c r="F51">
+        <f>100-F13</f>
+        <v>90.697674418604649</v>
+      </c>
+      <c r="G51">
+        <f>100-G13</f>
+        <v>74.418604651162781</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C54" t="str">
+        <f>C1</f>
+        <v>vague</v>
+      </c>
+      <c r="D54" t="str">
+        <f>D1</f>
+        <v>incomplete</v>
+      </c>
+      <c r="E54" t="str">
+        <f>E1</f>
+        <v>incorrect</v>
+      </c>
+      <c r="F54" t="str">
+        <f>F1</f>
+        <v>inconcise</v>
+      </c>
+      <c r="G54" t="str">
+        <f>G1</f>
+        <v>none</v>
+      </c>
+      <c r="H54" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>263</v>
+      </c>
+      <c r="B55" t="str">
+        <f>A2</f>
+        <v>Free</v>
+      </c>
+      <c r="C55">
+        <f>(COUNTIF(AllData!$AA$2:$AA$44,"*"&amp;C$1&amp;"*")+COUNTIF(AllData!$AJ$2:$AJ$44,"*"&amp;C$1&amp;"*")+COUNTIF(AllData!$AC$2:$AC$44,"*"&amp;C$1&amp;"*")+43-COUNTIF(AllData!$AH$2:$AH$44,"*"&amp;C$1&amp;"*"))/(4*43)</f>
+        <v>0.51162790697674421</v>
+      </c>
+      <c r="D55">
+        <f>(COUNTIF(AllData!$AA$2:$AA$44,"*"&amp;D$1&amp;"*")+43-COUNTIF(AllData!$AJ$2:$AJ$44,"*"&amp;D$1&amp;"*")+COUNTIF(AllData!$AC$2:$AC$44,"*"&amp;D$1&amp;"*")+43-COUNTIF(AllData!$AH$2:$AH$44,"*"&amp;D$1&amp;"*"))/(4*43)</f>
+        <v>0.55232558139534882</v>
+      </c>
+      <c r="E55">
+        <f>(43-COUNTIF(AllData!$AA$2:$AA$44,"*"&amp;E$1&amp;"*")+43-COUNTIF(AllData!$AJ$2:$AJ$44,"*"&amp;E$1&amp;"*")+43-COUNTIF(AllData!$AC$2:$AC$44,"*"&amp;E$1&amp;"*")+43-COUNTIF(AllData!$AH$2:$AH$44,"*"&amp;E$1&amp;"*"))/(4*43)</f>
+        <v>0.90116279069767447</v>
+      </c>
+      <c r="F55">
+        <f>(COUNTIF(AllData!$AA$2:$AA$44,"*"&amp;F$1&amp;"*")+COUNTIF(AllData!$AJ$2:$AJ$44,"*"&amp;F$1&amp;"*")+43-COUNTIF(AllData!$AC$2:$AC$44,"*"&amp;F$1&amp;"*")+COUNTIF(AllData!$AH$2:$AH$44,"*"&amp;F$1&amp;"*"))/(4*43)</f>
+        <v>0.52325581395348841</v>
+      </c>
+      <c r="G55">
+        <f>(43-COUNTBLANK(AllData!$AA$2:$AA$44)+43-COUNTBLANK(AllData!$AJ$2:$AJ$44)+43-COUNTBLANK(AllData!$AC$2:$AC$44)+43-COUNTBLANK(AllData!$AH$2:$AH$44))/(4*43)</f>
+        <v>0.81395348837209303</v>
+      </c>
+      <c r="H55">
+        <f>(C55+D55+E55+F55+G55)/5</f>
+        <v>0.66046511627906979</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B56" t="str">
+        <f>A6</f>
+        <v>EARS</v>
+      </c>
+      <c r="C56">
+        <f>(COUNTIF(AllData!$Z$2:$Z$44,"*"&amp;C$1&amp;"*")+COUNTIF(AllData!$AK$2:$AK$44,"*"&amp;C$1&amp;"*")+COUNTIF(AllData!$AE$2:$AE$44,"*"&amp;C$1&amp;"*")+43-COUNTIF(AllData!$AF$2:$AF$44,"*"&amp;C$1&amp;"*"))/(4*43)</f>
+        <v>0.48255813953488375</v>
+      </c>
+      <c r="D56">
+        <f>(COUNTIF(AllData!$Z$2:$Z$44,"*"&amp;D$1&amp;"*")+43-COUNTIF(AllData!$AK$2:$AK$44,"*"&amp;D$1&amp;"*")+COUNTIF(AllData!$AE$2:$AE$44,"*"&amp;D$1&amp;"*")+43-COUNTIF(AllData!$AF$2:$AF$44,"*"&amp;D$1&amp;"*"))/(4*43)</f>
+        <v>0.51744186046511631</v>
+      </c>
+      <c r="E56">
+        <f>(43-COUNTIF(AllData!$Z$2:$Z$44,"*"&amp;E$1&amp;"*")+43-COUNTIF(AllData!$AK$2:$AK$44,"*"&amp;E$1&amp;"*")+43-COUNTIF(AllData!$AE$2:$AE$44,"*"&amp;E$1&amp;"*")+43-COUNTIF(AllData!$AF$2:$AF$44,"*"&amp;E$1&amp;"*"))/(4*43)</f>
+        <v>0.84302325581395354</v>
+      </c>
+      <c r="H56">
+        <f t="shared" ref="H56:H57" si="45">(C56+D56+E56+F56+G56)/5</f>
+        <v>0.36860465116279073</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B57" t="str">
+        <f>A10</f>
+        <v>MASTER</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B58" t="str">
+        <f>B2</f>
+        <v>Req1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B59" t="str">
+        <f>B3</f>
+        <v>Req2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B60" t="str">
+        <f>B4</f>
+        <v>Req3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B61" t="str">
+        <f>B5</f>
+        <v>Req4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>174</v>
+      </c>
+      <c r="B62" t="str">
+        <f>A2</f>
+        <v>Free</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B63" t="str">
+        <f>A6</f>
+        <v>EARS</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B64" t="str">
+        <f>A10</f>
+        <v>MASTER</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B65" t="str">
+        <f>B2</f>
+        <v>Req1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B66" t="str">
+        <f t="shared" ref="B66:B68" si="46">B3</f>
+        <v>Req2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B67" t="str">
+        <f t="shared" si="46"/>
+        <v>Req3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B68" t="str">
+        <f t="shared" si="46"/>
+        <v>Req4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>264</v>
+      </c>
+      <c r="B69" t="str">
+        <f>A2</f>
+        <v>Free</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B70" t="str">
+        <f>A6</f>
+        <v>EARS</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B71" t="str">
+        <f>A10</f>
+        <v>MASTER</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B72" t="str">
+        <f>B2</f>
+        <v>Req1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B73" t="str">
+        <f t="shared" ref="B73:B75" si="47">B3</f>
+        <v>Req2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B74" t="str">
+        <f t="shared" si="47"/>
+        <v>Req3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B75" t="str">
+        <f t="shared" si="47"/>
+        <v>Req4</v>
       </c>
     </row>
   </sheetData>

--- a/UserTestEval/Data/Rawdata.xlsx
+++ b/UserTestEval/Data/Rawdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katha\Documents\uni\Evaluation-of-templates-for-requirements-documentation\UserTestEval\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C708F31F-0FBE-4248-81C0-08793358F8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5842710-C390-4081-A7A0-1695BE0BD509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40920" yWindow="3975" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,80 +21,63 @@
     <sheet name="QualityReview" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Ranking!$A$2:$A$211</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Ranking!$A$2:$A$216</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Ranking!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Ranking!$C$2:$C$216</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Ranking!$D$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Ranking!$D$2:$D$216</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Ranking!$A$2:$A$216</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Ranking!$C$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Ranking!$C$2:$C$211</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Ranking!$D$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Ranking!$D$2:$D$211</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">Ranking!$B$1</definedName>
     <definedName name="_xlchart.v1.15" hidden="1">Ranking!$B$2:$B$216</definedName>
     <definedName name="_xlchart.v1.16" hidden="1">Ranking!$C$1</definedName>
     <definedName name="_xlchart.v1.17" hidden="1">Ranking!$C$2:$C$216</definedName>
     <definedName name="_xlchart.v1.18" hidden="1">Ranking!$D$1</definedName>
     <definedName name="_xlchart.v1.19" hidden="1">Ranking!$D$2:$D$216</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Ranking!$B$2:$B$211</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Ranking!$B$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Ranking!$B$2:$B$216</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Ranking!$C$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Ranking!$C$2:$C$216</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Ranking!$D$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Ranking!$D$2:$D$216</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Ranking!$A$2:$A$211</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Ranking!$B$1</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Ranking!$B$2:$B$211</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Ranking!$C$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Ranking!$B$2:$B$216</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Time!$A$2:$A$43</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Time!$B$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Time!$B$2:$B$43</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Time!$C$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Time!$C$2:$C$43</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Time!$F$2:$F$43</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Time!$G$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Time!$G$2:$G$43</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Time!$A$2:$A$44</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Time!$B$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Ranking!$C$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Ranking!$C$2:$C$211</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Ranking!$D$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Ranking!$D$2:$D$211</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Time!$B$2:$B$44</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Time!$C$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Time!$C$2:$C$44</definedName>
     <definedName name="_xlchart.v1.33" hidden="1">Time!$D$3:$D$43</definedName>
     <definedName name="_xlchart.v1.34" hidden="1">Time!$E$3:$E$43</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Time!$D$3:$D$43</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Time!$E$3:$E$43</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Time!$A$2:$A$43</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Time!$B$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Time!$B$2:$B$43</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Ranking!$C$2:$C$211</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Time!$C$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Time!$C$2:$C$43</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Time!$F$2:$F$43</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Time!$G$1</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Time!$G$2:$G$43</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Time!$D$3:$D$43</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Time!$E$3:$E$43</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Time!$A$2:$A$44</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Time!$B$1</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Time!$B$2:$B$44</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">QualityReview!$A$2:$B$13</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">QualityReview!$C$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">QualityReview!$C$2:$C$13</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">QualityReview!$D$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">QualityReview!$D$2:$D$13</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Ranking!$C$2:$C$216</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">QualityReview!$E$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">QualityReview!$E$2:$E$13</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">QualityReview!$F$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">QualityReview!$F$2:$F$13</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">QualityReview!$G$1</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">QualityReview!$G$2:$G$13</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">QualityReview!$A$23:$A$34</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">QualityReview!$C$22</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">QualityReview!$C$23:$C$34</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">QualityReview!$D$22</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Ranking!$D$1</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Time!$C$1</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Time!$C$2:$C$44</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">QualityReview!$A$2:$B$13</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">QualityReview!$C$1</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">QualityReview!$C$2:$C$13</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">QualityReview!$D$1</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">QualityReview!$D$2:$D$13</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">QualityReview!$E$1</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">QualityReview!$E$2:$E$13</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">QualityReview!$F$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Ranking!$D$2:$D$211</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">QualityReview!$F$2:$F$13</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">QualityReview!$G$1</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">QualityReview!$G$2:$G$13</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">QualityReview!$A$23:$A$34</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">QualityReview!$C$22</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">QualityReview!$C$23:$C$34</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">QualityReview!$D$22</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">QualityReview!$D$23:$D$34</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">QualityReview!$E$22</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">QualityReview!$E$23:$E$34</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Ranking!$B$1</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">QualityReview!$F$22</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">QualityReview!$F$23:$F$34</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">QualityReview!$G$22</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">QualityReview!$G$23:$G$34</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Ranking!$B$2:$B$216</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Ranking!$C$1</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">QualityReview!$D$23:$D$34</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">QualityReview!$E$22</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">QualityReview!$E$23:$E$34</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">QualityReview!$F$22</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">QualityReview!$F$23:$F$34</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">QualityReview!$G$22</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">QualityReview!$G$23:$G$34</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Ranking!$D$2:$D$216</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Ranking!$A$2:$A$211</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Ranking!$B$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Ranking!$B$2:$B$211</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5661,17 +5644,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5681,7 +5664,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DFFD1D8C-500C-4E2A-9211-797C479ECBE1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.14</cx:f>
               <cx:v>free</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5694,7 +5677,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{98B69223-0ACB-44C9-9018-FA832260212A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.16</cx:f>
               <cx:v>EARS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5707,7 +5690,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F4DD60D6-E854-4988-8C74-F33CFDB1A5CD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>MASTER</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5757,7 +5740,7 @@
         <cx:title>
           <cx:tx>
             <cx:txData>
-              <cx:v>worst ⟝ --                         -- ⟞ best</cx:v>
+              <cx:v>worst ⟝ --       -- ⟞ best</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:txPr>
@@ -5765,7 +5748,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr lang="en-DE" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:defRPr lang="en-DE" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -5778,7 +5761,7 @@
                 </a:defRPr>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-DE" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -5789,7 +5772,7 @@
                   <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 </a:rPr>
-                <a:t>worst ⟝ --                         -- ⟞ best</a:t>
+                <a:t>worst ⟝ --       -- ⟞ best</a:t>
               </a:r>
             </a:p>
           </cx:txPr>
@@ -5801,7 +5784,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr lang="en-DE" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="en-DE" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -5813,7 +5796,7 @@
                 <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:endParaRPr lang="en-DE" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -5869,7 +5852,7 @@
   <cx:printSettings>
     <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
     <cx:pageMargins l="0" r="0" t="0" b="0" header="0" footer="0"/>
-    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="landscape" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="portrait" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   </cx:printSettings>
 </cx:chartSpace>
 </file>
@@ -5879,26 +5862,26 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5915,7 +5898,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9F5367F5-9D47-46AD-B596-0EFA7A478491}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>free</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5928,7 +5911,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5A5F7C4B-719B-40B2-B332-D53E44E122AB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>EARS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5941,7 +5924,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{55F26920-8301-4343-A252-521020BA38E7}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>MASTER</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6159,26 +6142,26 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.28</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.30</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.32</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6195,7 +6178,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CB637DB2-7F16-46BD-BECF-B186D777151E}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.27</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>free</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6208,7 +6191,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C908A5A9-6C1E-4C60-B384-5224CE0FDF11}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.29</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>EARS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6221,7 +6204,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B19EAA18-68A6-4A27-8698-E85CD5441D2F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.31</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>MASTER</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6240,7 +6223,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr lang="en-DE" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="en-DE" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6252,7 +6235,7 @@
                 <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:endParaRPr lang="en-DE" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -6270,81 +6253,30 @@
         <cx:valScaling/>
         <cx:title>
           <cx:tx>
-            <cx:rich>
-              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr lang="en-DE" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-DE" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>worst ⟝ --                         -- ⟞ best</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr lang="en-DE" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-DE" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <cx:txData>
+              <cx:v>worst ⟝ --          -- ⟞ best</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr lang="en-DE" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -6354,10 +6286,24 @@
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                   <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </cx:rich>
-          </cx:tx>
+                </a:defRPr>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-DE" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>worst ⟝ --          -- ⟞ best</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
         </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
@@ -6366,7 +6312,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr lang="en-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr lang="en-DE" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6378,7 +6324,7 @@
                 <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:endParaRPr lang="en-DE" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -6434,7 +6380,7 @@
   <cx:printSettings>
     <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
     <cx:pageMargins l="0" r="0" t="0" b="0" header="0" footer="0"/>
-    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="landscape" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="portrait" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   </cx:printSettings>
 </cx:chartSpace>
 </file>
@@ -6444,18 +6390,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.47</cx:f>
+        <cx:f>_xlchart.v1.28</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.49</cx:f>
+        <cx:f>_xlchart.v1.30</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.47</cx:f>
+        <cx:f>_xlchart.v1.28</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.51</cx:f>
+        <cx:f>_xlchart.v1.32</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6465,7 +6411,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A7955AD6-7364-416F-A82A-58A1F76E455D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.48</cx:f>
+              <cx:f>_xlchart.v1.29</cx:f>
               <cx:v>EARS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6490,7 +6436,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6C77626C-2690-4B4A-A861-13008AE16954}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.50</cx:f>
+              <cx:f>_xlchart.v1.31</cx:f>
               <cx:v>MASTER</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6538,18 +6484,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.37</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.39</cx:f>
+        <cx:f>_xlchart.v1.22</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.37</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.41</cx:f>
+        <cx:f>_xlchart.v1.24</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6559,7 +6505,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F8EE3ECA-F2A0-4D89-B44B-860DB1DF4BFB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:f>_xlchart.v1.21</cx:f>
               <cx:v>EARS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6584,7 +6530,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5FE71DA6-CBA9-45DB-9983-296628AFA7E5}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.40</cx:f>
+              <cx:f>_xlchart.v1.23</cx:f>
               <cx:v>MASTER</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6696,10 +6642,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.42</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.44</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6716,7 +6662,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4F766D4F-6C7B-48A5-BD5A-CAC0903FDF09}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.43</cx:f>
+              <cx:f>_xlchart.v1.26</cx:f>
               <cx:v>Total</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6752,10 +6698,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.45</cx:f>
+        <cx:f>_xlchart.v1.33</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.46</cx:f>
+        <cx:f>_xlchart.v1.34</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6895,7 +6841,7 @@
   <cx:printSettings>
     <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
     <cx:pageMargins l="0" r="0" t="0" b="0" header="0" footer="0"/>
-    <cx:pageSetup paperSize="3" firstPageNumber="1" orientation="landscape" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="default" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   </cx:printSettings>
 </cx:chartSpace>
 </file>
@@ -6905,42 +6851,42 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.52</cx:f>
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.54</cx:f>
+        <cx:f>_xlchart.v1.37</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.52</cx:f>
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.56</cx:f>
+        <cx:f>_xlchart.v1.39</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.52</cx:f>
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.58</cx:f>
+        <cx:f>_xlchart.v1.41</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.52</cx:f>
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.60</cx:f>
+        <cx:f>_xlchart.v1.43</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.52</cx:f>
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.62</cx:f>
+        <cx:f>_xlchart.v1.45</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6950,7 +6896,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4C9521D1-631F-42F0-9749-FB8937F087F6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.53</cx:f>
+              <cx:f>_xlchart.v1.36</cx:f>
               <cx:v>vague</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6963,7 +6909,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9AF2D6D6-5CAF-49D2-9B24-3FDC5856B60B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.55</cx:f>
+              <cx:f>_xlchart.v1.38</cx:f>
               <cx:v>incomplete</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6976,7 +6922,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{73B81BD9-37F7-49AC-B2E8-F54E906408DE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.57</cx:f>
+              <cx:f>_xlchart.v1.40</cx:f>
               <cx:v>incorrect</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6989,7 +6935,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B5BD30F9-3ACC-4B38-AE2B-3C3A90D468E8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.59</cx:f>
+              <cx:f>_xlchart.v1.42</cx:f>
               <cx:v>inconcise</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7002,7 +6948,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6A7141D9-821B-43D6-A511-20B9A837316A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.61</cx:f>
+              <cx:f>_xlchart.v1.44</cx:f>
               <cx:v>none</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7197,42 +7143,42 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.63</cx:f>
+        <cx:f>_xlchart.v1.46</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.65</cx:f>
+        <cx:f>_xlchart.v1.48</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.63</cx:f>
+        <cx:f>_xlchart.v1.46</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.67</cx:f>
+        <cx:f>_xlchart.v1.50</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.63</cx:f>
+        <cx:f>_xlchart.v1.46</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.69</cx:f>
+        <cx:f>_xlchart.v1.52</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.63</cx:f>
+        <cx:f>_xlchart.v1.46</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.71</cx:f>
+        <cx:f>_xlchart.v1.54</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.63</cx:f>
+        <cx:f>_xlchart.v1.46</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.73</cx:f>
+        <cx:f>_xlchart.v1.56</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7242,7 +7188,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{8B770BCC-FD5C-4D68-AEEB-508E9CF72DCE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.64</cx:f>
+              <cx:f>_xlchart.v1.47</cx:f>
               <cx:v>vague</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7255,7 +7201,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{291446AC-771A-4D6C-A698-7EF520B42796}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.66</cx:f>
+              <cx:f>_xlchart.v1.49</cx:f>
               <cx:v>incomplete</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7268,7 +7214,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{51452AC8-4C76-4012-8B1F-68B36AD3A0E8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.68</cx:f>
+              <cx:f>_xlchart.v1.51</cx:f>
               <cx:v>incorrect</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7281,7 +7227,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B0886783-8255-4C29-A357-F9361D617F60}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.70</cx:f>
+              <cx:f>_xlchart.v1.53</cx:f>
               <cx:v>inconcise</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7294,7 +7240,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7F7349DE-A086-4B3F-9A26-501C2B73C7A8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.72</cx:f>
+              <cx:f>_xlchart.v1.55</cx:f>
               <cx:v>none</cx:v>
             </cx:txData>
           </cx:tx>
@@ -16833,13 +16779,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>523876</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
@@ -16877,8 +16823,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3876675" y="3267075"/>
-              <a:ext cx="3314699" cy="2686051"/>
+              <a:off x="3876676" y="3267075"/>
+              <a:ext cx="2524124" cy="2686051"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -16989,13 +16935,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>514351</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -17033,8 +16979,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3867150" y="6105525"/>
-              <a:ext cx="3295650" cy="2838450"/>
+              <a:off x="3867151" y="6105525"/>
+              <a:ext cx="2533649" cy="2838450"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -29216,7 +29162,7 @@
   <dimension ref="A1:D216"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>

--- a/UserTestEval/Data/Rawdata.xlsx
+++ b/UserTestEval/Data/Rawdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katha\Documents\uni\Evaluation-of-templates-for-requirements-documentation\UserTestEval\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5842710-C390-4081-A7A0-1695BE0BD509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDF0589-BBE2-4935-A6E1-EE3C511154BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="3975" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40920" yWindow="3975" windowWidth="25440" windowHeight="15270" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllData" sheetId="2" r:id="rId1"/>
@@ -21,19 +21,19 @@
     <sheet name="QualityReview" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Ranking!$A$2:$A$216</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Ranking!$A$2:$A$211</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Ranking!$B$1</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">Ranking!$C$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Ranking!$C$2:$C$211</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Ranking!$C$2:$C$216</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">Ranking!$D$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Ranking!$D$2:$D$211</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Ranking!$D$2:$D$216</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">Ranking!$B$1</definedName>
     <definedName name="_xlchart.v1.15" hidden="1">Ranking!$B$2:$B$216</definedName>
     <definedName name="_xlchart.v1.16" hidden="1">Ranking!$C$1</definedName>
     <definedName name="_xlchart.v1.17" hidden="1">Ranking!$C$2:$C$216</definedName>
     <definedName name="_xlchart.v1.18" hidden="1">Ranking!$D$1</definedName>
     <definedName name="_xlchart.v1.19" hidden="1">Ranking!$D$2:$D$216</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Ranking!$B$2:$B$216</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Ranking!$B$2:$B$211</definedName>
     <definedName name="_xlchart.v1.20" hidden="1">Time!$A$2:$A$43</definedName>
     <definedName name="_xlchart.v1.21" hidden="1">Time!$B$1</definedName>
     <definedName name="_xlchart.v1.22" hidden="1">Time!$B$2:$B$43</definedName>
@@ -55,7 +55,7 @@
     <definedName name="_xlchart.v1.37" hidden="1">QualityReview!$C$2:$C$13</definedName>
     <definedName name="_xlchart.v1.38" hidden="1">QualityReview!$D$1</definedName>
     <definedName name="_xlchart.v1.39" hidden="1">QualityReview!$D$2:$D$13</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Ranking!$C$2:$C$216</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Ranking!$C$2:$C$211</definedName>
     <definedName name="_xlchart.v1.40" hidden="1">QualityReview!$E$1</definedName>
     <definedName name="_xlchart.v1.41" hidden="1">QualityReview!$E$2:$E$13</definedName>
     <definedName name="_xlchart.v1.42" hidden="1">QualityReview!$F$1</definedName>
@@ -74,10 +74,10 @@
     <definedName name="_xlchart.v1.54" hidden="1">QualityReview!$F$23:$F$34</definedName>
     <definedName name="_xlchart.v1.55" hidden="1">QualityReview!$G$22</definedName>
     <definedName name="_xlchart.v1.56" hidden="1">QualityReview!$G$23:$G$34</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Ranking!$D$2:$D$216</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Ranking!$A$2:$A$211</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Ranking!$D$2:$D$211</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Ranking!$A$2:$A$216</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Ranking!$B$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Ranking!$B$2:$B$211</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Ranking!$B$2:$B$216</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="279">
   <si>
     <t>What is your occupation?</t>
   </si>
@@ -898,12 +898,54 @@
   <si>
     <t>Professional</t>
   </si>
+  <si>
+    <t>σ EARS</t>
+  </si>
+  <si>
+    <t>σ MASTER</t>
+  </si>
+  <si>
+    <t>σ free</t>
+  </si>
+  <si>
+    <t>t-test EARS</t>
+  </si>
+  <si>
+    <t>t-test MASTER</t>
+  </si>
+  <si>
+    <t>t-test EARS vs MASTER</t>
+  </si>
+  <si>
+    <t>Students</t>
+  </si>
+  <si>
+    <t>Professionals</t>
+  </si>
+  <si>
+    <t>vs Students</t>
+  </si>
+  <si>
+    <t>Writingtime</t>
+  </si>
+  <si>
+    <t>Reviewtime</t>
+  </si>
+  <si>
+    <t>σ Students</t>
+  </si>
+  <si>
+    <t>σ Professionals</t>
+  </si>
+  <si>
+    <t>t-test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -922,6 +964,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -959,7 +1009,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -979,6 +1029,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -5852,7 +5904,7 @@
   <cx:printSettings>
     <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
     <cx:pageMargins l="0" r="0" t="0" b="0" header="0" footer="0"/>
-    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="portrait" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="default" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   </cx:printSettings>
 </cx:chartSpace>
 </file>
@@ -5862,26 +5914,26 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5898,7 +5950,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9F5367F5-9D47-46AD-B596-0EFA7A478491}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>free</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5911,7 +5963,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5A5F7C4B-719B-40B2-B332-D53E44E122AB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>EARS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5924,7 +5976,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{55F26920-8301-4343-A252-521020BA38E7}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>MASTER</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6142,26 +6194,26 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6178,7 +6230,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CB637DB2-7F16-46BD-BECF-B186D777151E}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>free</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6191,7 +6243,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C908A5A9-6C1E-4C60-B384-5224CE0FDF11}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>EARS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6204,7 +6256,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B19EAA18-68A6-4A27-8698-E85CD5441D2F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>MASTER</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6380,7 +6432,7 @@
   <cx:printSettings>
     <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
     <cx:pageMargins l="0" r="0" t="0" b="0" header="0" footer="0"/>
-    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="portrait" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="default" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   </cx:printSettings>
 </cx:chartSpace>
 </file>
@@ -17017,16 +17069,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -17062,8 +17114,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6677025" y="457200"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="10163175" y="3943350"/>
+              <a:ext cx="4572000" cy="2809875"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -18694,7 +18746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BS44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -29159,15 +29211,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A71970-3F06-4A38-BA8F-62028407EBDC}">
-  <dimension ref="A1:D216"/>
+  <dimension ref="A1:M216"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="17.875" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="14.25" customWidth="1"/>
+    <col min="14" max="14" width="12.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>256</v>
       </c>
@@ -29180,8 +29238,17 @@
       <c r="D1" s="6" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="K1" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>AllData!A2</f>
         <v>Student</v>
@@ -29198,8 +29265,20 @@
         <f>AllData!K2</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="K2">
+        <f>_xlfn.STDEV.P(B2:B216)</f>
+        <v>1.3741332879787982</v>
+      </c>
+      <c r="L2">
+        <f>_xlfn.STDEV.P(C2:C216)</f>
+        <v>1.1180799426909069</v>
+      </c>
+      <c r="M2">
+        <f>_xlfn.STDEV.P(D2:D216)</f>
+        <v>1.2256144914113893</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" t="str">
         <f>AllData!A5</f>
         <v>Student</v>
@@ -29216,8 +29295,17 @@
         <f>AllData!K5</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="K3" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>AllData!A6</f>
         <v>Student</v>
@@ -29234,8 +29322,20 @@
         <f>AllData!K6</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="K4">
+        <f>IFERROR(_xlfn.T.TEST(D2:D216,C2:C216,2,IF(IF(L2^2&gt;M2^2,(L2^2)/(M2^2),(M2^2)/(L2^2))&lt;IF(L2^2&gt;M2^2,_xlfn.F.INV(0.95,COUNT(D2:D216)-1,COUNT(D2:D216)-1),_xlfn.F.INV(0.95,COUNT(D2:D216)-1,COUNT(D2:D216)-1)),2,3)),1)</f>
+        <v>0.11044241386425566</v>
+      </c>
+      <c r="L4">
+        <f>IFERROR(_xlfn.T.TEST(C2:C216,B2:B216,2,IF(IF(K2^2&gt;L2^2,(K2^2)/(L2^2),(L2^2)/(K2^2))&lt;IF(K2^2&gt;L2^2,_xlfn.F.INV(0.95,COUNT(C2:C216)-1,COUNT(C2:C216)-1),_xlfn.F.INV(0.95,COUNT(C2:C216)-1,COUNT(C2:C216)-1)),2,3)),1)</f>
+        <v>2.9141318949744068E-2</v>
+      </c>
+      <c r="M4">
+        <f>IFERROR(_xlfn.T.TEST(D2:D216,B2:B216,2,IF(IF(K2^2&gt;M2^2,(K2^2)/(M2^2),(M2^2)/(K2^2))&lt;IF(K2^2&gt;M2^2,_xlfn.F.INV(0.95,COUNT(D2:D216)-1,COUNT(D2:D216)-1),_xlfn.F.INV(0.95,COUNT(D2:D216)-1,COUNT(D2:D216)-1)),2,3)),1)</f>
+        <v>4.3256895505295652E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>AllData!A7</f>
         <v>Student</v>
@@ -29253,7 +29353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>AllData!A8</f>
         <v>Student</v>
@@ -29271,7 +29371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
         <f>AllData!A9</f>
         <v>Student</v>
@@ -29288,8 +29388,11 @@
         <f>AllData!K9</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="K7" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
         <f>AllData!A10</f>
         <v>Student</v>
@@ -29306,8 +29409,17 @@
         <f>AllData!K10</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="K8" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>AllData!A11</f>
         <v>Student</v>
@@ -29324,8 +29436,20 @@
         <f>AllData!K11</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="K9">
+        <f>_xlfn.STDEV.P(B2:B191)</f>
+        <v>1.38752854279244</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9:M9" si="0">_xlfn.STDEV.P(C2:C191)</f>
+        <v>1.1266600556008128</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>1.1927760399339196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" t="str">
         <f>AllData!A12</f>
         <v>Student</v>
@@ -29342,8 +29466,17 @@
         <f>AllData!K12</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="K10" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>AllData!A13</f>
         <v>Student</v>
@@ -29360,8 +29493,20 @@
         <f>AllData!K13</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="K11">
+        <f>IFERROR(_xlfn.T.TEST(D2:D191,C2:C191,2,IF(IF(L9^2&gt;M9^2,(L9^2)/(M9^2),(M9^2)/(L9^2))&lt;IF(L9^2&gt;M9^2,_xlfn.F.INV(0.95,COUNT(D2:D191)-1,COUNT(D2:D191)-1),_xlfn.F.INV(0.95,COUNT(D2:D191)-1,COUNT(D2:D191)-1)),2,3)),1)</f>
+        <v>0.113217102685869</v>
+      </c>
+      <c r="L11">
+        <f>IFERROR(_xlfn.T.TEST(C2:C191,B2:B191,2,IF(IF(K9^2&gt;L9^2,(K9^2)/(L9^2),(L9^2)/(K9^2))&lt;IF(K9^2&gt;L9^2,_xlfn.F.INV(0.95,COUNT(C2:C191)-1,COUNT(C2:C191)-1),_xlfn.F.INV(0.95,COUNT(C2:C191)-1,COUNT(C2:C191)-1)),2,3)),1)</f>
+        <v>0.13503965753898423</v>
+      </c>
+      <c r="M11">
+        <f>IFERROR(_xlfn.T.TEST(D2:D191,B2:B191,2,IF(IF(K9^2&gt;M9^2,(K9^2)/(M9^2),(M9^2)/(K9^2))&lt;IF(K9^2&gt;M9^2,_xlfn.F.INV(0.95,COUNT(D2:D191)-1,COUNT(D2:D191)-1),_xlfn.F.INV(0.95,COUNT(D2:D191)-1,COUNT(D2:D191)-1)),2,3)),1)</f>
+        <v>4.1209776752591971E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>AllData!A14</f>
         <v>Student</v>
@@ -29379,7 +29524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>AllData!A15</f>
         <v>Student</v>
@@ -29397,7 +29542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
         <f>AllData!A16</f>
         <v>Student</v>
@@ -29414,8 +29559,11 @@
         <f>AllData!K16</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="K14" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" t="str">
         <f>AllData!A18</f>
         <v>Student</v>
@@ -29432,8 +29580,17 @@
         <f>AllData!K18</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="K15" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>AllData!A19</f>
         <v>Student</v>
@@ -29450,8 +29607,20 @@
         <f>AllData!K19</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="K16">
+        <f>_xlfn.STDEV.P(B192:B211)</f>
+        <v>1.3219304066402287</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16:M16" si="1">_xlfn.STDEV.P(C192:C211)</f>
+        <v>0.83666002653407556</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>1.3518505834595773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" t="str">
         <f>AllData!A20</f>
         <v>Student</v>
@@ -29468,8 +29637,17 @@
         <f>AllData!K20</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="K17" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>AllData!A21</f>
         <v>Student</v>
@@ -29486,8 +29664,20 @@
         <f>AllData!K21</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="K18">
+        <f>IFERROR(_xlfn.T.TEST(D192:D211,C192:C211,2,IF(IF(L16^2&gt;M16^2,(L16^2)/(M16^2),(M16^2)/(L16^2))&lt;IF(L16^2&gt;M16^2,_xlfn.F.INV(0.95,COUNT(D192:D211)-1,COUNT(D192:D211)-1),_xlfn.F.INV(0.95,COUNT(D192:D211)-1,COUNT(D192:D211)-1)),2,3)),1)</f>
+        <v>0.68364558666092212</v>
+      </c>
+      <c r="L18">
+        <f>IFERROR(_xlfn.T.TEST(C192:C211,B192:B211,2,IF(IF(K16^2&gt;L16^2,(K16^2)/(L16^2),(L16^2)/(K16^2))&lt;IF(K16^2&gt;L16^2,_xlfn.F.INV(0.95,COUNT(C192:C211)-1,COUNT(C192:C211)-1),_xlfn.F.INV(0.95,COUNT(C192:C211)-1,COUNT(C192:C211)-1)),2,3)),1)</f>
+        <v>6.2643195007046678E-3</v>
+      </c>
+      <c r="M18">
+        <f>IFERROR(_xlfn.T.TEST(D192:D211,B192:B211,2,IF(IF(K16^2&gt;M16^2,(K16^2)/(M16^2),(M16^2)/(K16^2))&lt;IF(K16^2&gt;M16^2,_xlfn.F.INV(0.95,COUNT(D192:D211)-1,COUNT(D192:D211)-1),_xlfn.F.INV(0.95,COUNT(D192:D211)-1,COUNT(D192:D211)-1)),2,3)),1)</f>
+        <v>8.703144873302723E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19" t="str">
         <f>AllData!A22</f>
         <v>Student</v>
@@ -29504,8 +29694,19 @@
         <f>AllData!K22</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="K19" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="L19">
+        <f>IFERROR(_xlfn.T.TEST(C192:C211,C2:C191,2,IF(IF(L9^2&gt;L16^2,(L9^2)/(L16^2),(L16^2)/(L9^2))&lt;IF(L9^2&gt;L16^2,_xlfn.F.INV(0.95,COUNT(C2:C191)-1,COUNT(C192:C211)-1),_xlfn.F.INV(0.95,COUNT(C192:C211)-1,COUNT(C2:C191)-1)),2,3)),1)</f>
+        <v>1.9982420699044965E-2</v>
+      </c>
+      <c r="M19">
+        <f>IFERROR(_xlfn.T.TEST(D192:D211,D2:D191,2,IF(IF(M9^2&gt;M16^2,(M9^2)/(M16^2),(M16^2)/(M9^2))&lt;IF(M9^2&gt;M16^2,_xlfn.F.INV(0.95,COUNT(D2:D191)-1,COUNT(D192:D211)-1),_xlfn.F.INV(0.95,COUNT(D192:D211)-1,COUNT(D2:D191)-1)),2,3)),1)</f>
+        <v>4.680819526160282E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>AllData!A23</f>
         <v>Student</v>
@@ -29523,7 +29724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>AllData!A24</f>
         <v>Student</v>
@@ -29541,7 +29742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>AllData!A25</f>
         <v>Student</v>
@@ -29559,7 +29760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>AllData!A27</f>
         <v>Student</v>
@@ -29577,7 +29778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>AllData!A28</f>
         <v>Student</v>
@@ -29595,7 +29796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>AllData!A29</f>
         <v>Student</v>
@@ -29613,7 +29814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>AllData!A30</f>
         <v>Student</v>
@@ -29631,7 +29832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>AllData!A31</f>
         <v>Student</v>
@@ -29649,7 +29850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>AllData!A32</f>
         <v>Student</v>
@@ -29667,7 +29868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>AllData!A33</f>
         <v>Student</v>
@@ -29685,7 +29886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>AllData!A34</f>
         <v>Student</v>
@@ -29703,7 +29904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>AllData!A35</f>
         <v>Student</v>
@@ -29721,7 +29922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>AllData!A37</f>
         <v>Student</v>
@@ -33063,15 +33264,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC39F50-491B-4545-9F82-98E8A6306DE7}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="17" max="17" width="12.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>256</v>
       </c>
@@ -33093,8 +33297,27 @@
       <c r="G1" s="6" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J1" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" t="str">
         <f>AllData!A31</f>
         <v>Student</v>
@@ -33123,8 +33346,27 @@
         <f>AllData!I31</f>
         <v>2.9166666666666674E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L2" s="7">
+        <f>_xlfn.STDEV.P(B2:B44)</f>
+        <v>1.6619464737968959E-3</v>
+      </c>
+      <c r="M2" s="7">
+        <f>_xlfn.STDEV.P(C2:C44)</f>
+        <v>2.1095218162888265E-3</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="P2" s="8">
+        <f>_xlfn.STDEV.P(E3:E39)</f>
+        <v>4.7523916075758767E-3</v>
+      </c>
+      <c r="Q2" s="8">
+        <f>_xlfn.STDEV.P(E40:E43)</f>
+        <v>4.4601502009253774E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" t="str">
         <f>AllData!A11</f>
         <v>Student</v>
@@ -33153,8 +33395,17 @@
         <f>AllData!I11</f>
         <v>6.9444444444445308E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K3" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="O3">
+        <f>IFERROR(_xlfn.T.TEST(E40:E43,E3:E39,2,IF(IF(P2^2&gt;Q2^2,(P2^2)/(Q2^2),(Q2^2)/(P2^2))&lt;IF(P2^2&gt;Q2^2,_xlfn.F.INV(0.95,COUNT(E40:E43)-1,COUNT(E3:E39)-1),_xlfn.F.INV(0.95,COUNT(E3:E39)-1,COUNT(E40:E43)-1)),2,3)),1)</f>
+        <v>0.7339694733541291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>SUBSTITUTE(AllData!A3, "Industry ", "")</f>
         <v>Student</v>
@@ -33183,8 +33434,12 @@
         <f>AllData!I3</f>
         <v>1.388888888888884E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K4">
+        <f>IFERROR(_xlfn.T.TEST(B2:B44,C2:C44,2,IF(IF(L2^2&gt;M2^2,(L2^2)/(M2^2),(M2^2)/(L2^2))&lt;IF(L2^2&gt;M2^2,_xlfn.F.INV(0.95,COUNT(B2:B44)-1,COUNT(C2:C44)-1),_xlfn.F.INV(0.95,COUNT(C2:C44)-1,COUNT(B2:B44)-1)),2,3)),1)</f>
+        <v>1.6139826274929523E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>AllData!A8</f>
         <v>Student</v>
@@ -33214,7 +33469,7 @@
         <v>2.430555555555558E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>AllData!A18</f>
         <v>Student</v>
@@ -33244,7 +33499,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
         <f>AllData!A12</f>
         <v>Student</v>
@@ -33273,8 +33528,11 @@
         <f>AllData!I12</f>
         <v>1.8055555555555602E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K7" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
         <f>AllData!A16</f>
         <v>Student</v>
@@ -33303,8 +33561,15 @@
         <f>AllData!I16</f>
         <v>2.430555555555558E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K8" s="9"/>
+      <c r="L8" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>AllData!A4</f>
         <v>Student</v>
@@ -33333,8 +33598,16 @@
         <f>AllData!I4</f>
         <v>1.4583333333333393E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L9">
+        <f>_xlfn.STDEV.P(B2:B39)</f>
+        <v>1.7170584278576597E-3</v>
+      </c>
+      <c r="M9">
+        <f>_xlfn.STDEV.P(C2:C39)</f>
+        <v>1.8121616311848139E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" t="str">
         <f>AllData!A6</f>
         <v>Student</v>
@@ -33363,8 +33636,13 @@
         <f>AllData!I6</f>
         <v>1.8749999999999989E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K10" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>AllData!A2</f>
         <v>Student</v>
@@ -33393,8 +33671,12 @@
         <f>AllData!I2</f>
         <v>1.3888888888888895E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K11">
+        <f>IFERROR(_xlfn.T.TEST(B2:B39,C2:C39,2,IF(IF(L9^2&gt;M9^2,(L9^2)/(M9^2),(M9^2)/(L9^2))&lt;IF(L9^2&gt;M9^2,_xlfn.F.INV(0.95,COUNT(B2:B39)-1,COUNT(C2:C39)-1),_xlfn.F.INV(0.95,COUNT(C2:C39)-1,COUNT(B2:B39)-1)),2,3)),1)</f>
+        <v>5.9395738845493019E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>AllData!A32</f>
         <v>Student</v>
@@ -33424,7 +33706,7 @@
         <v>1.3194444444444398E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>AllData!A5</f>
         <v>Student</v>
@@ -33454,7 +33736,7 @@
         <v>1.8749999999999989E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
         <f>AllData!A19</f>
         <v>Student</v>
@@ -33483,8 +33765,11 @@
         <f>AllData!I19</f>
         <v>1.8055555555555547E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K14" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" t="str">
         <f>AllData!A21</f>
         <v>Student</v>
@@ -33513,8 +33798,15 @@
         <f>AllData!I21</f>
         <v>2.6388888888888851E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K15" s="9"/>
+      <c r="L15" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>AllData!A9</f>
         <v>Student</v>
@@ -33543,8 +33835,16 @@
         <f>AllData!I9</f>
         <v>2.0138888888888873E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L16">
+        <f>_xlfn.STDEV.P(B40:B43)</f>
+        <v>3.4722222222219323E-4</v>
+      </c>
+      <c r="M16">
+        <f>_xlfn.STDEV.P(C40:C43)</f>
+        <v>2.8208466682763688E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" t="str">
         <f>SUBSTITUTE(AllData!A17, "Industry ", "")</f>
         <v>Student</v>
@@ -33573,8 +33873,17 @@
         <f>AllData!I17</f>
         <v>1.7361111111111105E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K17" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>AllData!A13</f>
         <v>Student</v>
@@ -33603,8 +33912,12 @@
         <f>AllData!I13</f>
         <v>2.2916666666666696E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K18">
+        <f>IFERROR(_xlfn.T.TEST(B40:B43,C40:C43,2,IF(IF(L16^2&gt;M16^2,(L16^2)/(M16^2),(M16^2)/(L16^2))&lt;IF(L16^2&gt;M16^2,_xlfn.F.INV(0.95,COUNT(B40:B43)-1,COUNT(C40:C43)-1),_xlfn.F.INV(0.95,COUNT(C40:C43)-1,COUNT(B40:B43)-1)),2,3)),1)</f>
+        <v>9.9793358724774545E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19" t="str">
         <f>AllData!A15</f>
         <v>Student</v>
@@ -33633,8 +33946,19 @@
         <f>AllData!I15</f>
         <v>2.777777777777779E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K19" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="L19">
+        <f>IFERROR(_xlfn.T.TEST(B40:B43,B2:B39,2,IF(IF(L16^2&gt;L9^2,(L16^2)/(L9^2),(L9^2)/(L16^2))&lt;IF(L16^2&gt;L9^2,_xlfn.F.INV(0.95,COUNT(B40:B43)-1,COUNT(B2:B39)-1),_xlfn.F.INV(0.95,COUNT(B2:B39)-1,COUNT(B40:B43)-1)),2,3)),1)</f>
+        <v>1.7534670463685353E-2</v>
+      </c>
+      <c r="M19">
+        <f>IFERROR(_xlfn.T.TEST(C40:C43,C2:C39,2,IF(IF(M16^2&gt;M9^2,(M16^2)/(M9^2),(M9^2)/(M16^2))&lt;IF(M16^2&gt;L9^2,_xlfn.F.INV(0.95,COUNT(C40:C43)-1,COUNT(C2:C39)-1),_xlfn.F.INV(0.95,COUNT(C2:C39)-1,COUNT(C40:C43)-1)),2,3)),1)</f>
+        <v>4.6385722666743089E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>AllData!A10</f>
         <v>Student</v>
@@ -33664,7 +33988,7 @@
         <v>2.0138888888888928E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>AllData!A7</f>
         <v>Student</v>
@@ -33694,7 +34018,7 @@
         <v>2.0138888888888928E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>AllData!A30</f>
         <v>Student</v>
@@ -33724,7 +34048,7 @@
         <v>1.8750000000000044E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>AllData!A14</f>
         <v>Student</v>
@@ -33754,7 +34078,7 @@
         <v>2.9861111111111116E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>AllData!A20</f>
         <v>Student</v>
@@ -33784,7 +34108,7 @@
         <v>2.5000000000000078E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>AllData!A27</f>
         <v>Student</v>
@@ -33814,7 +34138,7 @@
         <v>1.8750000000000044E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>AllData!A23</f>
         <v>Student</v>
@@ -33844,7 +34168,7 @@
         <v>2.0138888888888928E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>AllData!A25</f>
         <v>Student</v>
@@ -33874,7 +34198,7 @@
         <v>1.8749999999999989E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>SUBSTITUTE(AllData!A26, "Industry ", "")</f>
         <v>Student</v>
@@ -33904,7 +34228,7 @@
         <v>1.8749999999999989E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>AllData!A24</f>
         <v>Student</v>
@@ -33934,7 +34258,7 @@
         <v>1.9444444444444431E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>AllData!A29</f>
         <v>Student</v>
@@ -33964,7 +34288,7 @@
         <v>2.0833333333333315E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>AllData!A28</f>
         <v>Student</v>
@@ -33994,7 +34318,7 @@
         <v>2.0833333333333315E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>AllData!A39</f>
         <v>Student</v>
